--- a/Hot_Tests_original.xlsx
+++ b/Hot_Tests_original.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zihaowang/PycharmProjects/Takachar/Takachar-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40E464C-2751-5A49-98DA-3DF303CED282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE260D1-3AB1-F44A-8BD1-E90EDCC5AA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="352">
   <si>
     <t>Hot Test</t>
   </si>
@@ -65,6 +78,15 @@
   </si>
   <si>
     <t>Input Material</t>
+  </si>
+  <si>
+    <t>reaction stop at initial stage or not</t>
+  </si>
+  <si>
+    <t>reaction quality</t>
+  </si>
+  <si>
+    <t>any specific change to normal operation</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 61- 3/31/22  
@@ -97,6 +119,12 @@
   </si>
   <si>
     <t>The input feedrate for the experiment was approximately 37.4 kg/h.</t>
+  </si>
+  <si>
+    <t>Input Material: PG&amp;E chips</t>
+  </si>
+  <si>
+    <t>The conveyance advantage of operating the reactor at 45 degrees was demonstrated, but issues with vibrations causing a cap and primary blower to fall out of their ports, as well as burning chips reaching the bottom of the reactor, were observed.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 62- 4/1/22  
@@ -168,6 +196,25 @@
 Example Answer: The experiment involved comparing the behaviors of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The experiment encountered difficulties with coconut shells, possibly due to deformed auger blades. Rice husks conveyed smoothly, and the cyclic peaks in the data indicated different auger speeds at 6 RPM and 8 RPM. Smoke escaped through the hopper and cracks in the system, and attempts to decrease the temperature resulted in flames coming out of the system cracks. The output feedrate and yield were not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%. The next steps involve replacing Blower D and continuing to run hot tests with the remaining three blowers in place.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the objective of the experiment was to compare the behavior of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties observed in the Indian reactor.
+During the experiment, only rice husks were tested, and it was observed that they conveyed smoothly without getting stuck, even when the hopper was full. However, coconut shells did not convey well and it was suggested that the auger blades may have been deformed.
+The experiment also involved replicating the Indian reactor by adjusting the positions of the primary blowers. Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred, indicated by excess white smoke and a change in color of the smoke.
+Observations from Gabriella indicated that the initial igniting process was challenging, but eventually successful. Smoke continued to escape through the hopper and cracks, and there was a need to continuously replenish rice hulls to ensure sufficient oxygen supply. Flames were observed coming from the cracks in the hopper, and attempts were made to decrease the temperature by adjusting the blowers. However, flames started coming out of the system cracks when the blowers were lowered, and the system shut down when a fire occurred in the wires of Blower D.
+The output rate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%.
+The next steps include replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
+Based on the provided information, it is not clear what specific question or analysis you would like me to address. Please let me know if there is any specific aspect of the experiment or data that you would like me to focus on.</t>
+  </si>
+  <si>
+    <t>The objective of this hot test was to compare the behaviors of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties in conveying the biomass in the Indian reactor.
+In this test, only rice husks were tested, and the auger speed, primary blower position, and secondary blower position were adjusted to replicate the Indian reactor conditions. The results showed that the rice husks conveyed smoothly, with occasional unpleasant noises but no sticking. However, coconut shells did not convey well and were excavated from the reactor.
+The cyclic peaks observed in the temperature data indicated that the auger speed had an impact on the combustion process. At 6 RPM, the measured auger speed was 1.48 minutes per revolution, while at 8 RPM, the frequency of cyclic peaks increased. Visual observation is needed to confirm if each cycle corresponds to one full auger revolution.
+Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred during the test, indicated by excess white smoke and a change in color of the smoke. Continuous replenishment of rice husks was necessary to prevent ignition in the hopper.
+Flames were observed coming from the cracks in the hopper, particularly where the hopper and combustion chamber meet facing the sky. Lowering the blowers to 3000/4000 temporarily decreased the flame, but flames started coming out of the system cracks in three places. When the blowers were raised back to 4000/5000, the flames eventually went out.
+The flame became strong once steady state was reached, and the char appeared homogenized at the end of the run. However, the fire running too hot caused complications, including a fire in the wires of Blower D, resulting in the shutdown of the entire system. The damaged blower was unplugged, and the remaining blowers and auger were used to convey the remaining char out.
+The output feedrate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, giving a yield of 13%. At 8 RPM, the output rate was around 5.7 kg/h, giving a yield of 34%.
+The next steps include replacing Blower D and continuing to run hot tests with three blowers in place.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 63- 4/2/22  
 Note: Chimney damper was on throughout the entire test. This explains the excessive smoke leakage.  
 Personnel: Seong Ho and Kevin 
@@ -224,6 +271,12 @@
 The next steps suggested in the test report are to redo the test after replacing the rectangular profile of the reactor with a circular one to see if the motor works any harder as a result.</t>
   </si>
   <si>
+    <t>The motor angle for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The input material for this hot test was rice husks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 64 - 4/4/22  
 Personnel: Austin and Kevin 
 Objective: 
@@ -287,6 +340,12 @@
     <t>The secondary blower speed for the hot test is not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>The motor angle for Hot Test #64 is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The input material for Hot Test #64 was rice.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 65 - 4/5/22  
 Personnel: Austin and John 
 Objective: 
@@ -333,6 +392,15 @@
     <t>The example answer for the thermocouple history is not provided in the given text.</t>
   </si>
   <si>
+    <t>The experiment was conducted to test the hypothesis that moving the primary blowers to a lower position in the reactor body would prevent jamming and compression of the biomass at the rectangular-circular transition. The test ran smoothly and achieved a steady state. The rice husks were not as tightly packed as in the previous test, indicating that the new blower position helped to decrease compression. The char produced was well-charred, but slightly overcharred, possibly due to the longer effective reaction length with the primary air in a lower position.
+The experiment used rice hulls as the primary fuel, but started with a half bucket of wood chips to aid in the lighting process. The goal was to observe the effects of the new blower position on the compression of rice hulls at the transition section. The test went well, with no jamming observed. The reactor reached a steady state, although the test had to be stopped before reaching the full steady state. There was minimal visible smoke throughout the test. The ash production varied, with periods of heavier ash and periods of little to no ash.
+The next steps include repeating the same experiments with chopped rice straws or other types of straws. Additionally, unlocking the stuck NPT ports at the middle positions (B7 and B9) would allow for further testing and finding a potential optimal position for the primary blowers. The charring at the end of the test will also be monitored to see if it resembles the homogeneous charring observed with the primary air in a lower position or the uneven charring observed with the primary air in a higher position.
+The thermocouple history was not provided in the given information.</t>
+  </si>
+  <si>
+    <t>The hot test ran smoothly with the primary blower at the lowest position, resulting in a more steady state and less compression at the rectangular-circular transition</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 66 - 4/7/22  
 Personnel: Austin and Timothy 
 Objective: 
@@ -370,6 +438,23 @@
 Example Answer: The experiment conducted in Hot Test #66 aimed to find a happy medium between previous tests by unlocking stuck NPT ports at positions B7 and B9. The results showed that the reaction tapered off and eventually died, and the rectangular-circular transition became jam-packed. The interpretation suggests that insufficient reaction leads to jam-packed rice husks, making it harder to light/react and further cooling the reaction. The next steps proposed are to repeat the test with the leaks plugged up and to also repeat the test from the previous experiment (#65) to observe if the reaction would meet the same fate as #64 or #66 if run for a longer time period.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The experiment involves testing different hypotheses by varying the primary blower position and observing the resulting charring and reaction performance.
+In the specific hot test #66, the objective was to find a happy medium between the previous two tests by unlocking the stuck NPT ports at positions B7 and B9. The researchers wanted to observe the performance of the motor with the primary air at the newly unlocked position and evaluate the extent of charring at the end. They noted that in previous tests, very high or very low primary air positions resulted in uneven charring or jam-packed rice husks.
+The results of the test indicated that the reaction eventually died in both attempts. Initially, the reactor ran hot but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second attempt, the rectangular-circular transition became jam-packed.
+Based on the interpretation of the results, it was hypothesized that the reaction needs to be at an optimal position in the reactor. When the reaction is too high or too low, it leads to issues such as jam-packed rice husks or uneven charring. Insufficient reaction leads to the rice husks not being volumetrically reduced and becoming jam-packed, which further hampers the reaction.
+The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. They also suggest repeating test #65 to further evaluate its long-term performance and determine if it would meet the same fate as test #64 or #66.
+In summary, the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The researchers are testing different hypotheses by varying the primary blower position and observing the charring and reaction performance. The results indicate the need for finding an optimal position to avoid issues such as jam-packed rice husks and uneven charring.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to find a happy medium between the previous two tests by adjusting the primary air blower position. The researchers wanted to observe the extent of charring at the end of the reaction and determine if it resembled the homogeneous charring observed in the test with low primary air or the uneven charring observed in the test with high primary air.
+However, the results of the test were not successful. In both tests conducted, the reaction eventually died. In the first test, the reactor ran hot initially but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second test, the primary air blower RPM was reduced, but again the reaction tapered off and the rectangular-circular transition became jam-packed.
+Based on the interpretation of the previous tests, it is hypothesized that insufficient reaction leads to the rice husks in the rectangular-circular transition not being volumetrically reduced, resulting in them becoming jam-packed. This packed rice husks then become harder to react, further cooling the reaction.
+The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. Additionally, they suggest repeating test #65 to determine if the reaction would eventually meet the same fate as test #64 or #66 if run for a longer time period.</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 67 - 4/15/22 
 Personnel: Austin and Gabriella 
 Objective: Run the first hot test with hay in the round body, and compare that with the hay hot test in India. 
@@ -404,6 +489,32 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Input Material: hay
+Amount of Input Material: ~3kg
+Amount of Biochar Collected: 0.9kg
+Issues Encountered: 
+- Flow issues with the hay, resulting in slow feeding rate
+- Hay clumped together and charred all the way through
+- Hay caught fire in the hopper, limiting the test duration
+- Auger struggled to move the mass of hay
+- Thermocouple 6 fell out and other thermocouples had sporadic high readings
+- Thick white smoke and flame shot out of the hopper
+- Hay sticks together even after being charred
+Observations and Recommendations:
+- Hay needs to flow better, possibly by chopping it or changing the location of blowers
+- Start-up ignition may require additional wood chips
+- Address the issue of hay clumping together
+- Ensure proper functioning of thermocouples
+- Investigate and resolve the issue of thick white smoke and flame shooting out of the hopper
+Next Steps:
+- Consider chopping the hay in future tests
+- Explore moving the location of blowers to improve motion
+- Address the issue of hay smothering the flame and containing it strictly inside the system</t>
+  </si>
+  <si>
+    <t>The feeding rate of hay was slow due to flow issues, resulting in only 0.9 kg of char collected and a substantial amount of woodchips.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 68- 4/20/22 
@@ -490,6 +601,35 @@
 Overall, the experiment provides valuable insights into the challenges faced during the combustion process and machine design. Further experimentation and analysis can help in refining the system and achieving better results.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the combustion experiments with rice straw biomass did not go as expected. The hay material used for the experiments did not flow well and tended to stick together, causing difficulties in moving it through the system. This resulted in the hay catching fire in the hopper, which was extinguished with water.
+To address the issue of poor flowability of the hay, some possible solutions were suggested. One option is to have teeth on the auger to grab the hay and improve its movement. However, this would require redesigning the system. Another suggestion is to investigate why the hay is sticking to itself and find ways to break this cohesion. If the sticking is due to static electricity, using a dryer sheet-like material could potentially reduce the cohesion. Alternatively, preheating the hay before introducing it into the system might help break up the sticking.
+To further improve the experiments, it is recommended to run the auger for a longer duration (30+ minutes) with wood chips to heat up the system before introducing the rice straw biomass. This would ensure that the system reaches a higher temperature and is better prepared for the combustion process.
+Overall, the observations and suggestions provided by Gabriella indicate the need for modifications in the experimental setup to address the flowability issues of the hay biomass and improve the sustainability of the combustion process.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice straw
+Observations:
+- The experiment started with using straws instead of wood chips.
+- The flame went out and the reactor did not heat up significantly.
+- Wood chips were added to the side port and relit, which resulted in the reactor warming up for a while before cooling down again.
+- Smoke was observed from both the chimney and hopper simultaneously.
+- The hopper caught fire and had to be extinguished with water.
+- Rice straw was not flowable and required jamming to make it flow.
+- The fiber length of the chopped rice straws was around 2 inches on average.
+- When a big hopper was filled, the content sagged but did not flow out.
+- The rice straw was very compressible compared to other materials.
+- The auger occasionally struggled to move the biomass.
+- Hay was used in a separate test and required multiple ignitions to sustain the flame.
+- The hay did not flow well and tended to stick together.
+- The hay caught fire in the hopper in both tests.
+- The lack of flowability of the hay may be causing it to not move through the system fast enough.
+- Possible solutions suggested include adding teeth to the auger to grab the hay, finding a way to reduce the cohesion of the hay, or preheating the hay to break up its attraction.
+Next Step: Heat up the reactor more with wood chips for 30+ minutes before introducing rice straws.</t>
+  </si>
+  <si>
+    <t>The hay biomass did not flow well and required manual pushing, leading to difficulties in combustion and a fire in the hopper. Possible solutions include adding teeth to the auger or addressing the cohesion of the hay biomass.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 69- 4/21/22 
 Personnel: Austin and John 
 We started with wood chips, took a long time to light (maybe due to wet weather, or due to leftover straw doused with water yesterday in there; wet straw could also have clogged up the air inlet ports). It seemed the flame we could see through the side ports weren’t getting enough air. We ramped up eventually to 7000 rpm just trying to get through a possibly clogged port. Then we added a second bucket and relit. Then it was going quite well – good flame established, running at continuous at 6 RPM. Then we started putting in straw, a couple of handfuls at a time and poking into the auger. Seemed to be going reasonably well, keeping the straw level right at the top of the auger (not hopper), then slowly adding more and more. We only added most of the bucket (first bucket). Then a tiny whiff smoke came out of the hopper.  
@@ -526,6 +666,15 @@
     <t>Based on the provided information, the secondary blower speed for this hot test is 3000 RPM.</t>
   </si>
   <si>
+    <t>Based on the provided experiment description, it seems that the combustion process did not go as expected. The experimenters encountered difficulties in lighting the wood chips, possibly due to wet weather or the presence of wet straw that may have clogged the air inlet ports. They had to increase the motor speed to try and overcome the potential clog.
+After adding a second bucket of wood chips and relighting, the combustion process improved, and a good flame was established at a continuous motor speed of 6 RPM. However, when they started adding straw to the auger, the hopper caught fire after 10 minutes. The experimenters attempted to control the fire by dousing it with water while continuing to rotate the auger at higher speeds and reducing the air supply. Despite their efforts, a significant amount of smoke continued to come out of the chimney and other cracks in the machine.
+It is worth noting that when a small ember was present, the entire system ignited, but when there was no ember, no ash was observed coming out of the chimney.
+Based on this information, it appears that the addition of straw to the combustion process caused unexpected and uncontrolled combustion. Further investigation is needed to understand the specific factors contributing to the hopper fire and the excessive smoke production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The hopper caught fire and there was excessive smoke coming out of the chimney and machine cracks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 70- 4/22/22 
 Personnel: Austin and Gabriella 
 Moved the primary blowers to the topmost position. When properly flowing, primary 3000, secondary 2500, auger 6. For lighting, primary was 4000. Later we had some chimney smoke and reduced primary to 3000.  
@@ -545,6 +694,12 @@
   </si>
   <si>
     <t>Example Answer: The secondary blower speed for this experiment is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Wood chips (PG&amp;E)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Primary blowers were moved to the topmost position, resulting in a jam between the round body and the auger due to rice straws getting wedged in there.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 71 - 4/25/22 
@@ -578,6 +733,32 @@
     <t>The secondary blower speed for the hot test was not mentioned in the provided information.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis regarding the location of the primary air in the biomass combustion process. The previous tests with rice straws and circular cross-sections resulted in hopper fire when the primary air was at the bottommost location and biomass sticking when the primary air was at the topmost location. Therefore, the objective of this test was to determine the outcome when the primary air is at the middle location.
+The experiment used PG&amp;E wood chips as the biomass input and set the primary air at 1300. Increasing the primary air beyond 1300 resulted in more smoke from the hopper. The experiment did not experience any jamming and ran smoothly throughout. However, there was cyclic smoke emission from both the chimney and the hopper. The input feed rate was approximately 11 kg/h.
+The experiment did not achieve steady-state conditions, as the temperature went down on its own without changing the blower RPM. Gabriella's observation mentioned that mulched hay was successfully charred during the test, but the auger started to struggle as the test progressed. The smoke emitted from the chimney changed colors intermittently. The feeding of hay into the system required manual assistance and was done gradually to prevent jamming. The auger jamming was accompanied by an increase in smoke, mostly from the hopper.
+Overall, the experiment provided some insights into the combustion process and the behavior of the machine design. However, further investigation and replication of the test are needed to draw more conclusive results.</t>
+  </si>
+  <si>
+    <t>Input Material: PG&amp;E wood chips
+Primary Air Location: Middle
+Secondary Air Speed: 2500 or 3500 (unclear)
+Observations:
+- No jamming occurred during the test.
+- Smoke from the chimney and hopper was observed cyclically.
+- The input feed rate was approximately 11 kg/h.
+- Steady state was not achieved, as the temperature decreased without changing the blower RPM.
+- Mulched hay was successfully charred, with a total of 6.7 kg of char produced.
+- The auger struggled as the test progressed.
+- The flame appeared strong despite temperature readings and smoke indicating otherwise.
+- The system exhibited cyclic behavior, with the auger getting jammed and increasing smoke volume.
+- Blower speed and auger speed changes did not always result in desired changes.
+- The system produced white, black, and yellow smoke at different times.
+- The hay was manually fed into the system, with the tactic of gradually adding it and plugging holes.
+- The system's behavior was influenced by the thickness of smoke, auger struggling, and hopper smoking.
+- The test's replicability is of interest.
+Note: The information provided is based on the given example and may not reflect the complete understanding of the combustion process and machine design. Further analysis and experimentation may be required for a comprehensive understanding.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 72 - 4/26/22 
 Personnel: Austin and John 
 Hypothesis: We replaced the circular cross section with the rectangular cross section in the reactor, while keeping the primary air at the same location (top, or B10/B12). We wanted to observe any differences once the auger-inner wall constrictions are relaxed. Our hypothesis is that by relaxing the auger-inner wall constrictions, unlike the circular cross section previously, the hay would not get stuck. 
@@ -611,6 +792,13 @@
 Unfortunately, the provided information does not include any details about the thermocouple history.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment involved testing a rectangular cross-section reactor design with relaxed auger-inner wall constrictions. The objective was to observe any differences in biomass conveyance compared to the previous circular cross-section design. The primary blowers were set at 1500 and the secondary blowers at 2500. 
+The outcome of the experiment indicated that there were no significant conveyance issues, but there were shudders and signs of friction. Smoke was observed coming out of cracks and intermittently from the hopper. Flames were also observed coming out of cracks below and above the chimney connector piece. The damper was removed, but it still acted as if it was present. 
+Upon inspection, it was found that the chimney mesh had rice straw char lodged between the wires, but they fell out easily and there were not many clogged mesh wires. However, there was an accumulation of fine char dust in the chimney elbow at the secondary blower outlets. The secondary blowers were clogged by uncharred and charred straws, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports were filled with char dust, more so on the IFM side.
+The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if it was causing the smoke from the hopper. 
+Unfortunately, the provided information does not include any details about the thermocouple history.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 73 - 4/27/22 
 Personnel: Austin and Kevin 
 Hypothesis: Given our hypothesis that the clogged chimney mesh caused the hopper smoke, we removed the chimney mesh and conducted the same hot test. Primary blowers were at the same topmost (B10/B12) positions. Reactor profile was rectangular. 
@@ -647,6 +835,14 @@
     <t>Based on the provided information, the example answer for the thermocouple history is not available.</t>
   </si>
   <si>
+    <t>In this hot test, the experimenters conducted the combustion experiment without the chimney mesh to test the hypothesis that it was causing the hopper smoke. The primary blowers were set at the same positions as before, and the reactor profile was rectangular. The input material used was 1.5 bucketfuls of eucalyptus wood chips. 
+During the test, the experimenters observed that the wood chips in the flame zone were filled almost to the top through the cracks of the chimney base, which was not seen in previous tests. They speculated that this might be due to manually packing the wood chips more tightly. 
+The flames were quickly established after starting the auger at 6rpm and feeding straw into the reactor. However, there were some small fires in the hopper, which were reduced to a manageable level by increasing the auger speed to 10rpm. The straw had to be continuously pushed into the auger to keep it full and prevent hopper fires. 
+The average feed rate during the experiment was approximately 27 kg/h. When the char outlet was opened at the end of the experiment, there was no smoke, and the straws appeared evenly charred. 
+The next steps mentioned in the hot test include installing a mega chimney and testing it with rice hulls to assess its effectiveness in reducing ash and charred particles coming out of the chimney. 
+No information is provided about the thermocouple history in this hot test.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 74 - 5/4/22 
 Personnel: Austin and Gabriella  
 Hypothesis: To see if moving primary blowers to the middle position with the round body can create a happy medium of flow vs, smoke. 
@@ -701,6 +897,12 @@
     <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The experiment involved using a primary blower with settings of 4000&gt;2500&gt;3000, a secondary blower with a setting of 3000, an auger speed of 6, an angle of 45, and a round body. 
 The outcome of the experiment confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation, even when burning embers were flowing inside the reactor. However, the experiment did not run smoothly due to windy conditions and difficulty in controlling smoke. The blowers' positions (B7, B9) did not provide enough volumetric reduction in the square to round transition area, leading to jamming. The challenge of balancing the primary blower settings to increase reaction in the transition zone while preventing smoke from pouring out of the hopper was also mentioned. The reaction temperature was not hot enough to completely stop smoke from the chimney, resulting in a complaint from a neighbor. The wood chips used, primarily PG&amp;E chips, required constant agitation to maintain flow through the hopper. 
 The suggested next step is to invest time in getting the ProFire working again to prevent future complaints. Unfortunately, no information about the thermocouple history was provided.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary blowers for oxygen supply, secondary blowers for volatile removal, and thermocouples for temperature measurement.
+In the example hot test, the hypothesis was that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The settings for this test included specific values for primary blowers, secondary blowers, auger speed, and motor angle. The outcome of the test confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation.
+However, the hot test did not run smoothly due to windy conditions and difficulties in controlling smoke. The blowers' position and the reaction temperature were challenging to optimize, resulting in smoke pouring out of the hopper and a neighbor complaint. The wood chips used required constant agitation to maintain flow through the hopper. The next steps suggested investing time in getting the ProFire working again to prevent future complaints.
+Unfortunately, the provided information does not include any specific data or values from the thermocouples.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 76 - 5/20/22 
@@ -743,6 +945,16 @@
 Unfortunately, the provided information does not include any data or values for the thermocouple history.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and primary and secondary blowers for air supply and volatile removal, respectively. Thermocouples are used to measure temperature at different locations.
+In the example hot test, the hypothesis was to sustain the primary blower speeds at 2000 rpm and the secondary blower speeds at 3500 rpm to achieve optimal amounts of char. However, the outcome of the test indicated that a steady state could not be achieved. The reactor became full, reducing air flow and cooling down. Rice hulls got stuck in the reactor body, causing the flame to be higher up and emitting smoke from various locations. The auger had to be reversed to unjam the reactor. Only about 50% of the rice hulls were charred, indicating that the hypothesis was not confirmed.
+Notable observations included the emission of light gray smoke from the hopper, reactor body, and bottom of the chimney, as well as occasional large clouds of white smoke from the chimney. The flames were higher up in the reactor body than usual, possibly due to the amount of biomass added. The reactor body and thermocouple 4 gradually cooled down over time, resulting in less optimal char production.
+The suggested next steps include conducting tests with variable blower speeds (increasing primaries) to assess the possibility of operating even when the reactor body is full, or performing the reaction at a lower angle.
+Unfortunately, no information is provided regarding the thermocouple history.</t>
+  </si>
+  <si>
+    <t>The thermocouple history for this hot test is not provided in the given information.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 77 - 5/23/22 
 Personnel: Eymon, Austin, Gabriella, Cerise, Kevin 
 Hypothesis: Using rice straws to replicate the smoke coming out of the chimney the India team is experiencing. 
@@ -772,6 +984,17 @@
   </si>
   <si>
     <t>Based on the provided information, it seems that the thermocouple history is missing or not mentioned in the example. The thermocouple measurements are crucial for understanding the temperature distribution within the reactor during the combustion process. It would be helpful to have data from the thermocouples to analyze the temperature profiles and identify any potential issues or variations in the experiment.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the thermocouple history is missing or not provided. The thermocouples are mentioned as measuring the temperature at different places, but there is no data or observations mentioned regarding the temperature measurements from the thermocouples.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment involved testing the combustion process in a small-sized reactor for biomass to biochar formation. The objective was to gain a complete understanding of the combustion process and machine design by testing different hypotheses. In this specific hot test (#77), the personnel involved were Eymon, Austin, Gabriella, Cerise, and Kevin.
+The hypothesis for this test was to use rice straws to replicate the smoke that the India team was experiencing. The settings for the primary blower, secondary blower, and auger were 4000 rpm, 3000 rpm, and 10 rpm, respectively.
+The outcome of the test was that the chimney smoke experienced by the India team could not be replicated due to differences in the design of the prototype at RFS. The test had to be stopped because the hopper caught fire, possibly due to an ember falling into the hopper section. Smoke and some ashes were observed coming out from the chimney, as well as smoke escaping from cracks.
+Notable observations included the absence of a hopper, with rice straws being manually fed instead. The inability to replicate the chimney smoke was attributed, in part, to the new square section design.
+The next steps recommended were to replicate a similar design to the India team's prototype in order to produce the chimney smoke they were experiencing. Additionally, the reasons for the chimney smoke and possible solutions were to be identified.
+No information was provided regarding the thermocouple history.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 78 - 5/26/22 
@@ -809,6 +1032,18 @@
 2. It is recommended to investigate and address the issues with the auger jamming and the hopper catching fire.
 3. Further analysis of the thermocouple data is needed to understand the temperature distribution and any potential correlations with the observed issues.
 Please note that without access to the detailed data and experimental setup, it is challenging to provide a comprehensive analysis.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment involved conducting a hot test using rice straw as the biomass in a 30° configuration. However, the test encountered several issues and did not reach a steady state. The notable observations include yellowish smoke coming out of the chimney and cracks of the reactor, visible ash particles from the chimney, auger jamming and flipping the breaker switch, and a hopper fire. To mitigate the smoke issue, a propane blower was used to burn through the side port. 
+The next step suggested is to conduct the next test using wood chips instead of straw, as the straw may burn too quickly and not sustain the required heat. 
+Unfortunately, the provided information does not include any specific data or measurements from the thermocouples.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the hot test conducted with rice straw in the reactor at a 30° configuration resulted in several observations and issues. Notably, there was a hopper fire, ash particles were visible from the chimney, yellowish smoke was emitted, and the auger experienced jamming. To mitigate the smoke, a propane blower was used through the side port.
+For the next test, it is suggested to use wood chips instead of straw to establish a more sustainable and controllable fire. This is because straw may burn too quickly, making it difficult to maintain a steady state of heat.
+To gain a complete understanding of the combustion process and machine design, it is recommended to analyze the thermocouple data. The thermocouples should be placed at different locations within the reactor to measure temperature variations. By analyzing the temperature profiles, it will be possible to identify any hotspots, temperature gradients, or other patterns that can provide insights into the combustion process and reactor performance.
+Additionally, it would be beneficial to investigate the cause of the hopper fire and the auger jamming. This could involve examining the design and operation of the hopper and auger system, as well as considering any potential issues with the biomass feedstock.
+Overall, by systematically analyzing the experimental data, addressing the observed issues, and testing different hypotheses, a comprehensive understanding of the combustion process and machine design can be achieved.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 79 - 5/31/22 
@@ -848,6 +1083,17 @@
 Notable observations included the reactor maintaining a decently high temperature (around 240°F), but the test could not be sustained. The hopper caught fire twice. Low amounts of smoke and ash were observed coming from the chimney. The char produced looked well done.
 The next steps mentioned in the example were to continuously pack the rice straw in the next test to prevent oxygen from entering and causing hopper fires.
 No information is provided about the thermocouple history.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment involved testing the combustion of biomass (specifically rice straw) in a newly designed small-sized reactor. The objective was to understand the combustion process and machine design by testing different hypotheses.
+During the hot test, the reactor was set at a 30° configuration, and woodchips were used to ignite the biomass. The primary blower provided air (oxygen) to the reactor zone, while the secondary blower removed volatiles through the chimney. The auger rotated at 10 rpm to carry the biomass into the reactor.
+The outcome of the test was the production of approximately 0.9 kg of char, with most of it coming from the woodchips. However, steady state was not achieved, and there were issues with hopper fires. It was observed that the rice straw was not packed tightly enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame. Minimal ash and smoke were observed coming from the chimney.
+In the second attempt, the biomass was not being fed quickly enough, and there were again issues with hopper fires. The reactor maintained a temperature of around 240°F but the test could not be sustained.
+The next steps mentioned in the report include continuously packing the rice straw to prevent oxygen from entering and causing hopper fires.
+Unfortunately, no specific information about the thermocouple history was provided in the given text.</t>
+  </si>
+  <si>
+    <t>The thermocouple history was not provided in the given information.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 80 - 6/1/22 
@@ -906,6 +1152,18 @@
     <t>Secondary blower speed: 2000 rpm</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment conducted was aimed at testing the hypothesis of using mulched rice straw to prevent auger jamming and hopper fires. The settings for the experiment were as follows: Primary blower at 3000, Secondary blower at 2000, and Auger rotating at 10 rpm. The reactor temperature was set at 30°C, and a large chimney was used for the removal of volatiles.
+The outcome of the experiment indicated that aggressively feeding the mulched straw into the hopper and packing it caused the auger to jam on multiple occasions, even with the use of mulched straw. This led to the need to run the auger in reverse to unjam it. Additionally, hopper fires occurred, possibly due to the intermittent stopping of the auger. The reactor body also produced knocking and screeching noises. The constant tripping of the auger breaker prompted an investigation into electrical issues.
+Notable observations from the experiment include the auger jamming and stopping three times, the hopper catching on fire, knocking and screeching noises from the reactor body, and the inability to reach a steady state. An investigation into the electrical issue was also mentioned.
+The suggested next steps include replacing the breaker to ensure it is not the cause of the problem, trying to feed the mulch at a faster rate, and disassembling the machine to investigate any potential mechanical issues.</t>
+  </si>
+  <si>
+    <t>Input Material: Mulched rice straw</t>
+  </si>
+  <si>
+    <t>The aggressive feeding of mulched straw caused the auger to jam and stop multiple times, leading to hopper fires and knocking/screeching noises from the reactor body.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 82 – 06/07/22 
 Personnel: Austin, Gabriella, Eymon, Cerise, Charu, Elliot, Shadi(Austin was playing supervisory role) 
 Hypothesis: To run a test with rice hulls to compare its performance against rice straw. Wanted to reduce auger jams.  
@@ -935,6 +1193,14 @@
   </si>
   <si>
     <t>Based on the provided information, the thermocouple history is not mentioned in the example hot test.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to compare the performance of rice hulls against rice straw in terms of reducing auger jams. However, the experiment encountered some issues and observations. 
+Firstly, there were knocking and screeching noises coming from the reactor body, which could indicate some mechanical problems or issues with the design. 
+Secondly, the temperature inside the reactor gradually decreased over time, likely due to the buildup of rice hull char. This suggests that the combustion process was not efficient enough to maintain high temperatures. 
+Additionally, there were occasional instances where the auger stopped turning and needed to be restarted, indicating potential issues with the auger mechanism. 
+To address these problems, the next steps include replacing the breaker to ensure it is not causing jamming issues and potentially running the blowers at faster rates to maintain higher temperatures. 
+Unfortunately, no specific information is provided about the thermocouple history, so it is not possible to provide an example answer for that.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 83 – 06/13/22 
@@ -986,6 +1252,21 @@
     <t>The secondary blower speed for the hot test was 2000.</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment with rice hulls in the small-sized reactor was not successful. There was a significant buildup of rice hulls in the reactor, resulting in smoke and potential jamming. The motor continued to spin even when the auger was stopped for a few seconds. Some ash was observed coming out of the chimney, and smoke was also observed coming out of cracks. The mixed char produced in the experiment had a weight of around 16 kg in the first barrel and 12 kg in the second barrel.
+To address these issues and improve the experiment, the following next steps are suggested:
+1. Use fewer woodchips at a time or consider pushing woodchips through the combustion chamber instead of directly through the reactor. This may help prevent jamming during the feeding of rice hulls.
+2. Investigate the possible causes of jamming while rice hulls are being fed into the reactor. This could involve examining the design and operation of the auger system.
+3. Analyze the composition and properties of the produced biochar to understand its quality and potential applications.
+4. Consider modifying the reactor design to minimize the buildup of biomass and improve the overall combustion process.
+5. Conduct further experiments with different biomass feedstocks to evaluate their behavior and performance in the reactor.
+6. Monitor and analyze the temperature profiles at different locations in the reactor using the thermocouples to gain a better understanding of the combustion process.
+7. Investigate the source of smoke coming out of cracks and take measures to prevent it, such as sealing any potential leakage points.
+By implementing these next steps, it is expected that the combustion process and machine design can be better understood, leading to improvements in the reactor's performance and biochar production.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice Hulls</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 84 – 07/08/22 
 People: Austin, Elliot, Shadi, Yiyang, Bernard 
 Hypothesis: This is the first test with the new auger. Wanted to see how this auger would perform.  
@@ -1008,6 +1289,20 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is 3000.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves inputting biomass into the reactor using a hopper and an auger that rotates at a certain speed. The volatiles are removed through a chimney, and the output biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different places.
+In the specific example hot test described, the hypothesis was to test the performance of a new auger. However, the test was not successful due to the buildup of rice hulls in the reactor, which caused white and yellow smoke to escape through cracks in the reactor hull. The observations noted that the new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The next steps suggested include finding a way to block off the chimney to prevent buildup, switching the augers, and lining the reactor to reduce smoke emission.
+To gain a complete understanding of the combustion process and machine design, further experiments can be conducted by testing different hypotheses. These experiments can involve varying parameters such as the speed of the auger, the biomass input rate, the reactor temperature, and the airflow rates. By systematically analyzing the data collected from these experiments, it will be possible to identify the optimal conditions for biomass to biochar conversion and improve the design of the reactor to minimize issues such as buildup and smoke emission.</t>
+  </si>
+  <si>
+    <t>Input Material: rice
+Outcome: Not successful, with lots of buildup in the reactor body from the rice hulls and excessive white and yellow smoke.
+Notable Observations: The new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The smoke exited through cracks in the reactor hull.
+Next Steps: Block off the chimney to prevent buildup, switch the augers' positions, and line the reactor to reduce smoke emission.</t>
+  </si>
+  <si>
+    <t>The new auger performed faster than previous augers, leading to an accumulation of rice hulls in the reactor and excessive smoke emissions through cracks in the reactor hull.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 85 – 07/12/22 
@@ -1053,6 +1348,24 @@
   </si>
   <si>
     <t>The secondary blower speed for this experiment was 3000.</t>
+  </si>
+  <si>
+    <t>The experiment conducted was aimed at testing a new auger design with wood chips in order to reduce jamming in the reactor. The settings for the experiment included primary blower at 2000, secondary blower at 3000, auger speed at 6, reactor temperature at 30º, and a large chimney for volatile removal. The feedstock used was a pile of leafy, fibrous eucalyptus wood chips, which were manually fed into the reactor by Gabriella and Eymon.
+The outcome of the experiment was not successful as there were not enough wood chips to match the amount of air being pushed into the machine. The high temperatures resulted in an extremely hot fire but did not burn up much material. It was observed that thermocouples 5 and 6 were switched and this needs to be corrected when analyzing the data. Additionally, there was a lack of wood chip flow, possibly due to bridging in the auger and friction between the reactor walls and auger parts. Although the new auger design reduced jamming, the friction issue persisted.
+The next steps suggested include finding ways to increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions could involve increasing the auger speed or using smaller/less fibrous wood chips. It is also important to investigate if the new auger design is affecting the airflow from the hopper to the combustion zone, as the fire descended to the hopper during the experiment. Kevin recommended conducting the experiment with the same person (e.g., Austin) feeding the biomass to determine if human factors play a role. If Austin is unavailable, the experiment can be conducted with the same people (Gabriella/Eymon) but with an increased auger speed for wood chips.</t>
+  </si>
+  <si>
+    <t>Input Material: Wood chips, leafy, fibrous eucalyptus pile (probably)
+Outcome: Overall not successful. The fire was extremely hot, but not burning up much material due to a lack of wood chips for the amount of air being pushed into the machine.
+Notable Observations:
+- Thermocouple 5 and 6 were switched and need to be transposed when creating data.
+- Friction between the reactor walls and auger parts persists, although the new auger jams less.
+- The fire descended to the hopper underneath, leading to the shutdown of the machine.
+Next Steps:
+1. Increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions include speeding up the auger or using smaller/less fibrous wood chips.
+2. Investigate if the new auger is affecting the amount of air getting from the hopper to the combustion zone. The fire descending to the hopper suggests a potential issue.
+3. Test if the person shoving the biomass (e.g., Austin) is a factor in the experiment. If possible, have the same person consistently perform this task. If not, consider increasing the auger speed for wood chips while using the same individuals (Gabriella/Eymon) for shoving.
+4. Consider Kevin's recommendation and explore other factors that may be influencing the combustion process and machine performance.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 86 – 07/13/22 
@@ -1098,6 +1411,28 @@
 Based on these observations, the next steps should include fixing the gap between the auger flights to prevent jamming and testing different biomass types to assess the impact of the gap on the overall performance. Additionally, further investigation into the combustion process, oxygen supply, and mixing of biomass and air should be conducted to optimize the design and operation of the reactor.</t>
   </si>
   <si>
+    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly, leading to frequent jams and the need to remove biomass and run the auger backwards to clear the jam. Additionally, the auger itself was significantly warped, with a noticeable gap between the new auger and the welded piece on the top auger.
+The yellow smoke emitting from the cracks in the reactor suggests incomplete combustion, which could be due to the difficulty in maintaining a consistent reactor fire during certain portions of the hot test. This could be related to the jamming issue and the inability to feed biomass effectively into the reactor.
+Furthermore, the lack of biochar collected at the end of the hot test and the presence of ash instead indicate that the combustion process was not efficient in converting the biomass into biochar.
+Based on these observations, the next steps would involve addressing the issues with the auger. Fixing the gap between the auger flights is crucial to ensure smooth operation and prevent jamming. Additionally, investigating the cause of the auger warping and finding ways to mitigate it would be important to maintain the performance of the auger over time.
+It is also suggested to test a different biomass to evaluate the impact of the auger gap on the combustion process. This would provide insights into the suitability of the current design for different feedstocks.
+Overall, the objective of gaining a complete understanding of the combustion process and machine design would require further experimentation and modifications to address the issues observed in this hot test.</t>
+  </si>
+  <si>
+    <t>The hot test conducted in this experiment involved using a new auger with wood chips as the feedstock. The objective was to test if increasing the auger speed would reduce jamming. However, the hot test was a failure as the auger was unable to run without jamming and stopping on its own.
+Notable observations from the experiment include:
+- The auger ceased to run 7 times during the test, requiring removal of biomass and running the auger backwards to eliminate the jam.
+- The left side of the auger flights was packed tightly, making it difficult to add more wood chips and potentially contributing to the jams.
+- Yellow smoke was emitting from cracks in the reactor.
+- The reactor fire was hot but had difficulty being maintained at certain points during the test.
+- Very little biochar was collected at the end of the test, mostly ash.
+- The auger was significantly warped, with a significant gap between the new auger and the welded piece on the top auger.
+The next steps suggested include fixing the gap between the auger flights, as it seems to be the most important issue. Additionally, testing a different biomass could help determine the impact of the gap. The rapid warping of the auger is surprising and needs to be addressed.</t>
+  </si>
+  <si>
+    <t>The hot test was a failure due to the auger jamming multiple times and emitting yellow smoke from cracks in the reactor, resulting in minimal biochar production and a significant amount of ash.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 87 – 07/15/22 
 People: Austin, Shadi, Elliot, Yiyang 
 Hypothesis:  Use woodchips again to see if we can stop the consistent jamming.  
@@ -1145,6 +1480,15 @@
   </si>
   <si>
     <t>The secondary blower speed for this hot test is 4000.</t>
+  </si>
+  <si>
+    <t>The experiment conducted in Hot Test #87 aimed to investigate the possibility of preventing consistent jamming in the reactor by using woodchips. However, the outcome was not successful as the auger jammed multiple times even before it was lit. Additionally, there was a significant amount of smoke coming from the reactor body, although the char was well charred.
+Notable observations from the experiment include the repeated jamming of the auger, noises coming from the reactor when the motor was reversed to stop the jamming, and the woodchips pulling up like rice hulls, resulting in smoke from the chimney.
+Based on these observations, the next steps suggested are to explore the use of smaller woodchips to potentially prevent jamming, consider using different biomasses and restocks to avoid large woodchips, and lower the reactor angle to prevent the piling up of woodchips and rice hulls.
+It is important to note that this example answer is based solely on the provided information and does not take into account any additional knowledge or context.</t>
+  </si>
+  <si>
+    <t>Input Material: Woodchips</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 88 – 07/16/22 
@@ -1193,6 +1537,21 @@
 Example Answer: The experiment aimed to resolve wood chip jamming by moving the primary blower position down two notches. However, the results showed slow conveyance of wood chips, frequent auger stops, and the formation of a pile of charred wood chips below the chimney section. This led to motor tripping and a hopper fire. The white smoke observed in the chimney and hopper may have been caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were anemic, and the char output was mixed. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, and the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%. The next steps suggested include testing a more flowable material with increased hydrostatic head, lowering the reactor angle, testing a new 6'' auger, and repositioning the primary blowers to a higher circumferential position.</t>
   </si>
   <si>
+    <t>Based on the provided information, the experiment conducted in the newly designed small-sized reactor aimed to investigate the combustion process and machine design for biomass to biochar formation. The experiment involved inputting biomass into the reactor using a hopper and an auger, which carried the biomass into the reactor for combustion in the presence of oxygen. The volatiles were removed through a chimney, while the output biochar was collected at the other end of the auger. Thermocouples were used to measure temperature at different locations.
+In the specific hot test described, the hypothesis was that moving the primary blower position down two notches would resolve wood chip jamming. The primary blower position was changed from B10/B12 to B4/B6. Wood chips collected from the City of Berkeley were used as the feedstock.
+The results of the hot test indicated that the conveyance of wood chips was initially slow, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and a visible flame was lost, replaced by smoke and later by higher biomass/char. Charred wood chips started piling up below the chimney section, leading to motor tripping and eventually causing a hopper fire. The white smoke was believed to be caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were described as anemic. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, while the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%.
+Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially aimed to be halfway through S4 but advanced closer to the base of the chimney. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted beyond the chimney region. Initially, only one secondary blower was used due to command issues with the other blower, but it was later replaced and put back into service.
+The next steps proposed in the experiment included testing a more flowable material with increased hydrostatic head to address the accumulation problem below the chimney. Additionally, lowering the reactor angle to 15 degrees was suggested to investigate the effect on char falling backwards near the outlet. The possibility of compression effects from the new auger design was also mentioned, and it was suggested to run the reaction at high temperatures to exceed any compression effects. Finally, repositioning the primary blowers to a higher circumferential position, such as S8, S9, or S10, was proposed to test the potential impact of the primary blower position on flow constrictions.
+In summary, the experiment aimed to understand the combustion process and machine design for biomass to biochar formation. The hot test described the results and observations, and proposed next steps to address the wood chip jamming issue and further investigate the machine design.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower position down two notches. The feedstock used was wood chips collected from the City of Berkeley. 
+The results of the test showed that the conveyance of wood chips was very slow initially, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and the visible flame at the chimney base was replaced by smoke and later by higher biomass/char. The charred wood chips started piling up below the chimney section, causing more frequent motor tripping. Eventually, a hopper fire occurred, and the reactor had to be shut down. The white smoke may have been caused by blocked channels for air flow due to the piling wood chips below the chimney, which also caused more backflow through the hopper. The thermocouple readouts were anemic throughout the process. The char output looked mixed, with some parts not charred. The input flow rate was approximately 50 kg/h, slowing over time, and the output flow rate was approximately 7.5 kg/h, resulting in an average yield of 15%.
+Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially started halfway through S4 but advanced closer to the base of the chimney later on. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted well past the chimney region. One of the secondary blowers had command issues initially but was put back into service for the latter half of the test.
+The next steps suggested in the report include testing a more flowable material with increased hydrostatic head to see if the accumulation problem persists, lowering the reactor angle to 15 degrees to test if char near the outlet falls backwards, making a new 6'' auger to test if the accumulation effect is related to the auger design, and repositioning the primary blowers to a higher circumferential position to test if the problem is caused by constricted flow due to ash/char falling into the NPT pipe.
+Overall, the hot test provided insights into the wood chip jamming issue and proposed potential causes and solutions for further investigation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 89 – 07/18/22 
 People: Shadi, Charu, Vidyut, Kevin 
 Hypothesis: Wood chip jamming may be resolved if we move the primary blower circumferentially up.  
@@ -1241,6 +1600,24 @@
 The experiment yielded two sections, a faster section and a slower section. In the faster section, the char out was approximately 28.7 kg/h, and the biomass feed was around 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char out was approximately 29.1 kg/h, and the biomass feed was around 71.8 kg/h, resulting in a yield of 41%.
 The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further validation is required by repeating a previous hot test that resulted in biomass accumulation below the chimney and observing the slanted pipe leading from the primary blower to the reactor input. It is suggested to test this hypothesis with wood chips when more stock is available. Additionally, exploring the use of rice husks as a feedstock and testing different primary blower positions could provide further insights into the combustion process and machine design.
 One potential direction for future experiments is to investigate the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, caution should be exercised due to the risk of hopper smoke and fire.</t>
+  </si>
+  <si>
+    <t>Based on the detailed observations and analysis provided, it appears that the hypothesis that moving the primary blower circumferentially up would resolve the wood chip jamming issue was supported by the experiment. By moving the primary blower position from B4/B6 to S4, the accumulation problem below the chimney was controlled and the reaction became more stable.
+The experiment initially faced challenges with a reaction that ran too cold and produced excessive smoke. However, by reducing the auger speed to 50% duty cycle at 6 RPM, the reaction conditions improved. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney where the feedstock was well-charred. The hopper smoke also improved by ensuring that all voids were filled with biomass.
+The experiment yielded different results in terms of char output and biomass feed rates in the faster and slower sections. The char yield was 29.8% in the faster section and 41% in the slower section. The quality of the char showed slight inhomogeneity, possibly due to the positioning of the primary blower being too high circumferentially.
+To definitively validate the hypothesis, it is suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input. This will help visualize how ash and small particles accumulate over time. Additionally, testing with rice husks and exploring the effect of different primary blower positions can provide further insights into resolving the accumulation issue.
+Another potential experiment could involve testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, this experiment carries a risk of exacerbated hopper smoke and fire.
+Overall, the experiment provides valuable insights into the combustion process and machine design, highlighting the importance of optimizing the primary blower position and auger speed to achieve a stable and efficient biomass to biochar conversion process.</t>
+  </si>
+  <si>
+    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower circumferentially up. The settings for the test included moving the primary blower position from B4/B6 to S4, with an auger motor speed of 6 RPM and a 50% duty cycle. The primary air was initially higher and gradually reduced to 2000 RPM, while the secondary air gradually increased to 7000 RPM. The feedstock used was wood chips collected from the City of Berkeley.
+Initially, the reaction ran very cold and there was a high accumulation of mixed charred and uncharred wood below the chimney. The biomass had to be repeatedly lit, and thick smoke came out of both the chimney and the hopper. The auger did not jam or trip during the test. The reactor consumed a large amount of wood chips (around 96 kg/h), making it difficult to keep feeding it. 
+To address the cold and smoky reaction, the auger speed was reduced to 50% duty cycle at 6 RPM. This led to a hotter and less smoky steady state, where the accumulation problem below the chimney did not occur. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney with well-charred feedstock. The hopper smoke also improved as voids were filled and the biomass height increased.
+The primary blower position at S4 may have exacerbated the hopper smoke, and it was suggested to test the primary blower at S8 or S9 in the future. The variable pitch auger below the chimney may have contributed to the accumulation problem, but it was not the sole cause. The primary air may have gradually choked up as the test progressed.
+The hot test consisted of two sections, a faster section and a slower section. In the faster section, the char output was 28.7 kg/h with a biomass feed of 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char output was 29.1 kg/h with a biomass feed of 71.8 kg/h, resulting in a yield of 41%.
+The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further tests are needed to definitively validate this hypothesis. It was suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input to visualize the accumulation of ash and small particles over time.
+Other directions for exploration include testing with rice husks to see if the same setup can solve the accumulation issue and testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite blockage in the NPT tube leading into the reactor chamber.
+Overall, this hot test provided insights into the combustion process and machine design, and further experiments are planned to test different hypotheses and optimize the system.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 90 – 07/19/22 
@@ -1330,6 +1707,34 @@
 In summary, the experiment provides insights into the combustion process and machine design for biomass to biochar formation. It highlights the challenges of chimney buildup, auger jamming, undercharred output, and hopper smoke. The experiment suggests potential solutions to address these issues and outlines further investigations to gain a complete understanding of the process.</t>
   </si>
   <si>
+    <t>Based on the information provided, the experiment conducted with rice husk biomass in the small-sized reactor resulted in several observations and issues. The main objective of the experiment was to test the hypothesis that raising the position of the primary air blower circumferentially would prevent biomass from falling into the air ducting elbow, reduce pressure loss of air entering the reactor, improve air mixing within the biomass bed, increase devolatilization, and reduce the height of biomass/char accumulating in the chimney.
+However, the experiment showed that char was still accumulating in the chimney, causing the auger to jam. Increasing the secondary air flow rate helped to alleviate the jamming issue, but char was still falling back near the hopper, indicating that the rate of fall back did not compensate for the rate of accumulation in the chimney. The output was also found to be highly undercharred, suggesting that the residence time in the hot zone was too short.
+The experiment also observed consistent smoke from the hopper, which was attributed to the char falling back. However, chimney emissions were clean, indicating that the combustion process was efficient. The experiment concluded that the accumulation in the chimney was due to gravity and the smaller pitch of the variable pitch auger, rather than char accumulating in the air ducting.
+To further investigate the issues, the experiment proposed reducing the angle of inclination to 15 degrees to address the chimney build-up, auger jamming, and hopper smoke. Increasing the primary air flow rate from 3000 to a higher value was also suggested to achieve more severe and even charring. Additionally, bringing the primary air back towards the hopper at the same circumferential height was proposed to increase the hot region residence time and enhance devolatilization before reaching the chimney.
+Other observations included the complete filling of char up to the chute height and the need to note the weight of the scale value for rice husks at which the drum becomes full for future reference. Some NPT couplings were also opened, except for one.
+In summary, the experiment with rice husk biomass in the small-sized reactor highlighted the challenges of char accumulation in the chimney, auger jamming, undercharred output, and hopper smoke. Further investigations and modifications to the experimental parameters were proposed to address these issues and improve the combustion process and machine design.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice husk
+Hypothesis to test: Circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow and reduce pressure loss of air entering the reactor. This will improve air mixing within the biomass bed, increase devolatilization of biomass, and reduce the height of biomass/char accumulating in the chimney.
+Observations:
+- Char accumulation was observed in the chimney, indicating that the chimney was completely packed. This occurred even when the air inlet ducts were not filled with char.
+- The auger experienced jamming due to char accumulation at the chimney, even when the biomass level in the hopper was low.
+- Increasing the secondary air blower speed to 8000 rpm increased devolatilization and prevented auger jamming.
+- Char was observed falling back near the hopper, potentially from the accumulated char in the chimney. However, the rate of char fall back did not compensate for the rate of accumulation in the chimney.
+- The output was highly undercharred, suggesting that the hot zone length was too short, resulting in a lower residence time.
+- Consistent smoke was observed from the hopper, indicating char falling back. This was visible through the hopper and the open NPT coupling at the chimney.
+- Chimney emissions were clean, and there was positive pressure throughout the reactor, including the chimney.
+Takeaways:
+- Accumulation in the chimney for rice husks is due to gravity and aggravated by the smaller pitch of the variable pitch auger. It is not caused by char accumulating in the air ducting.
+- To address the issue of chimney buildup, auger jamming, and hopper smoke, reducing the angle of inclination to 15 degrees can be investigated.
+- Increasing the primary air from 3000 rpm to a higher value can be explored to determine if it leads to more severe and even charring.
+- Bringing the primary air back towards the hopper (at the same circumferential height) can be tested to increase the hot region residence time and enhance devolatilization before reaching the chimney. This may help in volumetric reduction of biomass prior to reaching the chimney.
+Other:
+- The char completely filled up until the chute height, and the weight of the scale value for rice husks at which the drum becomes full has been noted for future reference.
+- NPT couplings have been opened, except for one specific coupling (2nd from chimney, 2nd from lowest circumferential position, towards the side facing the shed).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test #91 – 07/20/22 
 Staff: Elliot, Vidyut, Eymon, Bernard 
 Biomass: Rice husk 
@@ -1419,6 +1824,21 @@
 Overall, the experiment aims to optimize the biomass combustion process and machine design by testing different parameters and hypotheses.</t>
   </si>
   <si>
+    <t>Based on the provided information, it seems that the experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping during biomass combustion. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring. The experiment used rice husk as the biomass and maintained a 50% duty cycle of the auger at 6 rpm, despite smoke coming out of the hopper.
+The high-level summary of the experiment indicates that the char did not accumulate in the chimney as much as in previous tests, preventing the auger from tripping. The output achieved even charring, but there was consistent smoke from the hopper due to the char falling back because of the reactor's angle of inclination. The chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney.
+The takeaway from the experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
+The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address chimney build-up, auger jamming, and hopper smoke. Additionally, increasing the primary air from 3000 rpm to a higher value for a duty cycle greater than 50% could be explored to determine if it leads to more severe and even charring. Another potential investigation is bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and devolatilize the biomass more before it reaches the chimney.
+Lastly, it is mentioned that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches. This issue may need to be addressed before further experiments can be conducted.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping in the biomass to biochar formation process. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring.
+The initial parameters selected for the experiment were as follows: auger at 6 rpm with a 50% duty cycle and a 12-inch pitch, primary air at 3000 rpm, secondary air at 4000 rpm, and an angle of inclination of 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment indicates that char did not accumulate in the chimney to the same extent as in previous tests, preventing the auger from tripping. The output achieved was evenly charred. However, there was consistent smoke from the hopper, likely due to the char falling back due to the angle of inclination of the reactor. The chimney emissions were mostly clean, but there was consistent ember emission, possibly caused by the higher pile of char under the chimney. The negative pressure in the chimney was as desired.
+The takeaway from this experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
+The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke. Additionally, testing whether increasing the primary air from 3000 to a higher value for a duty cycle greater than 50% leads to more severe and even charring can be explored. Finally, bringing the primary air back towards the hopper at the same circumferential height could increase the hot region residence time and devolatilize the biomass more before it reaches the chimney, potentially aiding in volumetric reduction of biomass.
+It is noted that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 92 – 07/21/22 
 Staff: Elliot, Vidyut, Charu, Bernard 
 Biomass: Rice husk 
@@ -1475,6 +1895,27 @@
 It is also noted that the NPT couplings (S9 and S8) were unable to be opened, even with longer wrenches. Additionally, the experiment utilized rice husks completely.</t>
   </si>
   <si>
+    <t>The experiment conducted on July 21, 2022, aimed to achieve uniform charring and prevent auger tripping during the biomass to biochar combustion process. The hypothesis tested was that increasing the primary blower rpm from 3000 to 6000 while keeping the auger at 100% duty cycle at 6 rpm would lead to even charring.
+The initial parameters selected for the experiment were as follows: Auger speed - 6 rpm (100% duty cycle with a 12-inch pitch auger), primary air blower rpm - 6000, secondary air blower rpm - 4000, and angle of inclination - 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
+The high-level summary of the experiment's results is as follows:
+1. Char did not accumulate in the chimney to the same extent as in previous tests, and the auger did not trip at all. A strong flame was observed within the chimney throughout the test.
+2. The output achieved even charring, which appeared to be more homogeneous compared to a previous test conducted on July 20, 2022, where the auger speed was reduced to 50% duty cycle.
+3. Smoke from the hopper was reduced by piling the biomass higher.
+4. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney, which was blown off directly by the secondary air blowers. This emission did not significantly decrease even after reducing the secondary air blower rpm to 4000.
+5. Negative pressure was observed in the chimney as desired.
+The main takeaway from the experiment is that a higher primary air value solves the issues of uneven charring, char accumulation in the chimney, and auger motor tripping.
+The suggested pathways of investigation for further experiments are:
+1. Reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke.
+2. Bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and enhance devolatilization of the biomass before it reaches the chimney. This may help in volumetric reduction of the biomass prior to reaching the chimney. This investigation should be done once the stuck NPT couplings (S9 and S8) are detached.
+It is also mentioned that the stuck NPT couplings could not be opened even with longer wrenches, and the rice husks have been completely utilized in the experiment.</t>
+  </si>
+  <si>
+    <t>Rice husk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Increasing primary blower rpm from 3000 to 6000, while keeping auger at 100% duty cycle at 6 rpm led to even charring and prevented auger tripping.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot test #93 – 08/26/22 
 Staff: Austin, Troy 
 Biomass: Woodchips from bags in the shed, probably city of Berkeley source 
@@ -1500,6 +1941,21 @@
 Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating possible overload, although the exact cause remains unclear.
 On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
 The next steps should include investigating the cause of the incomplete tripping of the breaker and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
+Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in the motor running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating a possible overload, although the exact cause of the overload is unclear.
+On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its full capacity due to the jamming issue.
+The next steps should focus on investigating why the breaker is not tripping fully and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
+Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was also observed before the motor stopped, indicating a possible overload, although the exact cause remains unclear.
+On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
+The next steps should involve investigating why the breaker is not tripping fully and addressing the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the reactor and to continue testing the hypothesis effectively.</t>
+  </si>
+  <si>
+    <t>The breaker issue needs to be resolved and the auger to body interference should be addressed to prevent jamming during the lighting phase.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 94 – 09/01/22 
@@ -1564,6 +2020,26 @@
 To gain a complete understanding of the combustion process and machine design, it is recommended to continue testing different hypotheses and carefully analyze the data collected from each experiment.</t>
   </si>
   <si>
+    <t>Based on the provided information, here is an example answer:
+The experiment conducted on 09/01/22 aimed to test two hypotheses related to the combustion process and machine design. The first hypothesis was that enlarging the hopper would address the issue of bridging. The second hypothesis was that moving the primary air blowers from S10 to S4 position would reduce the jamming issue.
+During the experiment, it was observed that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper angle to 15 degrees and observe if bridging improves.
+Regarding the jamming issue, it was initially observed when feeding chunky wood chips into the reactor. Severe jamming occurred after the reactor was lit for a while, possibly at the transition above the chimney where the reactor cross-section changed from rectangular to circular. Topping the hopper with more wood chips did not help, but waiting for some time resolved the jamming issue. The jamming was often accompanied by a grinding sound or sporadic jumps in the motion of the auger.
+Another observation was the occurrence of smoke/fire in the hopper region. It was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the base to ignite or smoke. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the issue returned when the blower RPM was increased. Fire and char were also observed being conveyed through the crack at the base of the chimney, indicating a high solid level that could have blocked the passage of primary air towards the chimney.
+The hot test was shut down prematurely due to low wood chip supply, and the output rate of biochar was not accurately determined. The input feed rate was approximately 41 kg/h, but the output rate needs to be double-checked. Additionally, the scale logging showed a wavy feature, suggesting a potential issue with its functionality.
+The obtained biochar during the experiment was partially undercharred, with some parts appearing brownish and around 60-80% charred.
+Further investigation and adjustments are required to address the issues of bridging, jamming, and hopper smoke/fire, as well as to accurately measure the output rate and ensure the proper functioning of the scale logging system.</t>
+  </si>
+  <si>
+    <t>The experiment conducted on 09/01/22 involved testing two hypotheses related to the machine design and addressing issues encountered in previous experiments. The first hypothesis aimed to address the bridging issue by enlarging the hopper. The second hypothesis aimed to reduce the jamming issue by moving the primary air blowers to a different position.
+The settings for the experiment included the primary blower positioned at S4, with a primary air setpoint of 3000 initially and secondary air set at 5000. A megachimney was used without any mesh at the top.
+The feedstock used for the experiment was wood chips of different types, including chunky, fibrous, eucalyptus, and newly collected wood chips.
+In terms of observations, the experiment found that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper temperature to 15 degrees and observe if bridging improves. Regarding the jamming issue, initially, severe jamming occurred after the reactor was lit for a while. The jamming was suspected to occur higher up in the reactor zone, possibly at the transition above the chimney. However, the jamming resolved itself after waiting for some time. The reactor then ran smoothly at 6 RPM and 50% duty cycle.
+The experiment also noted issues with hopper smoke/fire. After the auger was stuck initially, it was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire or start smoking. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the smoke/fire returned when the blower RPM was increased. It was observed that fire and char were conveyed through the crack at the base of the chimney, indicating a high solid level at the chimney position. This could have blocked the passage of primary air towards the chimney, exacerbating the hopper smoke/fire issue.
+The experiment was shut down prematurely due to low wood chip supply, and the rates and yield were not accurately determined. The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seemed incorrect. The scale logging also showed a wavy feature, indicating a potential issue with its functionality.
+The obtained biochar from the experiment was found to be undercharred in some parts, with a brownish color, indicating around 60-80% charred biomass.
+Overall, the experiment provided insights into the persistence of bridging and jamming issues, as well as the challenges related to hopper smoke/fire and accurate measurement of rates and yield. Further investigation and modifications are required to address these issues and improve the combustion process and machine design.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 95 – 09/02/22 
 People: Camila, Troy, Kevin (with Austin starting the hot test) 
 Hypothesis: Compared to 7/20/22, if we lower from 30 deg to 15 deg, we can stop the hopper smoke/fire.  
@@ -1582,6 +2058,16 @@
   </si>
   <si>
     <t>The primary blower position was set at S10. The primary air setpoint was initially set at 3000, and the secondary air was set at 4000. The feedstock used was rice hulls. The experiment observed that the hopper fire/smoke persisted, indicating the need to eliminate the variable pitch for rice husks. The char level below the chimney remained high throughout the experiment, despite attempts to address it by pausing the auger or inserting a rod into the reaction zone. Increasing the primary air only worsened the smoke from the hopper. The experiment ran for approximately 20-30 minutes with the oil drum full. The input feed rate was around 33 kg/h, and the char appeared to be around 90-100% charred.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the experiment was conducted to test the hypothesis that lowering the motor angle from 30 degrees to 15 degrees can stop the hopper smoke/fire during biomass combustion for biochar formation. The experiment involved using a newly designed small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples for temperature measurement.
+The experiment was conducted on 09/02/22 with participants Camila, Troy, Kevin, and Austin. The primary blower position was set at S10, with a primary air setpoint of 3000 initially and secondary air at 4000. The feedstock used was rice hulls.
+However, the experiment did not achieve the desired outcome as the hopper fire/smoke persisted. It was observed that the char level below the chimney remained high throughout the experiment. Attempts were made to address this issue by pausing the auger or inserting a rod into the reaction zone, but these measures did not improve the situation. Increasing the primary air only worsened the smoke from the hopper or cracks below the hopper. It was also noted that the reactor ran for approximately 20-30 minutes with the oil drum full, which was not initially realized.
+The input feed rate was around 33 kg/h, and the superficial appearance of the char indicated incomplete charring. However, upon digging deeper, it was observed that the char had a well-charred consistency of around 90-100%.
+Based on these observations, it was concluded that the variable pitch of the auger may need to be eliminated when using rice hulls as they are not very compressible and do not reduce in volume when charred. Further experimentation and modifications to the machine design may be required to address the persistent hopper fire/smoke issue.</t>
+  </si>
+  <si>
+    <t>Input Material: Rice hulls</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 96 – 09/04/22 
@@ -1611,6 +2097,14 @@
   </si>
   <si>
     <t>The primary blower position in this hot test was S6.</t>
+  </si>
+  <si>
+    <t>Hot Test #96 was conducted on 09/04/22 with the following team members: Camila, Yiyang, and Kevin. The hypothesis for this test was compared to the previous test on 9/1/22. The settings for this test were as follows: the primary blower position was set at S4, the primary air setpoint was initially set at 3000, and the secondary air was set at 5000. The megachimney was used without any mesh at the top.
+The feedstock used for this test was wood chips. The summary of the test indicates that smoke from the hopper persisted despite efforts to fully cover it. Changing the primary blower position to S5 did not resolve the smoke issue. However, moving the primary blower position to S6 seemed to significantly improve the hopper smoke condition, although it resulted in worsened chimney ash. Moving the primary blower to S10 caused the hopper smoke to resume. The experiment had to be stopped at this point due to running out of dry wood chips.
+Detailed observations from the test include ensuring that the hopper was fully covered to prevent air flow, but smoke still appeared. Changing the primary blower position helped, but it resulted in ash formation. It was suggested to potentially lower the blower's RPM to avoid underchar results. No jamming occurred during the test. The various ports were visualized, and through S1, vigorous combustion was observed with a high solid level. Through S4, S5, and S10, depending on the position of the primary blower, the observations were inert charred or flaming char.
+The experiment was stopped due to running short on dry wood chips, but the team learned as much as they could. It was noted that during the test, the right S3 did not have an NPT plug but was taped over with aluminum tape, which could have exacerbated the smoke in the lower axial position close to the hopper.
+The inputs and outputs for this test were 69.1 kg/h input. However, it was mentioned that the output scale was not working, and the drum was changed after shutting down the reaction, but it was not registered as a sensible signal.
+In comparison to the hot test on 9/3/2022 with rice hulls, the results of this test showed a higher percentage of biochar, approximately 70%.</t>
   </si>
   <si>
     <t xml:space="preserve">Hot Test # 97 – 09/23/22 
@@ -1666,6 +2160,21 @@
 Overall, these suggestions can help improve the understanding of the combustion process and machine design, as well as optimize the production of biochar from biomass.</t>
   </si>
   <si>
+    <t>Based on the provided information, here is an example answer:
+For the next experiment, it is suggested to start moving the auger more quickly after lighting the fire. This can help ensure a smoother combustion process. Additionally, since the biomass used is very dry, it may be possible to reduce the primary air setpoint as the dry biomass may require less oxygen for combustion.
+To avoid chips being low and potential air holes causing the reaction to move back, it is important to fill the hopper completely. This will help maintain a steady flow of biomass into the reactor.
+Lowering the angle of the prototype setup may also be worth considering. This can potentially help the reaction move forward more efficiently.
+Furthermore, it would be beneficial to observe the impact of lowering the speed of the blower on the final result of biochar. This can provide insights into the influence of air flow rate on the combustion process and biochar formation.
+Overall, these suggestions aim to optimize the combustion process and machine design, and further experiments can help gain a better understanding of the underlying combustion process and improve the efficiency of biochar production.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the hot test was conducted using pine tree wood chips as the feedstock. The experiment aimed to achieve a smooth hot test due to the small and dry nature of the wood chips. The primary blower position was set at S10, with a primary air setpoint of 3500 rpm and secondary air at 3500 rpm. The experiment utilized a mega chimney without any mesh at the top and a newly refurbished six-inch pitch auger set up at a 35-degree angle.
+During the hot test, no ash or ember was observed coming out of the chimney. However, a recurrent issue was the occurrence of burning wood pieces going back to the hopper, which eventually led to a fire in the hopper and premature termination of the hot test. The weather conditions varied from sunny to rainy throughout the process.
+Detailed observations revealed that the hopper was not kept full throughout the hot test, resulting in the failure to maintain a steady state. The auger made some noises and shuttered with the wood chips but continued to run without jamming. Good flames were observed inside the reactor from the beginning until the end of the test. The temperature continuously increased until all the chips ran through the reactor.
+A picture was provided, demonstrating burning wood chips at the hopper and air holes. The biochar produced during the hot test weighed a total of 12 kg and appeared to be well charred. The input rate of the biomass was 45.1 kg/h.
+Suggestions for future experiments include starting to move the auger more quickly after lighting the fire, potentially reducing the primary air supply due to the dry nature of the biomass, ensuring the hopper is filled to avoid low chip levels and potential air holes causing the reaction to move backward, and reducing the angle of the auger to facilitate forward movement of the reaction. Additionally, the impact of lowering the speed of the blower on the final result of biochar should be observed in future tests.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hot Test # 98 – 09/24/22 
 People: Camila, Austin, Kanages 
 Hypothesis: Compared to 09/23/22, if we reduce lighting time and primary blower, we can stop the hopper smoke/fire 
@@ -1739,707 +2248,24 @@
 Overall, a systematic approach of analyzing the experimental data, identifying the root causes of the observed issues, and making targeted modifications to the experimental setup will help in gaining a better understanding of the combustion process and improving the machine design.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot Test # 99 – 09/26/22  
-People: Camila, Austin, Kanages, Kevin 
-Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
-Settings: Primary blower position at S5 on the right side. On the left side, the viewing port NPT plug remained stuck at S10 and could not be loosened until the very end; therefore for this hot test, primary blower on the left side remained at S10. At the end of the experiment, we realized that primary and secondary blower wires on the right side (enclosure side) were switched. Primary air setpoint at 3000 rpm during start-up, reducing to 2500 and then 2200 rpm. Secondary air remained at 4000 rpm throughout. Mega chimney was used, without any mesh at the top. Newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
-Feedstock: Pine tree from Anahim Lake, Canada wood chips   
-Summary: Reactor ran very hot throughout. White ash, while not visible against a white wall, was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were seen from the chimney occasionally (possibly more on the right side), resulting in gradual reduction of primary air in response. However, the primary and secondary air blowers were switched on the right-hand side, resulting in inconclusive outcome. There was still white smoke emerging from the cracks close to the hopper as well as through the hopper. We suspected that frequent poking into the hopper to avoid voidage may have helped with the smoke.  
-Detailed Observations: Some parts of the wood chip pile were more palpably wet, especially inside. 
-Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
-Input feed rate graph:  
- </t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
-The experiment observed that the reactor ran very hot throughout, and white ash was visible against the blue sky, indicating a potentially worse outcome compared to previous tests. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction in primary air. However, it was noted that the primary and secondary air blowers were switched on the right-hand side, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce the smoke.
-Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
-Flow rates were measured, and two different calculations of mass yield were obtained. One calculation based on cumulative output and input mass yielded a mass yield of about 28%, while another calculation based on output and input mass flow rates yielded a mass yield of about 12%. It was also mentioned that the output mass scale exhibited strange undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
-Unfortunately, the provided information does not include any specific question or hypothesis to address. If you have any specific questions or hypotheses related to this experiment, please let me know, and I will be happy to assist you further.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the output flow rate for this hot test is 7.97 kg/h.</t>
-  </si>
-  <si>
-    <t>Hot Test #99 – 09/26/22
-Yield: [28%, 12%]
-In this hot test, the objective was to address the black smoke issue by increasing the secondary air and adjusting the position of one of the blowers. However, the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome.
-The reactor ran very hot throughout the experiment, and white ash was visible against the blue sky, indicating a worse outcome compared to the previous test. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction of primary air. White smoke still emerged from cracks close to the hopper and through the hopper, suggesting that frequent poking into the hopper may have helped with the smoke issue.
-Detailed observations revealed that some parts of the wood chip pile were more wet, especially inside.
-The mass yield was calculated using two different methods. By cumulative output (28.1 kg) and input (92.5 kg), the mass yield was approximately 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield was approximately 12%. The output mass scale exhibited weird undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
-Unfortunately, the input feed rate graph is not provided in the given information.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
-The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase secondary air to address black smoke issues and adjust the position of one blower to address white smoke issues from the hopper.
-The experiment settings included the primary blower positioned at S5 on the right side, while the left side primary blower remained at S10 due to a stuck viewing port NPT plug. The primary air setpoint was initially 3000 rpm during start-up, then reduced to 2500 and 2200 rpm. The secondary air remained at 4000 rpm throughout. A mega chimney without any mesh at the top was used, and a newly refurbished six-inch pitch auger was employed in a 35-degree setup.
-The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada. The reactor ran at a high temperature throughout the experiment. White ash was observed, although it was not easily visible against a white wall but was noticeable against the blue sky. Puffs of black smoke occasionally emerged from the chimney, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper cracks and through the hopper, and it was suspected that frequent poking into the hopper to avoid voidage may have contributed to the smoke.
-Detailed observations included the presence of wetter parts inside the wood chip pile. Flow rates were calculated based on cumulative output and input mass, indicating a mass yield of approximately 28%. However, when considering output mass flow and input mass, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the reliability of the readout for output mass flow.
-Unfortunately, the example answer provided does not specify the specific information or question for which an answer is expected.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
-The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase the secondary air to address black smoke issues and adjust the position of one blower to address hopper white smoke issues.
-The experiment settings include the position of primary blowers, the speed of primary and secondary blowers, the use of a mega chimney without mesh, and the setup of a newly refurbished six-inch pitch auger at a 35-degree angle. The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada.
-The summary of the test indicates that the reactor ran very hot throughout the experiment. White ash was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were observed from the chimney occasionally, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce smoke.
-Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
-Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering output and input mass flow rates, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the accuracy of the readout.
-Unfortunately, the example answer provided does not include any specific question or request for analysis. If you have any specific questions or need further analysis of the experiment data, please let me know.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 100 – 09/27/22  
-People: Camila, Austin, Kanages and Kevin 
-Hypothesis: By correcting the wiring for primary/secondary blowers and making sure to agitate the hopper we should be able to run the hot test smoothly without any smoke. 
-Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see below for rationale). Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4500 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
-Feedstock: Pine tree from Anahim Lake, Canada wood chips   
-Summary:  Today’s hot test had a slow start due to position of lighting up, after moving the primary blower position back to S10 enhancing the combustion. Then black smoke was observed from the chimney trying to identify if it was caused periodically. Meanwhile changing primary blower to 2500 rpm. This seemed to have helped but white smoke appeared at the hopper. We realized that white smoke was not so much due to voidage below the hopper region, but due to the biomass/biochar accumulating below the chimney level leading to blockage of flow channels towards the chimney, just like previously with variable pitch auger. We therefore decided to implement the following response: First, whenever white smoke arose, we cut both primary and secondary to 1300 to minimize positive pressure, thereby minimizing the outward smoke. Then, because the blowers were at idle, we stopped the auger temporarily. Then, we decided to implement an interval system of 3 minutes on running auger at 6, primary at 2000, secondary 3000 rpm and 3 minutes off auger at 0, primary and secondary at 1300 rpm. This intermediate system seemed to cool down the process a lot so we decided to do 3 minutes on and 1 minute off.  
-Detailed Observations:  
-After the slow lighting, fire got strength and some ember could be seen within the ports. (See picture below) 
-Picture demonstrates not properly combustion going on. 
-We were very aware of the hopper and poking often to avoid bridging. Auger tripped and motor stopped working. This made us cautious and conscious of the importance of a balance act. 
-We recorded a total of 27.45 kg of char. Biochar was not fully charred at the top. However, a subsequent picture showing a spread of biochar from start to finish shows the middle section as well charred. The end section was less well charred due to possible mixing with uncharred wood chips being conveyed out.   
-Suggestions: 
-To achieve a steady hot test for tomorrow’s demo we plan on working as a team, each having a specific role. Conducting a interval system, poking the hopper to avoid bridging and aiming for steady state temperature for fully charred charr. We aim to not have much black nor white smoke throughout the test. </t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary and secondary blowers for oxygen supply and volatile removal, and thermocouples for temperature measurement.
-In the example hot test, the auger speed was set at 5. However, in another hot test, the auger speed was not mentioned. The hypothesis for the hot test was to correct the wiring for primary/secondary blowers and agitate the hopper to run the test smoothly without any smoke.
-During the hot test, the primary blower positions were adjusted, and the primary and secondary air were initially set at idle. The feedstock used was pine tree wood chips from Anahim Lake, Canada. The test started with a slow start due to the position of lighting up, but after adjusting the primary blower position, the combustion was enhanced. However, black smoke was observed from the chimney periodically. The primary blower speed was then changed to 2500 rpm, which helped reduce the smoke, but white smoke appeared at the hopper. It was found that the white smoke was due to biomass/biochar accumulating below the chimney level, leading to blockage of flow channels. To address this, an interval system of running the auger and blowers for a certain period and then stopping them temporarily was implemented. The interval system was adjusted to cool down the process, and a total of 27.45 kg of biochar was recorded.
-Based on the observations, suggestions for achieving a steady hot test include working as a team with specific roles, implementing the interval system, poking the hopper to avoid bridging, and aiming for a steady-state temperature for fully charred biochar. The goal is to minimize black and white smoke throughout the test.
-In summary, the experiment aims to understand the combustion process and machine design for biomass to biochar formation. The example hot test provided insights into the adjustments made to the blower positions, air supply, and interval system to improve the combustion process and minimize smoke.</t>
-  </si>
-  <si>
-    <t>Hot Test #100 – 09/27/22
-Yield: 27.45 kg of char
-Based on the observations and suggestions provided, it seems that the hot test did not report the yield value.</t>
-  </si>
-  <si>
-    <t>The primary blower speed for the hot test was initially set at 5 (S5) and later changed to 2500 rpm.</t>
-  </si>
-  <si>
-    <t>The hot test conducted on this day had some challenges, including slow lighting and the occurrence of black and white smoke. The primary blower position was adjusted to improve combustion, but black smoke was still observed periodically. It was determined that the white smoke was not due to voidage below the hopper, but rather due to biomass/biochar accumulation below the chimney level, causing blockage of flow channels. To address this, the primary and secondary blowers were reduced to 1300 rpm whenever white smoke arose. Additionally, an interval system of running the auger at 6, primary at 2000, and secondary at 3000 rpm for 3 minutes, followed by 3 minutes off at 0 rpm for all blowers, was implemented. This system was later adjusted to 3 minutes on and 1 minute off. 
-Detailed observations included the presence of ember within the ports after slow lighting, the need to poke the hopper frequently to avoid bridging, and the tripping of the auger motor. A total of 27.45 kg of char was recorded, with the top section of the biochar not fully charred. However, the middle section showed good charring, while the end section was less well charred possibly due to mixing with uncharred wood chips. 
-To improve the hot test for the next day's demo, the team plans to work together with specific roles assigned. They will implement the interval system, poke the hopper to prevent bridging, and aim for a steady state temperature to achieve fully charred biochar. The goal is to minimize the occurrence of black and white smoke throughout the test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
-People: Camila, Austin, Kanages and Kevin 
-Hypothesis: No hypothesis. The aim is to replicate yesterday’s strategy in order to orchestrate a smokeless public demo for a few hours in front of a crowd.  
-Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see yesterday’s writeup for rationale). Primary at 2500 rpm (reducing to 2300 due to black smoke) and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup. Implemented a system of turning to idle every time some smoke appeared in the hopper. By doing so a steady state temperature curve “plateau” was achieved and the hot test ran smoothly for four hours. 
-Feedstock: Pine tree from Anahim Lake, Canada wood chips   
-Summary: We were able to run stably for 3 hours, with active control of the process to minimize white smoke (and to a lesser extent, black smoke) by implementing a system of turning to idle every time some smoke appeared in the hopper. The char outlet material caught on fire (probably the resin of the metallic tape) at the end, which we will need to fix for tomorrow.  
-Let’s do some statistics of the start/stop intervals – what are the averages? Plot these intervals 
-ON/OFF RATIO 
-Above the average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12 
-Above the average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82 
-Detailed Observations:  
-Feedrates: About 55.38 kg/hr for the input, 10.48 kg/or for the output, resulting in a yield of 18.9%. By accumulation, we fed 203.8 kg of input, getting 41.0 kg of output, resulting in a yield of 20.1%.  
-Upon changing the first full drum (during steady state), the char looks well done:  
-Next Steps: 
-A hypothesis could be done on the impact of hopper-poking on white smoke from the hopper. Our initial hypothesis seemed to be that the white smoke from the hopper may arise due to increasing voidage as the biomass bridges over the hopper, which hopper-poking can resolve. However, our newer observation seems to suggest that the white smoke may be better attributed to the blockage of flow path in the region below the chimney.  One way to test this is to stop hopper-poking, and observe the difference there is on hopper white smoke, which can be measured by the statistics of auger on and auger off time intervals.  </t>
-  </si>
-  <si>
-    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12. The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
-To plot these intervals, you can create a bar chart or a histogram. The x-axis will represent the intervals and the y-axis will represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
-Regarding the hypothesis on the impact of hopper-poking on white smoke from the hopper, it seems that the initial hypothesis of increasing voidage causing white smoke may not be accurate. The newer observation suggests that the white smoke may be due to blockage of the flow path below the chimney. To test this hypothesis, you can stop hopper-poking and observe the difference in hopper white smoke. This can be measured by analyzing the statistics of auger on and auger off time intervals.</t>
-  </si>
-  <si>
-    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
-Input flow rate: 55.38 kg/hr
-Output flow rate: 10.48 kg/hr
-Yield: 18.9%
-Total input: 203.8 kg
-Total output: 41.0 kg
-Yield (accumulated): 20.1%
-Average interval for running the auger without smoke and issues: 10.5 minutes
-Standard deviation for running the auger without smoke and issues: 2.12 minutes
-Average interval for stopping the auger for 3 minutes: 3 minutes
-Standard deviation for stopping the auger for 3 minutes: 2.82 minutes
-Next Steps: 
-- Test the impact of hopper-poking on white smoke from the hopper
-- Observe the difference in hopper white smoke by stopping hopper-poking
-- Measure the statistics of auger on and auger off time intervals to assess the impact of hopper-poking</t>
-  </si>
-  <si>
-    <t>Example Hot Test:  + Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
-Output flow rate: 10.48 kg/hour</t>
-  </si>
-  <si>
-    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
-Yield: 20.1% (by accumulation)
-The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12.
-The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
-Please note that the provided information does not mention any specific data related to hopper white smoke.</t>
-  </si>
-  <si>
-    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
-To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
-For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference.</t>
-  </si>
-  <si>
-    <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed by measuring the statistics of auger on and auger off time intervals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 102 (Alkali Lake) – 10/05/22 
-People: Camila, Austin and Kanages 
-Hypothesis: The test with chips from Williams Lake will run smoothly and the new chute for the char will work adequately. 
-Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:  	 
-In today’s hot test, we ran into a lot of inconveniences. The bolt mounting the motor bracket to the body came undone,12 V power supply dismantled, PLC was not reliably connected to the computer having hard time for it to stay connected. Other than that hot test was shut down due to reaction descending into hopper. Biochar collection system put in place by the chute worked smoothly. 
-Detailed Observations:  
-We took to long while lighting which made the fire descend and reaction go back to auger. 
-Picture demonstrates temperatures got hot enough yet no steady state temperature was achieved. 
-Biochar output was quite under char. A total of around 20,22 kg of output. 
-The chute did not light on fire, which proved the hypothesis of the new chute working adequately. 
-Chips used are quite dry, dusty and fluffy which burn faster and hotter 
-Suggestions: 
-Conditions and chips used today are different from those in Anahim Lake, which must be taken into consideration for the setup to obtain a steady state hot test. For next hot test we aim to be quicker when lighting the fire, as well as implementing interval system based on analysis previously done 
- </t>
-  </si>
-  <si>
-    <t>Did the experiment have an output flow rate? If yes, please provide the value. If no or not enough information is available, answer 'N/A'.</t>
-  </si>
-  <si>
-    <t>Hot Test # 102 (Alkali Lake) – 10/05/22 
-Yield: 20.22 kg of biochar output.</t>
-  </si>
-  <si>
-    <t>Primary blower speed: S10 (farther from electric box), S5 (closest to electric box)
-Secondary blower speed: Idle initially (1300 rpm), then 3000 rpm (primary) and 4000 rpm (secondary)
-Feedstock: Douglas Fir wood chips from Williams Lake, Canada
-Summary:
-- The hot test encountered several inconveniences, including a loose bolt, dismantled power supply, and unreliable connection between the PLC and computer.
-- The reaction descended into the hopper, leading to the shutdown of the hot test.
-- The biochar collection system using the new chute worked smoothly.
-- The fire took too long to light, causing the reaction to go back to the auger.
-- Steady-state temperature was not achieved despite reaching high temperatures.
-- The biochar output was lower than expected, totaling around 20.22 kg.
-- The new chute did not catch fire, confirming its adequacy.
-- The chips used were dry, dusty, and fluffy, resulting in faster and hotter burning.
-Suggestions:
-- Consider the differences in conditions and chips used compared to the setup in Anahim Lake for obtaining a steady-state hot test.
-- Aim to be quicker when lighting the fire in the next hot test.
-- Implement an interval system based on previous analysis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 103– 10/6/22  
-People: Camila, Austin and Kanages 
-Hypothesis: By shortening the time between lighting and re starting the auger, we can prevent the flame front from descending to the bottom of the reactor. 
-Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:   
-Today’s hot test provided better quality char, in terms of output. Outcome still looks not fully charred. The fire under the hopper did not seem to disappear, it did seem to improve with poking. 
-Detailed Observations: 
-It was a less windy day compared to previous hot test 
-We ran the primary's at idle for quite a while 
-When increased primary, turned smoke from the charring zone into flame. 
-We managed to get high temperatures, yet no steady state ‘plateau’. 
-An approximate result of 40 kilos of biochar. 
-Input and Output 
-Input of 112.8 kg 
-Input feed rate 
-Suggestions: 
-Air seal as much of the reactors we can to control smoldering where we don’t want it. 
-Possibilities for next hot test 
-Start the hot test with the denser chips from Anahim lake 
-Test out on a different angle  
- </t>
-  </si>
-  <si>
-    <t>Hot Test #103 – 10/6/22
-Yield: 40 kg of biochar</t>
-  </si>
-  <si>
-    <t>The primary blower speed for this hot test was not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 104– 10/7/22  
-People: Camila and Austin 
-Hypothesis: By putting both primary blowers to S5 position and taping the airholes in the hopper, we can eliminate excessive flames front from descending to the bottom of the reactor. 
-Settings: Primary blowers at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:   
-Today’s hot test provided information on the setup we want to use for the demo. After lighting, setting at 2200 rpm (primary) and 3000 rpm (secondary) was used and reactor seemed to operate smoothly with minor smokes. After running smoothly at 2200 for over an hour, we wanted to try a different blower setting to see if it would still run smoothly. When running at 1700 rpm (primary) and 3000 rpm (secondary) back flow seemed to happen and greater smoke came out of the hopper. Resulting biochar seemed char, yet could be bottom part flowing through the reactor did not get fully charred. 
-Detailed Observations:  
-Aluminum tape covering any possible airholes. 
-A piece of Aluminum tape in the inside of the hopper seemed to loosen up, and smoke rose. 
-After lighting and in running conditions seems to be operating smoothly. Temperature logging showing a steady state balance. 
-The peak of T5 was when running primary at 1700 rpm and we wanted to increase the temperature in order to char the chips. 
-Input 
-Input of 110.2 kg 
-Input feed rate 
-Output 
-At 2,200 primary/3,000 secondary, char was of reasonable consistency. At 1,700 primary/3,000 secondary, char was less consistent, comprising both black char as well as medium brownish/torefied char.  
-Suggestions: 
-For the demo day  on October 10-11, 2022 we suggest we run with these settings as it seems most appropriate for William's Lake chips to run smoothly through the reactor. The aim is to find the balance between a “nonsmokey” in hopper hot test and obtaining fully charred results. </t>
-  </si>
-  <si>
-    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
-- Primary blowers at 2,200 rpm
-- Secondary blowers at 3,000 rpm
-- Aluminum tape covering any possible airholes
-- Input feed rate of 110.2 kg
-This setup seemed to operate smoothly with minor smoke and resulted in reasonably consistent char. However, when the primary blowers were reduced to 1,700 rpm, backflow occurred and the resulting char was less consistent.
-For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
-  </si>
-  <si>
-    <t>Hot Test #104 – 10/7/22
-Input flow rate: 110.2 kg/hour</t>
-  </si>
-  <si>
-    <t>Hot Test # 104– 10/7/22
-Output flow rate: N/A</t>
-  </si>
-  <si>
-    <t>Hot Test #104 – 10/7/22
-Yield: N/A
-The experiment did not report the yield of biochar produced.</t>
-  </si>
-  <si>
-    <t>Hot Test #104 - 10/7/22
-Output char quality: 0.7
-Explanation: The output char quality was reasonably consistent at 2,200 primary/3,000 secondary RPM, but less consistent at 1,700 primary/3,000 secondary RPM, comprising both black char and medium brownish/torefied char.</t>
-  </si>
-  <si>
-    <t>Based on the observations and results from the hot test, it is suggested to run the demo with the following settings: 
-- Primary blower speed: 2,200 rpm
-- Secondary blower speed: 3,000 rpm
-- Aluminum tape covering any possible airholes in the hopper
-These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this lower speed was less consistent, comprising both black char and medium brownish/torefied char.
-The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings mentioned above for the demo on October 10-11, 2022, as they seem most appropriate for the Douglas Fir wood chips from William's Lake to run smoothly through the reactor.</t>
-  </si>
-  <si>
-    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
-- Primary blower speed: 2,200 rpm
-- Secondary blower speed: 3,000 rpm
-These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this setting was less consistent, comprising both black char and medium brownish/torefied char.
-The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings of 2,200 rpm for the primary blower and 3,000 rpm for the secondary blower for the demo on October 10-11, 2022.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 105 – 10/10/22  
-People: Camila, Austin, Kanages, Kevin, and Marian 
-Hypothesis: Replication of hot test #104 for Esket demo day 1 
-Settings: Primary blowers at S5. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups. Today was extraordinarily windy, with gusts from the south.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary: Hot test was uneventful for the most part. Initially we thought hopper smoke, which emerged in the latter part of the test, could be resolved by vigorous poking at the hopper bed. However, we found strong correlation between wind gusts and hopper smoke, suggesting an air-curtaining effect. To resolve this, we need a cowling on top of the chimney. Fire/char undernearth hopper was not observed, until the very end when the hopper was running empty.  
-Detailed Observations:  
-Feedstock flowability: Unlike the Anahim Lake wood chips, the Alkali Lake wood chips seem to be less flowable, in the sense that there is more resistance to poking with a wooden stick. However, even without frequent vigorous poking, the bridges tend to gradually collapse as the auger moves forward. The question is whether this level of bridging is sufficiently severe to instigate backflow/hopper smoke.  
-Origination of flammable volatiles: Unlike the Anahim Lake tests where the flames seem to flow equally from below and above the chimney, suggesting an extended devolatilization zone, in this test, most of the flames, especially at the beginning, came primarily from below the chimney. However, we saw at and above chimney level, biochar still emitting white smoke, suggesting that devolatilization was not yet complete at this point.  
-Biochar level: As viewed from S1 on the right-hand side (north side away from the wind), biochar level right below the chimney on the right-hand side is as high and sometimes potentially even higher than the auger flights, which could have created the blockage leading to backflow. However, there was a consistent flow on the right side probably from the extra cross-sectional area of the rectangular profile. On the left-hand side, on the other hand, biochar level is consistently low, and the channel was never blocked, with always a flame visible.  
-Pressure level: For the most part, S1 sucks air in (negative pressure). However, there were occasions where the port spits out flames and embers, possibly due to air-curtaining effect of wind gusts.  
-Today, the hopper smoke was never really persistent. It comes and goes with wind and potentially blockage (which we cannot absolutely be certain about).  
-Input 
-Output: The char shown in the photo below starts at the second row from the front, right-hand side, proceed 
-Next Steps: We are somewhat skeptical about the efficacy of rigorous poking (which is a physically tiring activity) on reducing hopper smoke. Tomorrow we could try the same again but with slightly less rigorous poking. From our experience, in a bridged area, the bridge should collapse with mild poking. If poking requires significant force, then the area underneath is probably already mostly filled.  </t>
-  </si>
-  <si>
-    <t>The auger speed for the hot test #105 is not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t>The primary blower speed for the hot test #105 was set at S5, which corresponds to a speed of 5.</t>
-  </si>
-  <si>
-    <t>The secondary blower speed for the hot test #105 is not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 106 – 10/11/22  
-People: Camila, Austin, Kanages, Kevin, and Marian 
-Hypothesis: Replication of hot test #104 for Esket demo day 2 
-Settings: Primary blower at S5 on the right and S10 on the left. We moved the left side primary from S5 to S10 to see if we could undo some of the left-hand side hopper smoke we observed yesterday. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary: Performed well most of the time. About 1-2 hours into the test, we started seeing hopper smoke which we tried to mitigate with vigorous poking, or with idling the air/stopping the auger temporarily, or both. Neither seemed to have significant effect. Moving the left-shde primary from S5 to S10 didn’t seem to help a whole lot.  
-The char in the first drum looks relatively well done.  
-The photo below illustrates the char when spread on the ground. The first drum started from the bottom-right and proceeded to the top-left. Then we overlaid the second drum directly above the starting point of the first drum in one large pile.  
-</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
-The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22. The participants involved in the experiment are Camila, Austin, Kanages, Kevin, and Marian.
-The specific hypothesis for Hot Test #106 is the replication of Hot Test #104 for Esket demo day 2. The experimental settings include primary blowers at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could mitigate the observed hopper smoke. The primary blower operates at 2200 rpm, while the secondary blower operates at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
-The feedstock used in this experiment is Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Various attempts were made to mitigate the smoke, including vigorous poking, idling the air/stopping the auger temporarily, and moving the left-side primary blower from S5 to S10. However, these measures did not have a significant effect. The char in the first drum appeared relatively well done.
-The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
-The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing various hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22, with participants named Camila, Austin, Kanages, Kevin, and Marian.
-The hypothesis for this hot test is to replicate Hot Test #104 for Esket demo day 2. The settings for this test include the primary blower at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could reduce the observed hopper smoke. The primary blower operates at 2200 rpm, and the secondary blower at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
-The feedstock used for this test was Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Attempts were made to mitigate the smoke by poking the biomass vigorously or temporarily idling the air or stopping the auger. However, these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide substantial improvement. The char in the first drum appeared to be relatively well done.
-The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems like you are conducting combustion experiments using a small-sized reactor for biomass to biochar formation. The experiments involve inputting biomass into the reactor using a hopper and burning it with the help of an auger. The volatiles are removed through a chimney, and the resulting biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different locations.
-The objective of these experiments is to gain a complete understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned involves replicating a previous test (hot test #104) for Esket demo day 2. The settings for this test include primary blowers at different speeds (S5 on the right and S10 on the left), a primary auger speed of 2200 rpm, and a secondary blower speed of 3000 rpm. The feedstock used is Douglas Fir wood chips from Williams Lake, Canada.
-During the test, the system performed well initially, but after 1-2 hours, hopper smoke started to appear. Various measures were taken to mitigate the smoke, such as poking the biomass vigorously, idling the air or stopping the auger temporarily, but none of them had a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement. The char in the first drum appeared to be relatively well done.
-The provided information does not include an example answer, so if you have any specific questions or need assistance with analyzing the data or drawing conclusions from the experiment, please let me know.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 107 10/13/22  
-People: Camila, Austin, Qiangqiang, Ghazaleh. 
-Hypothesis: By putting both primary blowers at S10, we are expecting there to be less back flow. 
-Settings: Primary blowers at S10. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:   
-Today’s hot test operated without major poking, there was a few jams with the motor but the lighting process ran smoothly. The temperatures rose to very high temperature in a “sort of quick” manner, which might have to do with minimum poking. Presence of smoke in the hopper was rarely seen maybe due to the position of the primary blowers. After a while we did see amber and presence of a bit of smoke. Predict over charred results due to such high temperatures 
-Detailed Observations: 
-Smoke coming out of the outflow collar 
-Temperature plot demonstrates temperature reached a “plateau”. Today’s test reached very high temperatures.  
-While looking at the temperature profile above, we predicted biochar will be over-charred. However, when we took at the biochar actually, we found them to be actually unevenly charred despite being very hot: 
-Suggestions: 
-Be attentive throughout the whole process on the hopper. 
-Adjust blowers in response to very high temperature. Maybe try 2000 rpm. </t>
-  </si>
-  <si>
-    <t>The auger speed for this hot test was not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t>Hot Test #107 10/13/22
-Yield: N/A
-Summary:
-The hot test operated smoothly with minimal issues. The temperatures rose quickly, possibly due to minimum poking. There was occasional smoke in the hopper, which may be related to the position of the primary blowers. The biochar produced was unevenly charred despite the high temperatures.
-Detailed Observations:
-- Smoke was observed coming out of the outflow collar.
-- The temperature reached a plateau during the test, indicating high temperatures.
-- The biochar was found to be unevenly charred despite the high temperatures.
-Suggestions:
-- Pay close attention to the hopper throughout the process.
-- Adjust the blowers in response to very high temperatures, possibly trying a lower RPM of 2000.</t>
-  </si>
-  <si>
-    <t>The primary blower speed for this hot test was set at S10.</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 108 11/12/22  
-People: Hope, Troy, Austin. 
-Hypothesis: Pretesting reactor for public demo on 11/14 
-Settings: Primary blowers at S10. Primary and secondary air set at 3000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:   
-The purpose of the test was to see if the newly installed power supply was working, and to determine if the colder ambient temps would require changes to the operation. Overall the test went very smoothly, though we ended up shutting down before a steady state was reached to conserve our chips. 
-Detailed Observations: 
-The reactor was perhaps a tiny bit slower to light, but not enough to drastically change the lighting procedure. The procedure followed was to stop the auger, light with charcoal lighter fluid, wait 2-3 minutes, run the auger for 1 minute, then stopping the auger for another 5 minutes before starting at operating speed (6 rpm). Nine minutes after that the primaries were lowered to 2200, which was the only change versus previous tests, where the primaries were lowered when the auger was started. 
-Because the test was so short, there are not many conclusions to be drawn. </t>
-  </si>
-  <si>
-    <t>The auger speed for this hot test was 6 rpm.</t>
-  </si>
-  <si>
-    <t>The primary blower speed for this hot test was 10 (S10).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 109 11/14/22  
-People: Hope, Troy, Austin Kevin 
-Hypothesis: Demo day! 
-Settings: Primary blowers at S10. Primary and secondary air set at 3000, then 4000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
-Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
-Summary:   
-The test went much less smoothly than the previous test. The two major issues were the reactor not seeming to light properly on the first attempt, and later the auger stopped in an apparent “ghost trip” situation where power stopped flowing to the motor, but the breaker never tripped. 
-Detailed Observations: 
-It was quite cold on the day of the test which seems to have slowed down the lighting phase. The reactor was lit following the same procedure as the previous test, but when the auger was run after 8 minutes there was not a sustained flame in the main reaction zone. After a couple minutes no flames were visible through the side port, so lighter fluid was added to restart the reaction. It turned out that was all that was required, as there was enough flame higher up in the reactor to ignite the newly introduced lighter fluid. We then let it sit for another 11 minutes, and upped the primaries to 4000, to give the reaction time to establish. From there it seemed things were progressing as planned, but about 15 minutes later the auger motor unexpectedly stopped. The breaker did not seem to be tripped, and cycling the breaker, as well as re-enabling the motor in Codesys did not fix the problem. None of the wires nor the motor controller were hot. Finally, after 10-15 minutes the breaker was cycled one more time, and the auger started moving. Overall a very confusing condition. We ran for another 40 minutes or so before shutting things down. 
-Suggestions: 
-My (Austin) suspicion is that the breaker might be worn out, and not tripping properly in an overcurrent situation. I suggest we replace the motor breaker and see if it solves the “ghost tripping” problem. </t>
-  </si>
-  <si>
-    <t>Based on the detailed observations provided, it seems that the auger motor experienced an unexpected stoppage during the test, referred to as a "ghost trip" situation. The breaker did not appear to be tripped, and cycling the breaker and re-enabling the motor did not resolve the issue immediately. However, after 10-15 minutes, cycling the breaker once more allowed the auger to start moving again.
-One suggestion to address this problem is to replace the motor breaker. It is possible that the breaker may be worn out and not tripping properly in an overcurrent situation, leading to the motor stopping without the breaker being triggered. By replacing the motor breaker, it can be determined if this solves the "ghost tripping" problem.
-It is important to note that this suggestion is based on the provided information, and a thorough examination of the equipment and further troubleshooting may be necessary to fully understand and resolve the issue.</t>
-  </si>
-  <si>
-    <t>The suggestion is to replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
-  </si>
-  <si>
-    <t>Replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 110 02/01/23 
-People: Kevin, Camila, Dylan, Rod and Jeff 
-Hypothesis: UBC test with new team member. Not considered a set up baseline since Blower C and D are not being controlled and issues with thermocouple readings. 
-Settings: Primary blowers at S10. Blowers set at 3000 rpm throughout the hot test.   Auger was run at 6 rpm. Small chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 30 angle setup, small barrel. 
-**Secondary Blowers C and D are not controlled. Currently going at around 8000 rpm and Blower D is not reading in Codesys. 
-Scale readings seem off. 
-Feedstock: Woodchips from Cloverdale 
-Summary:  Today’s hot tests purpose was to demonstrate the procedure on how to run the reactor. We lit the chips from S9 which might have influenced in the amount of smoke in the hopper. Likewise we had the ports open to visualize all the steps and this caused negative pressure. Testing around one can see that running primary blowers higher generates positive pressure through the open ports.  The short hot test ran pretty smoothly with around 24.654 kg/h being fed. 
-We observed that there is a tradeoff between mechanical conveyance difficulty and hopper fire. The experiment ended when the hopper was on fire (as well as the fact that we don’t have that much Cloverdale wood chips to go around with). But in general the pressure was negative throughout, including in the hopper.  
-Input feed rate 
-Output feed rate 
-The output weight was jumping back and forth between 1 and 2. After switching the barrel we identified the scale is indeed not working properly and require further troubleshooting. 
-Although small input, output seems to be well-charred. 
-Suggestions: Moving forward we have work to do troubleshooting the blowers, scale and thermocouples. By working on these areas we can move forward and run a hot test as a baseline for variable pitch auger. </t>
-  </si>
-  <si>
-    <t>Input flow rate: 24.654 kg/hour</t>
-  </si>
-  <si>
-    <t>The primary blower speed for this hot test is S10. The secondary blowers C and D are not controlled, with C running at around 8000 rpm and D not reading in Codesys. The auger was run at 6 rpm. The experiment used a small chimney without any mesh at the top. The prototype setup had a 30-degree angle and a small barrel. The feedstock used was woodchips from Cloverdale.
-During the hot test, there were some issues with the procedure. Lighting the chips from S9 may have influenced the amount of smoke in the hopper. The open ports caused negative pressure, and running the primary blowers at a higher speed generated positive pressure through the open ports. The experiment ended when the hopper caught fire. The input feed rate was around 24.654 kg/h, and the output feed rate fluctuated between 1 and 2. The scale used for measuring the output weight was not working properly and requires further troubleshooting. Despite the scale issue, the output appeared to be well-charred.
-Moving forward, it is suggested to troubleshoot the blowers, scale, and thermocouples. By addressing these areas, a hot test can be run as a baseline for a variable pitch auger.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Test # 111 02/02/23 
-People: Kevin, Rod, Camila and Dylan 
-Hypothesis: Run reactor at lower angle (15°) to test whether the auger will jam less, more or the same as Hot Test #110 
-Settings: Primary blowers at S10. 6in pitch auger used, running at 6rpm. Small chimney mounted with no mesh. Prototype set up at 15° with small barrel being used.  
-Scale fixed since yesterday’s test 
-Blower C is controlled. 
-Feedstock: Cloverdale woodchips 
-Summary: The purpose of today's hot test was to run the reactor in similar conditions as #110 but with the reactor at 15°. The intent was to see if the auger would jam less and to see if it was less likely to have a fire in the hopper. Although it appeared that there was less fire in the hopper, we were pushing down the woodchips more regularly which could have been a factor as well. Less scraping between the auger and the base of the reactor was heard. However, lots of woodchips were getting stuck and the motor breaker tripped multiple times. This did not occur in yesterday's test. 
-Flames could be seen at the top of the chimney. Blower rpm was increased to counteract this. </t>
-  </si>
-  <si>
-    <t>[output char quality, 0.5] The output char quality is moderate (0.5) because although there were improvements in reducing fire in the hopper and less scraping between the auger and the base of the reactor, the motor breaker tripped multiple times and lots of woodchips were getting stuck.</t>
-  </si>
-  <si>
-    <t>Blower C was controlled.</t>
-  </si>
-  <si>
-    <t>Input Material: PG&amp;E chips</t>
-  </si>
-  <si>
-    <t>The objective of this hot test was to compare the behaviors of the reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties in conveying the biomass in the Indian reactor.
-In this test, only rice husks were tested, and the auger speed, primary blower position, and secondary blower position were adjusted to replicate the Indian reactor conditions. The results showed that the rice husks conveyed smoothly, with occasional unpleasant noises but no sticking. However, coconut shells did not convey well and were excavated from the reactor.
-The cyclic peaks observed in the temperature data indicated that the auger speed had an impact on the combustion process. At 6 RPM, the measured auger speed was 1.48 minutes per revolution, while at 8 RPM, the frequency of cyclic peaks increased. Visual observation is needed to confirm if each cycle corresponds to one full auger revolution.
-Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred during the test, indicated by excess white smoke and a change in color of the smoke. Continuous replenishment of rice husks was necessary to prevent ignition in the hopper.
-Flames were observed coming from the cracks in the hopper, particularly where the hopper and combustion chamber meet facing the sky. Lowering the blowers to 3000/4000 temporarily decreased the flame, but flames started coming out of the system cracks in three places. When the blowers were raised back to 4000/5000, the flames eventually went out.
-The flame became strong once steady state was reached, and the char appeared homogenized at the end of the run. However, the fire running too hot caused complications, including a fire in the wires of Blower D, resulting in the shutdown of the entire system. The damaged blower was unplugged, and the remaining blowers and auger were used to convey the remaining char out.
-The output feedrate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, giving a yield of 13%. At 8 RPM, the output rate was around 5.7 kg/h, giving a yield of 34%.
-The next steps include replacing Blower D and continuing to run hot tests with three blowers in place.</t>
-  </si>
-  <si>
-    <t>The input material for this hot test was rice husks.</t>
-  </si>
-  <si>
-    <t>The input material for Hot Test #64 was rice.</t>
-  </si>
-  <si>
-    <t>The experiment was conducted to test the hypothesis that moving the primary blowers to a lower position in the reactor body would prevent jamming and compression of the biomass at the rectangular-circular transition. The test ran smoothly and achieved a steady state. The rice husks were not as tightly packed as in the previous test, indicating that the new blower position helped to decrease compression. The char produced was well-charred, but slightly overcharred, possibly due to the longer effective reaction length with the primary air in a lower position.
-The experiment used rice hulls as the primary fuel, but started with a half bucket of wood chips to aid in the lighting process. The goal was to observe the effects of the new blower position on the compression of rice hulls at the transition section. The test went well, with no jamming observed. The reactor reached a steady state, although the test had to be stopped before reaching the full steady state. There was minimal visible smoke throughout the test. The ash production varied, with periods of heavier ash and periods of little to no ash.
-The next steps include repeating the same experiments with chopped rice straws or other types of straws. Additionally, unlocking the stuck NPT ports at the middle positions (B7 and B9) would allow for further testing and finding a potential optimal position for the primary blowers. The charring at the end of the test will also be monitored to see if it resembles the homogeneous charring observed with the primary air in a lower position or the uneven charring observed with the primary air in a higher position.
-The thermocouple history was not provided in the given information.</t>
-  </si>
-  <si>
-    <t>In this hot test, the objective was to find a happy medium between the previous two tests by adjusting the primary air blower position. The researchers wanted to observe the extent of charring at the end of the reaction and determine if it resembled the homogeneous charring observed in the test with low primary air or the uneven charring observed in the test with high primary air.
-However, the results of the test were not successful. In both tests conducted, the reaction eventually died. In the first test, the reactor ran hot initially but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second test, the primary air blower RPM was reduced, but again the reaction tapered off and the rectangular-circular transition became jam-packed.
-Based on the interpretation of the previous tests, it is hypothesized that insufficient reaction leads to the rice husks in the rectangular-circular transition not being volumetrically reduced, resulting in them becoming jam-packed. This packed rice husks then become harder to react, further cooling the reaction.
-The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. Additionally, they suggest repeating test #65 to determine if the reaction would eventually meet the same fate as test #64 or #66 if run for a longer time period.</t>
-  </si>
-  <si>
-    <t>Input Material: hay
-Amount of Input Material: ~3kg
-Amount of Biochar Collected: 0.9kg
-Issues Encountered: 
-- Flow issues with the hay, resulting in slow feeding rate
-- Hay clumped together and charred all the way through
-- Hay caught fire in the hopper, limiting the test duration
-- Auger struggled to move the mass of hay
-- Thermocouple 6 fell out and other thermocouples had sporadic high readings
-- Thick white smoke and flame shot out of the hopper
-- Hay sticks together even after being charred
-Observations and Recommendations:
-- Hay needs to flow better, possibly by chopping it or changing the location of blowers
-- Start-up ignition may require additional wood chips
-- Address the issue of hay clumping together
-- Ensure proper functioning of thermocouples
-- Investigate and resolve the issue of thick white smoke and flame shooting out of the hopper
-Next Steps:
-- Consider chopping the hay in future tests
-- Explore moving the location of blowers to improve motion
-- Address the issue of hay smothering the flame and containing it strictly inside the system</t>
-  </si>
-  <si>
-    <t>Input Material: Rice straw
+    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
 Observations:
-- The experiment started with using straws instead of wood chips.
-- The flame went out and the reactor did not heat up significantly.
-- Wood chips were added to the side port and relit, which resulted in the reactor warming up for a while before cooling down again.
-- Smoke was observed from both the chimney and hopper simultaneously.
-- The hopper caught fire and had to be extinguished with water.
-- Rice straw was not flowable and required jamming to make it flow.
-- The fiber length of the chopped rice straws was around 2 inches on average.
-- When a big hopper was filled, the content sagged but did not flow out.
-- The rice straw was very compressible compared to other materials.
-- The auger occasionally struggled to move the biomass.
-- Hay was used in a separate test and required multiple ignitions to sustain the flame.
-- The hay did not flow well and tended to stick together.
-- The hay caught fire in the hopper in both tests.
-- The lack of flowability of the hay may be causing it to not move through the system fast enough.
-- Possible solutions suggested include adding teeth to the auger to grab the hay, finding a way to reduce the cohesion of the hay, or preheating the hay to break up its attraction.
-Next Step: Heat up the reactor more with wood chips for 30+ minutes before introducing rice straws.</t>
-  </si>
-  <si>
-    <t>Wood chips (PG&amp;E)</t>
-  </si>
-  <si>
-    <t>Input Material: PG&amp;E wood chips
-Primary Air Location: Middle
-Secondary Air Speed: 2500 or 3500 (unclear)
-Observations:
-- No jamming occurred during the test.
-- Smoke from the chimney and hopper was observed cyclically.
-- The input feed rate was approximately 11 kg/h.
-- Steady state was not achieved, as the temperature decreased without changing the blower RPM.
-- Mulched hay was successfully charred, with a total of 6.7 kg of char produced.
-- The auger struggled as the test progressed.
-- The flame appeared strong despite temperature readings and smoke indicating otherwise.
-- The system exhibited cyclic behavior, with the auger getting jammed and increasing smoke volume.
-- Blower speed and auger speed changes did not always result in desired changes.
-- The system produced white, black, and yellow smoke at different times.
-- The hay was manually fed into the system, with the tactic of gradually adding it and plugging holes.
-- The system's behavior was influenced by the thickness of smoke, auger struggling, and hopper smoking.
-- The test's replicability is of interest.
-Note: The information provided is based on the given example and may not reflect the complete understanding of the combustion process and machine design. Further analysis and experimentation may be required for a comprehensive understanding.</t>
-  </si>
-  <si>
-    <t>In this hot test, the experimenters conducted the combustion experiment without the chimney mesh to test the hypothesis that it was causing the hopper smoke. The primary blowers were set at the same positions as before, and the reactor profile was rectangular. The input material used was 1.5 bucketfuls of eucalyptus wood chips. 
-During the test, the experimenters observed that the wood chips in the flame zone were filled almost to the top through the cracks of the chimney base, which was not seen in previous tests. They speculated that this might be due to manually packing the wood chips more tightly. 
-The flames were quickly established after starting the auger at 6rpm and feeding straw into the reactor. However, there were some small fires in the hopper, which were reduced to a manageable level by increasing the auger speed to 10rpm. The straw had to be continuously pushed into the auger to keep it full and prevent hopper fires. 
-The average feed rate during the experiment was approximately 27 kg/h. When the char outlet was opened at the end of the experiment, there was no smoke, and the straws appeared evenly charred. 
-The next steps mentioned in the hot test include installing a mega chimney and testing it with rice hulls to assess its effectiveness in reducing ash and charred particles coming out of the chimney. 
-No information is provided about the thermocouple history in this hot test.</t>
-  </si>
-  <si>
-    <t>The thermocouple history for this hot test is not provided in the given information.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment involved testing the combustion process in a small-sized reactor for biomass to biochar formation. The objective was to gain a complete understanding of the combustion process and machine design by testing different hypotheses. In this specific hot test (#77), the personnel involved were Eymon, Austin, Gabriella, Cerise, and Kevin.
-The hypothesis for this test was to use rice straws to replicate the smoke that the India team was experiencing. The settings for the primary blower, secondary blower, and auger were 4000 rpm, 3000 rpm, and 10 rpm, respectively.
-The outcome of the test was that the chimney smoke experienced by the India team could not be replicated due to differences in the design of the prototype at RFS. The test had to be stopped because the hopper caught fire, possibly due to an ember falling into the hopper section. Smoke and some ashes were observed coming out from the chimney, as well as smoke escaping from cracks.
-Notable observations included the absence of a hopper, with rice straws being manually fed instead. The inability to replicate the chimney smoke was attributed, in part, to the new square section design.
-The next steps recommended were to replicate a similar design to the India team's prototype in order to produce the chimney smoke they were experiencing. Additionally, the reasons for the chimney smoke and possible solutions were to be identified.
-No information was provided regarding the thermocouple history.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the hot test conducted with rice straw in the reactor at a 30° configuration resulted in several observations and issues. Notably, there was a hopper fire, ash particles were visible from the chimney, yellowish smoke was emitted, and the auger experienced jamming. To mitigate the smoke, a propane blower was used through the side port.
-For the next test, it is suggested to use wood chips instead of straw to establish a more sustainable and controllable fire. This is because straw may burn too quickly, making it difficult to maintain a steady state of heat.
-To gain a complete understanding of the combustion process and machine design, it is recommended to analyze the thermocouple data. The thermocouples should be placed at different locations within the reactor to measure temperature variations. By analyzing the temperature profiles, it will be possible to identify any hotspots, temperature gradients, or other patterns that can provide insights into the combustion process and reactor performance.
-Additionally, it would be beneficial to investigate the cause of the hopper fire and the auger jamming. This could involve examining the design and operation of the hopper and auger system, as well as considering any potential issues with the biomass feedstock.
-Overall, by systematically analyzing the experimental data, addressing the observed issues, and testing different hypotheses, a comprehensive understanding of the combustion process and machine design can be achieved.</t>
-  </si>
-  <si>
-    <t>The thermocouple history was not provided in the given information.</t>
-  </si>
-  <si>
-    <t>Input Material: Mulched rice straw</t>
-  </si>
-  <si>
-    <t>Input Material: Rice Hulls</t>
-  </si>
-  <si>
-    <t>Input Material: rice
-Outcome: Not successful, with lots of buildup in the reactor body from the rice hulls and excessive white and yellow smoke.
-Notable Observations: The new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The smoke exited through cracks in the reactor hull.
-Next Steps: Block off the chimney to prevent buildup, switch the augers' positions, and line the reactor to reduce smoke emission.</t>
-  </si>
-  <si>
-    <t>Input Material: Wood chips, leafy, fibrous eucalyptus pile (probably)
-Outcome: Overall not successful. The fire was extremely hot, but not burning up much material due to a lack of wood chips for the amount of air being pushed into the machine.
-Notable Observations:
-- Thermocouple 5 and 6 were switched and need to be transposed when creating data.
-- Friction between the reactor walls and auger parts persists, although the new auger jams less.
-- The fire descended to the hopper underneath, leading to the shutdown of the machine.
-Next Steps:
-1. Increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions include speeding up the auger or using smaller/less fibrous wood chips.
-2. Investigate if the new auger is affecting the amount of air getting from the hopper to the combustion zone. The fire descending to the hopper suggests a potential issue.
-3. Test if the person shoving the biomass (e.g., Austin) is a factor in the experiment. If possible, have the same person consistently perform this task. If not, consider increasing the auger speed for wood chips while using the same individuals (Gabriella/Eymon) for shoving.
-4. Consider Kevin's recommendation and explore other factors that may be influencing the combustion process and machine performance.</t>
-  </si>
-  <si>
-    <t>The hot test conducted in this experiment involved using a new auger with wood chips as the feedstock. The objective was to test if increasing the auger speed would reduce jamming. However, the hot test was a failure as the auger was unable to run without jamming and stopping on its own.
-Notable observations from the experiment include:
-- The auger ceased to run 7 times during the test, requiring removal of biomass and running the auger backwards to eliminate the jam.
-- The left side of the auger flights was packed tightly, making it difficult to add more wood chips and potentially contributing to the jams.
-- Yellow smoke was emitting from cracks in the reactor.
-- The reactor fire was hot but had difficulty being maintained at certain points during the test.
-- Very little biochar was collected at the end of the test, mostly ash.
-- The auger was significantly warped, with a significant gap between the new auger and the welded piece on the top auger.
-The next steps suggested include fixing the gap between the auger flights, as it seems to be the most important issue. Additionally, testing a different biomass could help determine the impact of the gap. The rapid warping of the auger is surprising and needs to be addressed.</t>
-  </si>
-  <si>
-    <t>Input Material: Woodchips</t>
-  </si>
-  <si>
-    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower position down two notches. The feedstock used was wood chips collected from the City of Berkeley. 
-The results of the test showed that the conveyance of wood chips was very slow initially, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and the visible flame at the chimney base was replaced by smoke and later by higher biomass/char. The charred wood chips started piling up below the chimney section, causing more frequent motor tripping. Eventually, a hopper fire occurred, and the reactor had to be shut down. The white smoke may have been caused by blocked channels for air flow due to the piling wood chips below the chimney, which also caused more backflow through the hopper. The thermocouple readouts were anemic throughout the process. The char output looked mixed, with some parts not charred. The input flow rate was approximately 50 kg/h, slowing over time, and the output flow rate was approximately 7.5 kg/h, resulting in an average yield of 15%.
-Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially started halfway through S4 but advanced closer to the base of the chimney later on. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted well past the chimney region. One of the secondary blowers had command issues initially but was put back into service for the latter half of the test.
-The next steps suggested in the report include testing a more flowable material with increased hydrostatic head to see if the accumulation problem persists, lowering the reactor angle to 15 degrees to test if char near the outlet falls backwards, making a new 6'' auger to test if the accumulation effect is related to the auger design, and repositioning the primary blowers to a higher circumferential position to test if the problem is caused by constricted flow due to ash/char falling into the NPT pipe.
-Overall, the hot test provided insights into the wood chip jamming issue and proposed potential causes and solutions for further investigation.</t>
-  </si>
-  <si>
-    <t>In this hot test, the objective was to resolve the issue of wood chip jamming by moving the primary blower circumferentially up. The settings for the test included moving the primary blower position from B4/B6 to S4, with an auger motor speed of 6 RPM and a 50% duty cycle. The primary air was initially higher and gradually reduced to 2000 RPM, while the secondary air gradually increased to 7000 RPM. The feedstock used was wood chips collected from the City of Berkeley.
-Initially, the reaction ran very cold and there was a high accumulation of mixed charred and uncharred wood below the chimney. The biomass had to be repeatedly lit, and thick smoke came out of both the chimney and the hopper. The auger did not jam or trip during the test. The reactor consumed a large amount of wood chips (around 96 kg/h), making it difficult to keep feeding it. 
-To address the cold and smoky reaction, the auger speed was reduced to 50% duty cycle at 6 RPM. This led to a hotter and less smoky steady state, where the accumulation problem below the chimney did not occur. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney with well-charred feedstock. The hopper smoke also improved as voids were filled and the biomass height increased.
-The primary blower position at S4 may have exacerbated the hopper smoke, and it was suggested to test the primary blower at S8 or S9 in the future. The variable pitch auger below the chimney may have contributed to the accumulation problem, but it was not the sole cause. The primary air may have gradually choked up as the test progressed.
-The hot test consisted of two sections, a faster section and a slower section. In the faster section, the char output was 28.7 kg/h with a biomass feed of 96.1 kg/h, resulting in a yield of 29.8%. In the slower section, the char output was 29.1 kg/h with a biomass feed of 71.8 kg/h, resulting in a yield of 41%.
-The hypothesis that wood chip jamming could be resolved by moving the primary blower circumferentially up was supported by the experiment. However, further tests are needed to definitively validate this hypothesis. It was suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input to visualize the accumulation of ash and small particles over time.
-Other directions for exploration include testing with rice husks to see if the same setup can solve the accumulation issue and testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite blockage in the NPT tube leading into the reactor chamber.
-Overall, this hot test provided insights into the combustion process and machine design, and further experiments are planned to test different hypotheses and optimize the system.</t>
-  </si>
-  <si>
-    <t>Input Material: Rice husk
-Hypothesis to test: Circumferentially raising the primary air blower position will prevent biomass from falling into the air ducting elbow and reduce pressure loss of air entering the reactor. This will improve air mixing within the biomass bed, increase devolatilization of biomass, and reduce the height of biomass/char accumulating in the chimney.
-Observations:
-- Char accumulation was observed in the chimney, indicating that the chimney was completely packed. This occurred even when the air inlet ducts were not filled with char.
-- The auger experienced jamming due to char accumulation at the chimney, even when the biomass level in the hopper was low.
-- Increasing the secondary air blower speed to 8000 rpm increased devolatilization and prevented auger jamming.
-- Char was observed falling back near the hopper, potentially from the accumulated char in the chimney. However, the rate of char fall back did not compensate for the rate of accumulation in the chimney.
-- The output was highly undercharred, suggesting that the hot zone length was too short, resulting in a lower residence time.
-- Consistent smoke was observed from the hopper, indicating char falling back. This was visible through the hopper and the open NPT coupling at the chimney.
-- Chimney emissions were clean, and there was positive pressure throughout the reactor, including the chimney.
-Takeaways:
-- Accumulation in the chimney for rice husks is due to gravity and aggravated by the smaller pitch of the variable pitch auger. It is not caused by char accumulating in the air ducting.
-- To address the issue of chimney buildup, auger jamming, and hopper smoke, reducing the angle of inclination to 15 degrees can be investigated.
-- Increasing the primary air from 3000 rpm to a higher value can be explored to determine if it leads to more severe and even charring.
-- Bringing the primary air back towards the hopper (at the same circumferential height) can be tested to increase the hot region residence time and enhance devolatilization before reaching the chimney. This may help in volumetric reduction of biomass prior to reaching the chimney.
-Other:
-- The char completely filled up until the chute height, and the weight of the scale value for rice husks at which the drum becomes full has been noted for future reference.
-- NPT couplings have been opened, except for one specific coupling (2nd from chimney, 2nd from lowest circumferential position, towards the side facing the shed).</t>
-  </si>
-  <si>
-    <t>The experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping in the biomass to biochar formation process. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring.
-The initial parameters selected for the experiment were as follows: auger at 6 rpm with a 50% duty cycle and a 12-inch pitch, primary air at 3000 rpm, secondary air at 4000 rpm, and an angle of inclination of 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
-The high-level summary of the experiment indicates that char did not accumulate in the chimney to the same extent as in previous tests, preventing the auger from tripping. The output achieved was evenly charred. However, there was consistent smoke from the hopper, likely due to the char falling back due to the angle of inclination of the reactor. The chimney emissions were mostly clean, but there was consistent ember emission, possibly caused by the higher pile of char under the chimney. The negative pressure in the chimney was as desired.
-The takeaway from this experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
-The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke. Additionally, testing whether increasing the primary air from 3000 to a higher value for a duty cycle greater than 50% leads to more severe and even charring can be explored. Finally, bringing the primary air back towards the hopper at the same circumferential height could increase the hot region residence time and devolatilize the biomass more before it reaches the chimney, potentially aiding in volumetric reduction of biomass.
-It is noted that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches.</t>
-  </si>
-  <si>
-    <t>Rice husk</t>
-  </si>
-  <si>
-    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
-Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in it running for a brief moment before jamming again. A high pitched whine was also observed before the motor stopped, indicating a possible overload, although the exact cause remains unclear.
-On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its maximum capacity due to the aforementioned issues.
-The next steps should involve investigating why the breaker is not tripping fully and addressing the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the reactor and to continue testing the hypothesis effectively.</t>
-  </si>
-  <si>
-    <t>The experiment conducted on 09/01/22 involved testing two hypotheses related to the machine design and addressing issues encountered in previous experiments. The first hypothesis aimed to address the bridging issue by enlarging the hopper. The second hypothesis aimed to reduce the jamming issue by moving the primary air blowers to a different position.
-The settings for the experiment included the primary blower positioned at S4, with a primary air setpoint of 3000 initially and secondary air set at 5000. A megachimney was used without any mesh at the top.
-The feedstock used for the experiment was wood chips of different types, including chunky, fibrous, eucalyptus, and newly collected wood chips.
-In terms of observations, the experiment found that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper temperature to 15 degrees and observe if bridging improves. Regarding the jamming issue, initially, severe jamming occurred after the reactor was lit for a while. The jamming was suspected to occur higher up in the reactor zone, possibly at the transition above the chimney. However, the jamming resolved itself after waiting for some time. The reactor then ran smoothly at 6 RPM and 50% duty cycle.
-The experiment also noted issues with hopper smoke/fire. After the auger was stuck initially, it was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the hopper base to light on fire or start smoking. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the smoke/fire returned when the blower RPM was increased. It was observed that fire and char were conveyed through the crack at the base of the chimney, indicating a high solid level at the chimney position. This could have blocked the passage of primary air towards the chimney, exacerbating the hopper smoke/fire issue.
-The experiment was shut down prematurely due to low wood chip supply, and the rates and yield were not accurately determined. The input feed rate was approximately 41 kg/h, and the output rate was approximately 33 kg/h, suggesting a mass yield of 80%, which seemed incorrect. The scale logging also showed a wavy feature, indicating a potential issue with its functionality.
-The obtained biochar from the experiment was found to be undercharred in some parts, with a brownish color, indicating around 60-80% charred biomass.
-Overall, the experiment provided insights into the persistence of bridging and jamming issues, as well as the challenges related to hopper smoke/fire and accurate measurement of rates and yield. Further investigation and modifications are required to address these issues and improve the combustion process and machine design.</t>
-  </si>
-  <si>
-    <t>Input Material: Rice hulls</t>
-  </si>
-  <si>
-    <t>Hot Test #96 was conducted on 09/04/22 with the following team members: Camila, Yiyang, and Kevin. The hypothesis for this test was compared to the previous test on 9/1/22. The settings for this test were as follows: the primary blower position was set at S4, the primary air setpoint was initially set at 3000, and the secondary air was set at 5000. The megachimney was used without any mesh at the top.
-The feedstock used for this test was wood chips. The summary of the test indicates that smoke from the hopper persisted despite efforts to fully cover it. Changing the primary blower position to S5 did not resolve the smoke issue. However, moving the primary blower position to S6 seemed to significantly improve the hopper smoke condition, although it resulted in worsened chimney ash. Moving the primary blower to S10 caused the hopper smoke to resume. The experiment had to be stopped at this point due to running out of dry wood chips.
-Detailed observations from the test include ensuring that the hopper was fully covered to prevent air flow, but smoke still appeared. Changing the primary blower position helped, but it resulted in ash formation. It was suggested to potentially lower the blower's RPM to avoid underchar results. No jamming occurred during the test. The various ports were visualized, and through S1, vigorous combustion was observed with a high solid level. Through S4, S5, and S10, depending on the position of the primary blower, the observations were inert charred or flaming char.
-The experiment was stopped due to running short on dry wood chips, but the team learned as much as they could. It was noted that during the test, the right S3 did not have an NPT plug but was taped over with aluminum tape, which could have exacerbated the smoke in the lower axial position close to the hopper.
-The inputs and outputs for this test were 69.1 kg/h input. However, it was mentioned that the output scale was not working, and the drum was changed after shutting down the reaction, but it was not registered as a sensible signal.
-In comparison to the hot test on 9/3/2022 with rice hulls, the results of this test showed a higher percentage of biochar, approximately 70%.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the hot test was conducted using pine tree wood chips as the feedstock. The experiment aimed to achieve a smooth hot test due to the small and dry nature of the wood chips. The primary blower position was set at S10, with a primary air setpoint of 3500 rpm and secondary air at 3500 rpm. The experiment utilized a mega chimney without any mesh at the top and a newly refurbished six-inch pitch auger set up at a 35-degree angle.
-During the hot test, no ash or ember was observed coming out of the chimney. However, a recurrent issue was the occurrence of burning wood pieces going back to the hopper, which eventually led to a fire in the hopper and premature termination of the hot test. The weather conditions varied from sunny to rainy throughout the process.
-Detailed observations revealed that the hopper was not kept full throughout the hot test, resulting in the failure to maintain a steady state. The auger made some noises and shuttered with the wood chips but continued to run without jamming. Good flames were observed inside the reactor from the beginning until the end of the test. The temperature continuously increased until all the chips ran through the reactor.
-A picture was provided, demonstrating burning wood chips at the hopper and air holes. The biochar produced during the hot test weighed a total of 12 kg and appeared to be well charred. The input rate of the biomass was 45.1 kg/h.
-Suggestions for future experiments include starting to move the auger more quickly after lighting the fire, potentially reducing the primary air supply due to the dry nature of the biomass, ensuring the hopper is filled to avoid low chip levels and potential air holes causing the reaction to move backward, and reducing the angle of the auger to facilitate forward movement of the reaction. Additionally, the impact of lowering the speed of the blower on the final result of biochar should be observed in future tests.</t>
+1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
+2. Flow of chips that end up not being charred (mixing problem).
+3. Incomplete char formation and no steady state achieved.
+4. Biochar recorded was partially charred/under charred.
+Possible Explanations:
+1. The reduced lighting time and primary blower speed may have caused incomplete combustion, leading to the formation of black smoke.
+2. The mixing problem could be due to inadequate mixing of the biomass in the reactor, resulting in some chips not being fully charred.
+3. The changes in settings may have disrupted the combustion process, preventing the attainment of steady state conditions.
+4. The partial char formation could be a result of incomplete combustion due to the changes in settings.
+Recommendations:
+1. Find a balance between temperature and air supply to avoid black smoke from the chimney and white smoke from the hopper. This can be achieved by adjusting the primary blower speed and lighting time.
+2. Analyze possible scenarios and work as a team to identify the root causes of the smoke issues and develop strategies to address them.
+3. Consider moving the blowers up to improve the distribution of air and volatiles within the reactor.
+4. Decrease the angle of the prototype to enhance the mixing of biomass and improve char formation.
+5. Increase the speed of the secondary blowers to promote secondary combustion and improve overall combustion efficiency.
+These recommendations aim to optimize the combustion process, improve mixing, and achieve complete char formation. It is important to carefully analyze the data from each experiment and make incremental adjustments to the experimental setup to gain a better understanding of the underlying combustion process and machine design.</t>
   </si>
   <si>
     <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
@@ -2468,10 +2294,215 @@
 Overall, it is important to systematically analyze the combustion process, airflow patterns, and temperature profiles to identify the root causes of the observed issues. By making adjustments to the machine design, blower settings, and operating parameters, it should be possible to optimize the combustion process and achieve better char formation.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hot Test # 99 – 09/26/22  
+People: Camila, Austin, Kanages, Kevin 
+Hypothesis: Increased secondary air to address black smoke issue; moved one of the blowers up one notch circumferentially to address hopper white smoke issue 
+Settings: Primary blower position at S5 on the right side. On the left side, the viewing port NPT plug remained stuck at S10 and could not be loosened until the very end; therefore for this hot test, primary blower on the left side remained at S10. At the end of the experiment, we realized that primary and secondary blower wires on the right side (enclosure side) were switched. Primary air setpoint at 3000 rpm during start-up, reducing to 2500 and then 2200 rpm. Secondary air remained at 4000 rpm throughout. Mega chimney was used, without any mesh at the top. Newly refurbished six inch pitch auger. Prototype at 35 angle setup. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: Reactor ran very hot throughout. White ash, while not visible against a white wall, was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were seen from the chimney occasionally (possibly more on the right side), resulting in gradual reduction of primary air in response. However, the primary and secondary air blowers were switched on the right-hand side, resulting in inconclusive outcome. There was still white smoke emerging from the cracks close to the hopper as well as through the hopper. We suspected that frequent poking into the hopper to avoid voidage may have helped with the smoke.  
+Detailed Observations: Some parts of the wood chip pile were more palpably wet, especially inside. 
+Flow Rates: By cumulative output (28.1 kg) and input (92.5 kg), the mass yield is about 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield is about 12%. The output mass scale is exhibiting the same weird undulating behavior, and we’re not sure if we trust the readout for the output mass flow. 
+Input feed rate graph:  
+ </t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
+The experiment observed that the reactor ran very hot throughout, and white ash was visible against the blue sky, indicating a potentially worse outcome compared to previous tests. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction in primary air. However, it was noted that the primary and secondary air blowers were switched on the right-hand side, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce the smoke.
+Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured, and two different calculations of mass yield were obtained. One calculation based on cumulative output and input mass yielded a mass yield of about 28%, while another calculation based on output and input mass flow rates yielded a mass yield of about 12%. It was also mentioned that the output mass scale exhibited strange undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
+Unfortunately, the provided information does not include any specific question or hypothesis to address. If you have any specific questions or hypotheses related to this experiment, please let me know, and I will be happy to assist you further.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the output flow rate for this hot test is 7.97 kg/h.</t>
+  </si>
+  <si>
+    <t>Hot Test #99 – 09/26/22
+Yield: [28%, 12%]
+In this hot test, the objective was to address the black smoke issue by increasing the secondary air and adjusting the position of one of the blowers. However, the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome.
+The reactor ran very hot throughout the experiment, and white ash was visible against the blue sky, indicating a worse outcome compared to the previous test. Puffs of black smoke were occasionally seen from the chimney, leading to a gradual reduction of primary air. White smoke still emerged from cracks close to the hopper and through the hopper, suggesting that frequent poking into the hopper may have helped with the smoke issue.
+Detailed observations revealed that some parts of the wood chip pile were more wet, especially inside.
+The mass yield was calculated using two different methods. By cumulative output (28.1 kg) and input (92.5 kg), the mass yield was approximately 28%. However, by output mass flow (7.97 kg/h) and input (68.8 kg/h), the mass yield was approximately 12%. The output mass scale exhibited weird undulating behavior, raising doubts about the accuracy of the readout for the output mass flow.
+Unfortunately, the input feed rate graph is not provided in the given information.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase secondary air to address black smoke issues and adjust the position of one blower to address white smoke issues from the hopper.
+The experiment settings included the primary blower positioned at S5 on the right side, while the left side primary blower remained at S10 due to a stuck viewing port NPT plug. The primary air setpoint was initially 3000 rpm during start-up, then reduced to 2500 and 2200 rpm. The secondary air remained at 4000 rpm throughout. A mega chimney without any mesh at the top was used, and a newly refurbished six-inch pitch auger was employed in a 35-degree setup.
+The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada. The reactor ran at a high temperature throughout the experiment. White ash was observed, although it was not easily visible against a white wall but was noticeable against the blue sky. Puffs of black smoke occasionally emerged from the chimney, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper cracks and through the hopper, and it was suspected that frequent poking into the hopper to avoid voidage may have contributed to the smoke.
+Detailed observations included the presence of wetter parts inside the wood chip pile. Flow rates were calculated based on cumulative output and input mass, indicating a mass yield of approximately 28%. However, when considering output mass flow and input mass, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the reliability of the readout for output mass flow.
+Unfortunately, the example answer provided does not specify the specific information or question for which an answer is expected.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. In the example hot test mentioned, the hypothesis was to increase the secondary air to address black smoke issues and adjust the position of one blower to address hopper white smoke issues.
+The experiment settings include the position of primary blowers, the speed of primary and secondary blowers, the use of a mega chimney without mesh, and the setup of a newly refurbished six-inch pitch auger at a 35-degree angle. The feedstock used in this particular test was pine tree wood chips from Anahim Lake, Canada.
+The summary of the test indicates that the reactor ran very hot throughout the experiment. White ash was visible against the blue sky and was qualitatively worse than the previous test. Some puffs of black smoke were observed from the chimney occasionally, leading to a gradual reduction in primary air. However, it was later discovered that the primary and secondary blower wires on the right side were switched, resulting in an inconclusive outcome. White smoke was still observed near the hopper, and it was suspected that frequent poking into the hopper may have helped reduce smoke.
+Detailed observations mentioned that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering output and input mass flow rates, the mass yield was estimated to be around 12%. The output mass scale exhibited unusual undulating behavior, raising doubts about the accuracy of the readout.
+Unfortunately, the example answer provided does not include any specific question or request for analysis. If you have any specific questions or need further analysis of the experiment data, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The reactor ran very hot throughout the experiment, and white ash was observed, although it was not easily visible against a white wall. However, it was qualitatively worse than the previous test. Puffs of black smoke were occasionally seen from the chimney, particularly on the right side, leading to a gradual reduction in primary air. It was noted that the primary and secondary air blowers were switched on the right-hand side, which resulted in an inconclusive outcome. White smoke was still observed from cracks near the hopper and through the hopper. Frequent poking into the hopper was suspected to have helped with the smoke issue.
+Detailed observations indicated that some parts of the wood chip pile were more wet, especially inside.
+Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering the output mass flow rate and input mass rate, the mass yield was estimated to be about 12%. The output mass scale exhibited strange undulating behavior, raising concerns about the reliability of the readout for the output mass flow.
+Unfortunately, the provided information does not include an example answer. If you have any specific questions or require further analysis of the data, please let me know.</t>
+  </si>
+  <si>
     <t>Based on the provided information, the input material for the hot test #99 on 09/26/22 was pine tree wood chips from Anahim Lake, Canada.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hot Test # 100 – 09/27/22  
+People: Camila, Austin, Kanages and Kevin 
+Hypothesis: By correcting the wiring for primary/secondary blowers and making sure to agitate the hopper we should be able to run the hot test smoothly without any smoke. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see below for rationale). Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4500 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary:  Today’s hot test had a slow start due to position of lighting up, after moving the primary blower position back to S10 enhancing the combustion. Then black smoke was observed from the chimney trying to identify if it was caused periodically. Meanwhile changing primary blower to 2500 rpm. This seemed to have helped but white smoke appeared at the hopper. We realized that white smoke was not so much due to voidage below the hopper region, but due to the biomass/biochar accumulating below the chimney level leading to blockage of flow channels towards the chimney, just like previously with variable pitch auger. We therefore decided to implement the following response: First, whenever white smoke arose, we cut both primary and secondary to 1300 to minimize positive pressure, thereby minimizing the outward smoke. Then, because the blowers were at idle, we stopped the auger temporarily. Then, we decided to implement an interval system of 3 minutes on running auger at 6, primary at 2000, secondary 3000 rpm and 3 minutes off auger at 0, primary and secondary at 1300 rpm. This intermediate system seemed to cool down the process a lot so we decided to do 3 minutes on and 1 minute off.  
+Detailed Observations:  
+After the slow lighting, fire got strength and some ember could be seen within the ports. (See picture below) 
+Picture demonstrates not properly combustion going on. 
+We were very aware of the hopper and poking often to avoid bridging. Auger tripped and motor stopped working. This made us cautious and conscious of the importance of a balance act. 
+We recorded a total of 27.45 kg of char. Biochar was not fully charred at the top. However, a subsequent picture showing a spread of biochar from start to finish shows the middle section as well charred. The end section was less well charred due to possible mixing with uncharred wood chips being conveyed out.   
+Suggestions: 
+To achieve a steady hot test for tomorrow’s demo we plan on working as a team, each having a specific role. Conducting a interval system, poking the hopper to avoid bridging and aiming for steady state temperature for fully charred charr. We aim to not have much black nor white smoke throughout the test. </t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary and secondary blowers for oxygen supply and volatile removal, and thermocouples for temperature measurement.
+In the example hot test, the auger speed was set at 5. However, in another hot test, the auger speed was not mentioned. The hypothesis for the hot test was to correct the wiring for primary/secondary blowers and agitate the hopper to run the test smoothly without any smoke.
+During the hot test, the primary blower positions were adjusted, and the primary and secondary air were initially set at idle. The feedstock used was pine tree wood chips from Anahim Lake, Canada. The test started with a slow start due to the position of lighting up, but after adjusting the primary blower position, the combustion was enhanced. However, black smoke was observed from the chimney periodically. The primary blower speed was then changed to 2500 rpm, which helped reduce the smoke, but white smoke appeared at the hopper. It was found that the white smoke was due to biomass/biochar accumulating below the chimney level, leading to blockage of flow channels. To address this, an interval system of running the auger and blowers for a certain period and then stopping them temporarily was implemented. The interval system was adjusted to cool down the process, and a total of 27.45 kg of biochar was recorded.
+Based on the observations, suggestions for achieving a steady hot test include working as a team with specific roles, implementing the interval system, poking the hopper to avoid bridging, and aiming for a steady-state temperature for fully charred biochar. The goal is to minimize black and white smoke throughout the test.
+In summary, the experiment aims to understand the combustion process and machine design for biomass to biochar formation. The example hot test provided insights into the adjustments made to the blower positions, air supply, and interval system to improve the combustion process and minimize smoke.</t>
+  </si>
+  <si>
+    <t>Hot Test #100 – 09/27/22
+Yield: 27.45 kg of char
+Based on the observations and suggestions provided, it seems that the hot test did not report the yield value.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test was initially set at 5 (S5) and later changed to 2500 rpm.</t>
+  </si>
+  <si>
+    <t>The hot test conducted on this day had some challenges, including slow lighting and the occurrence of black and white smoke. The primary blower position was adjusted to improve combustion, but black smoke was still observed periodically. It was determined that the white smoke was not due to voidage below the hopper, but rather due to biomass/biochar accumulation below the chimney level, causing blockage of flow channels. To address this, the primary and secondary blowers were reduced to 1300 rpm whenever white smoke arose. Additionally, an interval system of running the auger at 6, primary at 2000, and secondary at 3000 rpm for 3 minutes, followed by 3 minutes off at 0 rpm for all blowers, was implemented. This system was later adjusted to 3 minutes on and 1 minute off. 
+Detailed observations included the presence of ember within the ports after slow lighting, the need to poke the hopper frequently to avoid bridging, and the tripping of the auger motor. A total of 27.45 kg of char was recorded, with the top section of the biochar not fully charred. However, the middle section showed good charring, while the end section was less well charred possibly due to mixing with uncharred wood chips. 
+To improve the hot test for the next day's demo, the team plans to work together with specific roles assigned. They will implement the interval system, poke the hopper to prevent bridging, and aim for a steady state temperature to achieve fully charred biochar. The goal is to minimize the occurrence of black and white smoke throughout the test.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, here is an example answer:
+The motor angle for the hot test conducted on 09/27/22 was not mentioned in the experiment description. Therefore, the answer for the motor angle in this case would be N/A (not applicable).
+It is important to note that the motor angle may have an impact on the combustion process and machine design. Further experiments with different motor angles can be conducted to investigate their effects on the combustion efficiency, temperature distribution, and biochar formation.
+Additionally, the experimenters identified several issues during the hot test, including slow lighting, black smoke from the chimney, and white smoke from the hopper. They hypothesized that correcting the wiring for the blowers and agitating the hopper would help run the test smoothly without any smoke.
+To address the issues, the experimenters adjusted the positions and speeds of the primary blowers, implemented an interval system for running the auger and blowers, and poked the hopper to avoid bridging. These measures helped to minimize smoke generation and cool down the process.
+For tomorrow's demo, the experimenters plan to work as a team with specific roles, continue using the interval system, and aim for a steady-state temperature to achieve fully charred biochar. They aim to minimize both black and white smoke throughout the test.
+Overall, the experimenters are taking a systematic approach to understand the combustion process and machine design by testing different hypotheses and making adjustments based on their observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
+People: Camila, Austin, Kanages and Kevin 
+Hypothesis: No hypothesis. The aim is to replicate yesterday’s strategy in order to orchestrate a smokeless public demo for a few hours in front of a crowd.  
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5 (see yesterday’s writeup for rationale). Primary at 2500 rpm (reducing to 2300 due to black smoke) and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Switched back to the newly refurbished six inch pitch auger. Prototype at 35 angle setup. Implemented a system of turning to idle every time some smoke appeared in the hopper. By doing so a steady state temperature curve “plateau” was achieved and the hot test ran smoothly for four hours. 
+Feedstock: Pine tree from Anahim Lake, Canada wood chips   
+Summary: We were able to run stably for 3 hours, with active control of the process to minimize white smoke (and to a lesser extent, black smoke) by implementing a system of turning to idle every time some smoke appeared in the hopper. The char outlet material caught on fire (probably the resin of the metallic tape) at the end, which we will need to fix for tomorrow.  
+Let’s do some statistics of the start/stop intervals – what are the averages? Plot these intervals 
+ON/OFF RATIO 
+Above the average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12 
+Above the average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82 
+Detailed Observations:  
+Feedrates: About 55.38 kg/hr for the input, 10.48 kg/or for the output, resulting in a yield of 18.9%. By accumulation, we fed 203.8 kg of input, getting 41.0 kg of output, resulting in a yield of 20.1%.  
+Upon changing the first full drum (during steady state), the char looks well done:  
+Next Steps: 
+A hypothesis could be done on the impact of hopper-poking on white smoke from the hopper. Our initial hypothesis seemed to be that the white smoke from the hopper may arise due to increasing voidage as the biomass bridges over the hopper, which hopper-poking can resolve. However, our newer observation seems to suggest that the white smoke may be better attributed to the blockage of flow path in the region below the chimney.  One way to test this is to stop hopper-poking, and observe the difference there is on hopper white smoke, which can be measured by the statistics of auger on and auger off time intervals.  </t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12. The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis will represent the intervals and the y-axis will represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+Regarding the hypothesis on the impact of hopper-poking on white smoke from the hopper, it seems that the initial hypothesis of increasing voidage causing white smoke may not be accurate. The newer observation suggests that the white smoke may be due to blockage of the flow path below the chimney. To test this hypothesis, you can stop hopper-poking and observe the difference in hopper white smoke. This can be measured by analyzing the statistics of auger on and auger off time intervals.</t>
+  </si>
+  <si>
+    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
+Input flow rate: 55.38 kg/hr
+Output flow rate: 10.48 kg/hr
+Yield: 18.9%
+Total input: 203.8 kg
+Total output: 41.0 kg
+Yield (accumulated): 20.1%
+Average interval for running the auger without smoke and issues: 10.5 minutes
+Standard deviation for running the auger without smoke and issues: 2.12 minutes
+Average interval for stopping the auger for 3 minutes: 3 minutes
+Standard deviation for stopping the auger for 3 minutes: 2.82 minutes
+Next Steps: 
+- Test the impact of hopper-poking on white smoke from the hopper
+- Observe the difference in hopper white smoke by stopping hopper-poking
+- Measure the statistics of auger on and auger off time intervals to assess the impact of hopper-poking</t>
+  </si>
+  <si>
+    <t>Example Hot Test:  + Hot Test # 101 (Ulkatcho demo day 1) – 09/28/22  
+Output flow rate: 10.48 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test #101 (Ulkatcho demo day 1) – 09/28/22
+Yield: 20.1% (by accumulation)
+The average interval for running the auger without getting smoke and issues is 10.5 minutes with a standard deviation of 2.12.
+The average interval for stopping the auger for an interval of 3 minutes with a standard deviation of 2.82.
+Please note that the provided information does not mention any specific data related to hopper white smoke.</t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference.</t>
+  </si>
+  <si>
+    <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed by measuring the statistics of auger on and auger off time intervals.</t>
+  </si>
+  <si>
+    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
+To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
+For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference. By comparing the intervals before and after stopping hopper-poking, you can determine if there is a significant change in the occurrence of white smoke.</t>
+  </si>
+  <si>
     <t>The hypothesis for the impact of hopper-poking on white smoke from the hopper is that the white smoke may be better attributed to the blockage of the flow path in the region below the chimney, rather than increasing voidage as the biomass bridges over the hopper. To test this hypothesis, the hopper-poking can be stopped and the difference in hopper white smoke can be observed. This can be measured by analyzing the statistics of the auger on and auger off time intervals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 102 (Alkali Lake) – 10/05/22 
+People: Camila, Austin and Kanages 
+Hypothesis: The test with chips from Williams Lake will run smoothly and the new chute for the char will work adequately. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:  	 
+In today’s hot test, we ran into a lot of inconveniences. The bolt mounting the motor bracket to the body came undone,12 V power supply dismantled, PLC was not reliably connected to the computer having hard time for it to stay connected. Other than that hot test was shut down due to reaction descending into hopper. Biochar collection system put in place by the chute worked smoothly. 
+Detailed Observations:  
+We took to long while lighting which made the fire descend and reaction go back to auger. 
+Picture demonstrates temperatures got hot enough yet no steady state temperature was achieved. 
+Biochar output was quite under char. A total of around 20,22 kg of output. 
+The chute did not light on fire, which proved the hypothesis of the new chute working adequately. 
+Chips used are quite dry, dusty and fluffy which burn faster and hotter 
+Suggestions: 
+Conditions and chips used today are different from those in Anahim Lake, which must be taken into consideration for the setup to obtain a steady state hot test. For next hot test we aim to be quicker when lighting the fire, as well as implementing interval system based on analysis previously done 
+ </t>
+  </si>
+  <si>
+    <t>Did the experiment have an output flow rate? If yes, please provide the value. If no or not enough information is available, answer 'N/A'.</t>
+  </si>
+  <si>
+    <t>Hot Test # 102 (Alkali Lake) – 10/05/22 
+Yield: 20.22 kg of biochar output.</t>
+  </si>
+  <si>
+    <t>Primary blower speed: S10 (farther from electric box), S5 (closest to electric box)
+Secondary blower speed: Idle initially (1300 rpm), then 3000 rpm (primary) and 4000 rpm (secondary)
+Feedstock: Douglas Fir wood chips from Williams Lake, Canada
+Summary:
+- The hot test encountered several inconveniences, including a loose bolt, dismantled power supply, and unreliable connection between the PLC and computer.
+- The reaction descended into the hopper, leading to the shutdown of the hot test.
+- The biochar collection system using the new chute worked smoothly.
+- The fire took too long to light, causing the reaction to go back to the auger.
+- Steady-state temperature was not achieved despite reaching high temperatures.
+- The biochar output was lower than expected, totaling around 20.22 kg.
+- The new chute did not catch fire, confirming its adequacy.
+- The chips used were dry, dusty, and fluffy, resulting in faster and hotter burning.
+Suggestions:
+- Consider the differences in conditions and chips used compared to the setup in Anahim Lake for obtaining a steady-state hot test.
+- Aim to be quicker when lighting the fire in the next hot test.
+- Implement an interval system based on previous analysis.</t>
   </si>
   <si>
     <t>In this hot test, the biomass feedstock used was Douglas Fir wood chips from Williams Lake, Canada. The experiment encountered several inconveniences, including the motor bracket bolt coming undone, the 12 V power supply being dismantled, and unreliable connection between the PLC and the computer. The hot test was shut down due to the reaction descending into the hopper. However, the biochar collection system put in place by the chute worked smoothly.
@@ -2479,7 +2510,110 @@
 Suggestions for future hot tests include considering the different conditions and chips used in Anahim Lake, aiming to be quicker when lighting the fire, and implementing an interval system based on previous analysis.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hot Test # 103– 10/6/22  
+People: Camila, Austin and Kanages 
+Hypothesis: By shortening the time between lighting and re starting the auger, we can prevent the flame front from descending to the bottom of the reactor. 
+Settings: Primary blower on the side farther from the electric box was at position S10 and the one closest to electric box was at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test provided better quality char, in terms of output. Outcome still looks not fully charred. The fire under the hopper did not seem to disappear, it did seem to improve with poking. 
+Detailed Observations: 
+It was a less windy day compared to previous hot test 
+We ran the primary's at idle for quite a while 
+When increased primary, turned smoke from the charring zone into flame. 
+We managed to get high temperatures, yet no steady state ‘plateau’. 
+An approximate result of 40 kilos of biochar. 
+Input and Output 
+Input of 112.8 kg 
+Input feed rate 
+Suggestions: 
+Air seal as much of the reactors we can to control smoldering where we don’t want it. 
+Possibilities for next hot test 
+Start the hot test with the denser chips from Anahim lake 
+Test out on a different angle  
+ </t>
+  </si>
+  <si>
+    <t>Hot Test #103 – 10/6/22
+Yield: 40 kg of biochar</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
     <t>Input Material: Douglas Fir wood chips from Williams Lake, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 104– 10/7/22  
+People: Camila and Austin 
+Hypothesis: By putting both primary blowers to S5 position and taping the airholes in the hopper, we can eliminate excessive flames front from descending to the bottom of the reactor. 
+Settings: Primary blowers at S5. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 3000 rpm and secondary at 4000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test provided information on the setup we want to use for the demo. After lighting, setting at 2200 rpm (primary) and 3000 rpm (secondary) was used and reactor seemed to operate smoothly with minor smokes. After running smoothly at 2200 for over an hour, we wanted to try a different blower setting to see if it would still run smoothly. When running at 1700 rpm (primary) and 3000 rpm (secondary) back flow seemed to happen and greater smoke came out of the hopper. Resulting biochar seemed char, yet could be bottom part flowing through the reactor did not get fully charred. 
+Detailed Observations:  
+Aluminum tape covering any possible airholes. 
+A piece of Aluminum tape in the inside of the hopper seemed to loosen up, and smoke rose. 
+After lighting and in running conditions seems to be operating smoothly. Temperature logging showing a steady state balance. 
+The peak of T5 was when running primary at 1700 rpm and we wanted to increase the temperature in order to char the chips. 
+Input 
+Input of 110.2 kg 
+Input feed rate 
+Output 
+At 2,200 primary/3,000 secondary, char was of reasonable consistency. At 1,700 primary/3,000 secondary, char was less consistent, comprising both black char as well as medium brownish/torefied char.  
+Suggestions: 
+For the demo day  on October 10-11, 2022 we suggest we run with these settings as it seems most appropriate for William's Lake chips to run smoothly through the reactor. The aim is to find the balance between a “nonsmokey” in hopper hot test and obtaining fully charred results. </t>
+  </si>
+  <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blowers at 2,200 rpm
+- Secondary blowers at 3,000 rpm
+- Aluminum tape covering any possible airholes
+- Input feed rate of 110.2 kg
+This setup seemed to operate smoothly with minor smoke and resulted in reasonably consistent char. However, when the primary blowers were reduced to 1,700 rpm, backflow occurred and the resulting char was less consistent.
+For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
+  </si>
+  <si>
+    <t>Hot Test #104 – 10/7/22
+Input flow rate: 110.2 kg/hour</t>
+  </si>
+  <si>
+    <t>Hot Test # 104– 10/7/22
+Output flow rate: N/A</t>
+  </si>
+  <si>
+    <t>Hot Test #104 – 10/7/22
+Yield: N/A
+The experiment did not report the yield of biochar produced.</t>
+  </si>
+  <si>
+    <t>Hot Test #104 - 10/7/22
+Output char quality: 0.7
+Explanation: The output char quality was reasonably consistent at 2,200 primary/3,000 secondary RPM, but less consistent at 1,700 primary/3,000 secondary RPM, comprising both black char and medium brownish/torefied char.</t>
+  </si>
+  <si>
+    <t>Based on the observations and results from the hot test, it is suggested to run the demo with the following settings: 
+- Primary blower speed: 2,200 rpm
+- Secondary blower speed: 3,000 rpm
+- Aluminum tape covering any possible airholes in the hopper
+These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this lower speed was less consistent, comprising both black char and medium brownish/torefied char.
+The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings mentioned above for the demo on October 10-11, 2022, as they seem most appropriate for the Douglas Fir wood chips from William's Lake to run smoothly through the reactor.</t>
+  </si>
+  <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blower speed: 2,200 rpm
+- Secondary blower speed: 3,000 rpm
+These settings seemed to provide a smooth operation with minor smoke. The resulting biochar at these settings was of reasonable consistency. However, when the primary blower speed was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar at this setting was less consistent, comprising both black char and medium brownish/torefied char.
+The aim for the demo is to find a balance between minimizing smoke in the hopper and obtaining fully charred results. Therefore, it is recommended to use the settings of 2,200 rpm for the primary blower and 3,000 rpm for the secondary blower for the demo on October 10-11, 2022.</t>
+  </si>
+  <si>
+    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
+- Primary blowers at 2,200 rpm
+- Secondary blowers at 3,000 rpm
+- Aluminum tape covering any possible airholes
+- Input feed rate of 110.2 kg
+These settings seemed to provide a smooth operation with minor smoke and resulted in reasonably consistent char. However, when the primary blower was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar was less consistent, comprising both black char and medium brownish/torefied char.
+For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
   </si>
   <si>
     <t>Based on the observations and results from the hot test, it is suggested to run the demo with the following settings for the biomass combustion experiment:
@@ -2488,6 +2622,36 @@
 - Use aluminum tape to cover any possible airholes
 - Use Douglas Fir wood chips from Williams Lake, Canada as the feedstock
 These settings have shown to provide a smooth operation with minor smoke and reasonable consistency of biochar. It is important to find a balance between minimizing smoke in the hopper and obtaining fully charred results. By following these settings, it is expected that the experiment will run smoothly and provide the desired outcomes during the demo on October 10-11, 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 105 – 10/10/22  
+People: Camila, Austin, Kanages, Kevin, and Marian 
+Hypothesis: Replication of hot test #104 for Esket demo day 1 
+Settings: Primary blowers at S5. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups. Today was extraordinarily windy, with gusts from the south.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary: Hot test was uneventful for the most part. Initially we thought hopper smoke, which emerged in the latter part of the test, could be resolved by vigorous poking at the hopper bed. However, we found strong correlation between wind gusts and hopper smoke, suggesting an air-curtaining effect. To resolve this, we need a cowling on top of the chimney. Fire/char undernearth hopper was not observed, until the very end when the hopper was running empty.  
+Detailed Observations:  
+Feedstock flowability: Unlike the Anahim Lake wood chips, the Alkali Lake wood chips seem to be less flowable, in the sense that there is more resistance to poking with a wooden stick. However, even without frequent vigorous poking, the bridges tend to gradually collapse as the auger moves forward. The question is whether this level of bridging is sufficiently severe to instigate backflow/hopper smoke.  
+Origination of flammable volatiles: Unlike the Anahim Lake tests where the flames seem to flow equally from below and above the chimney, suggesting an extended devolatilization zone, in this test, most of the flames, especially at the beginning, came primarily from below the chimney. However, we saw at and above chimney level, biochar still emitting white smoke, suggesting that devolatilization was not yet complete at this point.  
+Biochar level: As viewed from S1 on the right-hand side (north side away from the wind), biochar level right below the chimney on the right-hand side is as high and sometimes potentially even higher than the auger flights, which could have created the blockage leading to backflow. However, there was a consistent flow on the right side probably from the extra cross-sectional area of the rectangular profile. On the left-hand side, on the other hand, biochar level is consistently low, and the channel was never blocked, with always a flame visible.  
+Pressure level: For the most part, S1 sucks air in (negative pressure). However, there were occasions where the port spits out flames and embers, possibly due to air-curtaining effect of wind gusts.  
+Today, the hopper smoke was never really persistent. It comes and goes with wind and potentially blockage (which we cannot absolutely be certain about).  
+Input 
+Output: The char shown in the photo below starts at the second row from the front, right-hand side, proceed 
+Next Steps: We are somewhat skeptical about the efficacy of rigorous poking (which is a physically tiring activity) on reducing hopper smoke. Tomorrow we could try the same again but with slightly less rigorous poking. From our experience, in a bridged area, the bridge should collapse with mild poking. If poking requires significant force, then the area underneath is probably already mostly filled.  </t>
+  </si>
+  <si>
+    <t>The auger speed for the hot test #105 is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for the hot test #105 was set at S5, which corresponds to a speed of 5.</t>
+  </si>
+  <si>
+    <t>The secondary blower speed for the hot test #105 is not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, the example answer would be:
+The motor angle for the hot test was not mentioned in the experiment description. Therefore, the answer is N/A.</t>
   </si>
   <si>
     <t>The experiment conducted was a hot test in a small-sized reactor for biomass to biochar formation. The objective was to replicate a previous hot test and gain a better understanding of the combustion process and machine design. The experiment used Douglas Fir wood chips as the feedstock.
@@ -2500,279 +2664,35 @@
 Overall, the experiment provided insights into the combustion process and machine design, highlighting the importance of feedstock flowability, devolatilization, biochar level, and pressure effects.</t>
   </si>
   <si>
-    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The primary blowers were set at S5 on the right and S10 on the left, with a primary speed of 2200 rpm and a secondary speed of 3000 rpm. The experiment used a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
-During the test, the system performed well initially, but after about 1-2 hours, hopper smoke started to appear. The team attempted to mitigate the smoke by vigorously poking the hopper, idling the air or stopping the auger temporarily, but these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement.
-The char in the first drum appeared to be relatively well done. The photo provided shows the spread of the char on the ground, with the first drum starting from the bottom-right and proceeding to the top-left. The second drum was overlaid directly above the starting point of the first drum, creating one large pile.</t>
-  </si>
-  <si>
-    <t>The input material for this hot test was Douglas Fir wood chips from Williams Lake, Canada.
-Based on the observations, it seems that the high temperatures reached during the test may have resulted in over-charring of the biochar. However, upon inspection, it was found that the biochar was actually unevenly charred despite the high temperatures.
-To address this issue, it is suggested to be attentive throughout the entire process, especially during the hopper stage. Additionally, adjusting the blowers in response to the high temperatures may help. It is recommended to try reducing the primary blower speed to 2000 rpm and observe the effects on the combustion process and biochar formation.</t>
-  </si>
-  <si>
-    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The purpose of the test was to check the functionality of the newly installed power supply and to assess if any changes were required in the operation due to colder ambient temperatures. The test went smoothly, although it was stopped before reaching a steady state to conserve the wood chips.
-Observations:
-1. The reactor took slightly longer to light, but it did not significantly affect the lighting procedure. The procedure involved stopping the auger, lighting with charcoal lighter fluid, waiting for 2-3 minutes, running the auger for 1 minute, and then stopping it for another 5 minutes before starting at the operating speed of 6 rpm.
-2. Nine minutes after starting the auger at the operating speed, the primary blowers were lowered to 2200 rpm. This was the only change made compared to previous tests, where the primary blowers were lowered when the auger was started.
-Since the test was short, not many conclusions can be drawn from it.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the objective of the experiment was to compare the behavior of the newly designed reactor with the Indian MiniTorr v2, specifically in conveying coconut shells and rice husks at a 45-degree angle. The hypothesis was that the difference in the cross-sectional area of the reactor between the California and Indian reactors may have contributed to the difficulties observed in the Indian reactor.
-During the experiment, only rice husks were tested, and it was observed that they conveyed smoothly without getting stuck, even when the hopper was full. However, coconut shells did not convey well and it was suggested that the auger blades may have been deformed.
-The experiment also involved replicating the Indian reactor by adjusting the positions of the primary blowers. Smoke was observed escaping from the hopper and cracks throughout the system, likely due to the proximity of the combustion chamber to the hopper. Bridging occurred, indicated by excess white smoke and a change in color of the smoke.
-Observations from Gabriella indicated that the initial igniting process was challenging, but eventually successful. Smoke continued to escape through the hopper and cracks, and there was a need to continuously replenish rice hulls to ensure sufficient oxygen supply. Flames were observed coming from the cracks in the hopper, and attempts were made to decrease the temperature by adjusting the blowers. However, flames started coming out of the system cracks when the blowers were lowered, and the system shut down when a fire occurred in the wires of Blower D.
-The output rate was not measured during the hot test, but during post-test conveyance, the output rate at 6 RPM was approximately 2.2 kg/h, yielding 13%, and at 8 RPM, it was around 5.7 kg/h, yielding 34%.
-The next steps include replacing Blower D and continuing to run hot tests with the remaining three blowers in place.
-Based on the provided information, it is not clear what specific question or analysis you would like me to address. Please let me know if there is any specific aspect of the experiment or data that you would like me to focus on.</t>
-  </si>
-  <si>
-    <t>The motor angle for this hot test is not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t>The motor angle for Hot Test #64 is not mentioned in the provided information.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The experiment involves testing different hypotheses by varying the primary blower position and observing the resulting charring and reaction performance.
-In the specific hot test #66, the objective was to find a happy medium between the previous two tests by unlocking the stuck NPT ports at positions B7 and B9. The researchers wanted to observe the performance of the motor with the primary air at the newly unlocked position and evaluate the extent of charring at the end. They noted that in previous tests, very high or very low primary air positions resulted in uneven charring or jam-packed rice husks.
-The results of the test indicated that the reaction eventually died in both attempts. Initially, the reactor ran hot but smoke started emerging from cracks near the rectangular-circular transition. To avoid excessive smoke, the researchers increased the auger speed, which caused the reaction to taper off and eventually die. In the second attempt, the rectangular-circular transition became jam-packed.
-Based on the interpretation of the results, it was hypothesized that the reaction needs to be at an optimal position in the reactor. When the reaction is too high or too low, it leads to issues such as jam-packed rice husks or uneven charring. Insufficient reaction leads to the rice husks not being volumetrically reduced and becoming jam-packed, which further hampers the reaction.
-The next steps proposed by the researchers include repeating test #66 with the leaks plugged up to address the issue of smoke limiting the ability to increase the primary blower RPM. They also suggest repeating test #65 to further evaluate its long-term performance and determine if it would meet the same fate as test #64 or #66.
-In summary, the objective of the experiment is to optimize the combustion process and machine design for biomass to biochar formation. The researchers are testing different hypotheses by varying the primary blower position and observing the charring and reaction performance. The results indicate the need for finding an optimal position to avoid issues such as jam-packed rice husks and uneven charring.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the combustion experiments with rice straw biomass did not go as expected. The hay material used for the experiments did not flow well and tended to stick together, causing difficulties in moving it through the system. This resulted in the hay catching fire in the hopper, which was extinguished with water.
-To address the issue of poor flowability of the hay, some possible solutions were suggested. One option is to have teeth on the auger to grab the hay and improve its movement. However, this would require redesigning the system. Another suggestion is to investigate why the hay is sticking to itself and find ways to break this cohesion. If the sticking is due to static electricity, using a dryer sheet-like material could potentially reduce the cohesion. Alternatively, preheating the hay before introducing it into the system might help break up the sticking.
-To further improve the experiments, it is recommended to run the auger for a longer duration (30+ minutes) with wood chips to heat up the system before introducing the rice straw biomass. This would ensure that the system reaches a higher temperature and is better prepared for the combustion process.
-Overall, the observations and suggestions provided by Gabriella indicate the need for modifications in the experimental setup to address the flowability issues of the hay biomass and improve the sustainability of the combustion process.</t>
-  </si>
-  <si>
-    <t>Based on the provided experiment description, it seems that the combustion process did not go as expected. The experimenters encountered difficulties in lighting the wood chips, possibly due to wet weather or the presence of wet straw that may have clogged the air inlet ports. They had to increase the motor speed to try and overcome the potential clog.
-After adding a second bucket of wood chips and relighting, the combustion process improved, and a good flame was established at a continuous motor speed of 6 RPM. However, when they started adding straw to the auger, the hopper caught fire after 10 minutes. The experimenters attempted to control the fire by dousing it with water while continuing to rotate the auger at higher speeds and reducing the air supply. Despite their efforts, a significant amount of smoke continued to come out of the chimney and other cracks in the machine.
-It is worth noting that when a small ember was present, the entire system ignited, but when there was no ember, no ash was observed coming out of the chimney.
-Based on this information, it appears that the addition of straw to the combustion process caused unexpected and uncontrolled combustion. Further investigation is needed to understand the specific factors contributing to the hopper fire and the excessive smoke production.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment was conducted to test the hypothesis regarding the location of the primary air in the biomass combustion process. The previous tests with rice straws and circular cross-sections resulted in hopper fire when the primary air was at the bottommost location and biomass sticking when the primary air was at the topmost location. Therefore, the objective of this test was to determine the outcome when the primary air is at the middle location.
-The experiment used PG&amp;E wood chips as the biomass input and set the primary air at 1300. Increasing the primary air beyond 1300 resulted in more smoke from the hopper. The experiment did not experience any jamming and ran smoothly throughout. However, there was cyclic smoke emission from both the chimney and the hopper. The input feed rate was approximately 11 kg/h.
-The experiment did not achieve steady-state conditions, as the temperature went down on its own without changing the blower RPM. Gabriella's observation mentioned that mulched hay was successfully charred during the test, but the auger started to struggle as the test progressed. The smoke emitted from the chimney changed colors intermittently. The feeding of hay into the system required manual assistance and was done gradually to prevent jamming. The auger jamming was accompanied by an increase in smoke, mostly from the hopper.
-Overall, the experiment provided some insights into the combustion process and the behavior of the machine design. However, further investigation and replication of the test are needed to draw more conclusive results.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment involved testing a rectangular cross-section reactor design with relaxed auger-inner wall constrictions. The objective was to observe any differences in biomass conveyance compared to the previous circular cross-section design. The primary blowers were set at 1500 and the secondary blowers at 2500. 
-The outcome of the experiment indicated that there were no significant conveyance issues, but there were shudders and signs of friction. Smoke was observed coming out of cracks and intermittently from the hopper. Flames were also observed coming out of cracks below and above the chimney connector piece. The damper was removed, but it still acted as if it was present. 
-Upon inspection, it was found that the chimney mesh had rice straw char lodged between the wires, but they fell out easily and there were not many clogged mesh wires. However, there was an accumulation of fine char dust in the chimney elbow at the secondary blower outlets. The secondary blowers were clogged by uncharred and charred straws, which may have affected their P-Q profile. The primary blowers were also clogged, but to a lesser extent. The side NPT ports were filled with char dust, more so on the IFM side.
-The next step in the experiment is to remove the chimney mesh and conduct the same hot test to investigate if it was causing the smoke from the hopper. 
-Unfortunately, the provided information does not include any details about the thermocouple history.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, primary blowers for oxygen supply, secondary blowers for volatile removal, and thermocouples for temperature measurement.
-In the example hot test, the hypothesis was that a larger chimney would reduce ash and ember flow with woodchips, similar to what was observed with rice hulls. The settings for this test included specific values for primary blowers, secondary blowers, auger speed, and motor angle. The outcome of the test confirmed the hypothesis, as no large particulates were observed coming from the chimney during various stages of operation.
-However, the hot test did not run smoothly due to windy conditions and difficulties in controlling smoke. The blowers' position and the reaction temperature were challenging to optimize, resulting in smoke pouring out of the hopper and a neighbor complaint. The wood chips used required constant agitation to maintain flow through the hopper. The next steps suggested investing time in getting the ProFire working again to prevent future complaints.
-Unfortunately, the provided information does not include any specific data or values from the thermocouples.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and primary and secondary blowers for air supply and volatile removal, respectively. Thermocouples are used to measure temperature at different locations.
-In the example hot test, the hypothesis was to sustain the primary blower speeds at 2000 rpm and the secondary blower speeds at 3500 rpm to achieve optimal amounts of char. However, the outcome of the test indicated that a steady state could not be achieved. The reactor became full, reducing air flow and cooling down. Rice hulls got stuck in the reactor body, causing the flame to be higher up and emitting smoke from various locations. The auger had to be reversed to unjam the reactor. Only about 50% of the rice hulls were charred, indicating that the hypothesis was not confirmed.
-Notable observations included the emission of light gray smoke from the hopper, reactor body, and bottom of the chimney, as well as occasional large clouds of white smoke from the chimney. The flames were higher up in the reactor body than usual, possibly due to the amount of biomass added. The reactor body and thermocouple 4 gradually cooled down over time, resulting in less optimal char production.
-The suggested next steps include conducting tests with variable blower speeds (increasing primaries) to assess the possibility of operating even when the reactor body is full, or performing the reaction at a lower angle.
-Unfortunately, no information is provided regarding the thermocouple history.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the thermocouple history is missing or not provided. The thermocouples are mentioned as measuring the temperature at different places, but there is no data or observations mentioned regarding the temperature measurements from the thermocouples.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment involved conducting a hot test using rice straw as the biomass in a 30° configuration. However, the test encountered several issues and did not reach a steady state. The notable observations include yellowish smoke coming out of the chimney and cracks of the reactor, visible ash particles from the chimney, auger jamming and flipping the breaker switch, and a hopper fire. To mitigate the smoke issue, a propane blower was used to burn through the side port. 
-The next step suggested is to conduct the next test using wood chips instead of straw, as the straw may burn too quickly and not sustain the required heat. 
-Unfortunately, the provided information does not include any specific data or measurements from the thermocouples.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment involved testing the combustion of biomass (specifically rice straw) in a newly designed small-sized reactor. The objective was to understand the combustion process and machine design by testing different hypotheses.
-During the hot test, the reactor was set at a 30° configuration, and woodchips were used to ignite the biomass. The primary blower provided air (oxygen) to the reactor zone, while the secondary blower removed volatiles through the chimney. The auger rotated at 10 rpm to carry the biomass into the reactor.
-The outcome of the test was the production of approximately 0.9 kg of char, with most of it coming from the woodchips. However, steady state was not achieved, and there were issues with hopper fires. It was observed that the rice straw was not packed tightly enough or fast enough, leading to oxygen flowing into the hopper and igniting the flame. Minimal ash and smoke were observed coming from the chimney.
-In the second attempt, the biomass was not being fed quickly enough, and there were again issues with hopper fires. The reactor maintained a temperature of around 240°F but the test could not be sustained.
-The next steps mentioned in the report include continuously packing the rice straw to prevent oxygen from entering and causing hopper fires.
-Unfortunately, no specific information about the thermocouple history was provided in the given text.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment conducted was aimed at testing the hypothesis of using mulched rice straw to prevent auger jamming and hopper fires. The settings for the experiment were as follows: Primary blower at 3000, Secondary blower at 2000, and Auger rotating at 10 rpm. The reactor temperature was set at 30°C, and a large chimney was used for the removal of volatiles.
-The outcome of the experiment indicated that aggressively feeding the mulched straw into the hopper and packing it caused the auger to jam on multiple occasions, even with the use of mulched straw. This led to the need to run the auger in reverse to unjam it. Additionally, hopper fires occurred, possibly due to the intermittent stopping of the auger. The reactor body also produced knocking and screeching noises. The constant tripping of the auger breaker prompted an investigation into electrical issues.
-Notable observations from the experiment include the auger jamming and stopping three times, the hopper catching on fire, knocking and screeching noises from the reactor body, and the inability to reach a steady state. An investigation into the electrical issue was also mentioned.
-The suggested next steps include replacing the breaker to ensure it is not the cause of the problem, trying to feed the mulch at a faster rate, and disassembling the machine to investigate any potential mechanical issues.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment was conducted to compare the performance of rice hulls against rice straw in terms of reducing auger jams. However, the experiment encountered some issues and observations. 
-Firstly, there were knocking and screeching noises coming from the reactor body, which could indicate some mechanical problems or issues with the design. 
-Secondly, the temperature inside the reactor gradually decreased over time, likely due to the buildup of rice hull char. This suggests that the combustion process was not efficient enough to maintain high temperatures. 
-Additionally, there were occasional instances where the auger stopped turning and needed to be restarted, indicating potential issues with the auger mechanism. 
-To address these problems, the next steps include replacing the breaker to ensure it is not causing jamming issues and potentially running the blowers at faster rates to maintain higher temperatures. 
-Unfortunately, no specific information is provided about the thermocouple history, so it is not possible to provide an example answer for that.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment with rice hulls in the small-sized reactor was not successful. There was a significant buildup of rice hulls in the reactor, resulting in smoke and potential jamming. The motor continued to spin even when the auger was stopped for a few seconds. Some ash was observed coming out of the chimney, and smoke was also observed coming out of cracks. The mixed char produced in the experiment had a weight of around 16 kg in the first barrel and 12 kg in the second barrel.
-To address these issues and improve the experiment, the following next steps are suggested:
-1. Use fewer woodchips at a time or consider pushing woodchips through the combustion chamber instead of directly through the reactor. This may help prevent jamming during the feeding of rice hulls.
-2. Investigate the possible causes of jamming while rice hulls are being fed into the reactor. This could involve examining the design and operation of the auger system.
-3. Analyze the composition and properties of the produced biochar to understand its quality and potential applications.
-4. Consider modifying the reactor design to minimize the buildup of biomass and improve the overall combustion process.
-5. Conduct further experiments with different biomass feedstocks to evaluate their behavior and performance in the reactor.
-6. Monitor and analyze the temperature profiles at different locations in the reactor using the thermocouples to gain a better understanding of the combustion process.
-7. Investigate the source of smoke coming out of cracks and take measures to prevent it, such as sealing any potential leakage points.
-By implementing these next steps, it is expected that the combustion process and machine design can be better understood, leading to improvements in the reactor's performance and biochar production.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the objective of the experiment is to understand the combustion process and machine design for biomass to biochar formation in a small-sized reactor. The experiment involves inputting biomass into the reactor using a hopper and an auger that rotates at a certain speed. The volatiles are removed through a chimney, and the output biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different places.
-In the specific example hot test described, the hypothesis was to test the performance of a new auger. However, the test was not successful due to the buildup of rice hulls in the reactor, which caused white and yellow smoke to escape through cracks in the reactor hull. The observations noted that the new auger moved faster than previous augers, potentially contributing to the buildup of rice hulls. The next steps suggested include finding a way to block off the chimney to prevent buildup, switching the augers, and lining the reactor to reduce smoke emission.
-To gain a complete understanding of the combustion process and machine design, further experiments can be conducted by testing different hypotheses. These experiments can involve varying parameters such as the speed of the auger, the biomass input rate, the reactor temperature, and the airflow rates. By systematically analyzing the data collected from these experiments, it will be possible to identify the optimal conditions for biomass to biochar conversion and improve the design of the reactor to minimize issues such as buildup and smoke emission.</t>
-  </si>
-  <si>
-    <t>The experiment conducted was aimed at testing a new auger design with wood chips in order to reduce jamming in the reactor. The settings for the experiment included primary blower at 2000, secondary blower at 3000, auger speed at 6, reactor temperature at 30º, and a large chimney for volatile removal. The feedstock used was a pile of leafy, fibrous eucalyptus wood chips, which were manually fed into the reactor by Gabriella and Eymon.
-The outcome of the experiment was not successful as there were not enough wood chips to match the amount of air being pushed into the machine. The high temperatures resulted in an extremely hot fire but did not burn up much material. It was observed that thermocouples 5 and 6 were switched and this needs to be corrected when analyzing the data. Additionally, there was a lack of wood chip flow, possibly due to bridging in the auger and friction between the reactor walls and auger parts. Although the new auger design reduced jamming, the friction issue persisted.
-The next steps suggested include finding ways to increase the flowability of wood chips to provide more fuel for the amount of air being pushed into the machine. Possible solutions could involve increasing the auger speed or using smaller/less fibrous wood chips. It is also important to investigate if the new auger design is affecting the airflow from the hopper to the combustion zone, as the fire descended to the hopper during the experiment. Kevin recommended conducting the experiment with the same person (e.g., Austin) feeding the biomass to determine if human factors play a role. If Austin is unavailable, the experiment can be conducted with the same people (Gabriella/Eymon) but with an increased auger speed for wood chips.</t>
-  </si>
-  <si>
-    <t>Based on the information provided, it seems that the main issue in this hot test was the jamming of the auger. The auger flights, particularly on the left side, were packed tightly, leading to frequent jams and the need to remove biomass and run the auger backwards to clear the jam. Additionally, the auger itself was significantly warped, with a noticeable gap between the new auger and the welded piece on the top auger.
-The yellow smoke emitting from the cracks in the reactor suggests incomplete combustion, which could be due to the difficulty in maintaining a consistent reactor fire during certain portions of the hot test. This could be related to the jamming issue and the inability to feed biomass effectively into the reactor.
-Furthermore, the lack of biochar collected at the end of the hot test and the presence of ash instead indicate that the combustion process was not efficient in converting the biomass into biochar.
-Based on these observations, the next steps would involve addressing the issues with the auger. Fixing the gap between the auger flights is crucial to ensure smooth operation and prevent jamming. Additionally, investigating the cause of the auger warping and finding ways to mitigate it would be important to maintain the performance of the auger over time.
-It is also suggested to test a different biomass to evaluate the impact of the auger gap on the combustion process. This would provide insights into the suitability of the current design for different feedstocks.
-Overall, the objective of gaining a complete understanding of the combustion process and machine design would require further experimentation and modifications to address the issues observed in this hot test.</t>
-  </si>
-  <si>
-    <t>The experiment conducted in Hot Test #87 aimed to investigate the possibility of preventing consistent jamming in the reactor by using woodchips. However, the outcome was not successful as the auger jammed multiple times even before it was lit. Additionally, there was a significant amount of smoke coming from the reactor body, although the char was well charred.
-Notable observations from the experiment include the repeated jamming of the auger, noises coming from the reactor when the motor was reversed to stop the jamming, and the woodchips pulling up like rice hulls, resulting in smoke from the chimney.
-Based on these observations, the next steps suggested are to explore the use of smaller woodchips to potentially prevent jamming, consider using different biomasses and restocks to avoid large woodchips, and lower the reactor angle to prevent the piling up of woodchips and rice hulls.
-It is important to note that this example answer is based solely on the provided information and does not take into account any additional knowledge or context.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment conducted in the newly designed small-sized reactor aimed to investigate the combustion process and machine design for biomass to biochar formation. The experiment involved inputting biomass into the reactor using a hopper and an auger, which carried the biomass into the reactor for combustion in the presence of oxygen. The volatiles were removed through a chimney, while the output biochar was collected at the other end of the auger. Thermocouples were used to measure temperature at different locations.
-In the specific hot test described, the hypothesis was that moving the primary blower position down two notches would resolve wood chip jamming. The primary blower position was changed from B10/B12 to B4/B6. Wood chips collected from the City of Berkeley were used as the feedstock.
-The results of the hot test indicated that the conveyance of wood chips was initially slow, and the auger had to be stopped a few times for the reaction to catch up. White smoke started emerging from the chimney, and a visible flame was lost, replaced by smoke and later by higher biomass/char. Charred wood chips started piling up below the chimney section, leading to motor tripping and eventually causing a hopper fire. The white smoke was believed to be caused by blocked air flow channels due to the piling wood chips. The thermocouple readouts were described as anemic. The input flow rate of wood chips was approximately 50 kg/h, which slowed over time, while the output flow rate of biochar was approximately 7.5 kg/h, resulting in an average yield of 15%.
-Other observations included no hot embers sliding down to the hopper region during the hopper fire and very few ashes emitted from the chimney. The reaction zone initially aimed to be halfway through S4 but advanced closer to the base of the chimney. Hot gases were observed flowing in two directions through the S6 port at the chimney, indicating that the reaction persisted beyond the chimney region. Initially, only one secondary blower was used due to command issues with the other blower, but it was later replaced and put back into service.
-The next steps proposed in the experiment included testing a more flowable material with increased hydrostatic head to address the accumulation problem below the chimney. Additionally, lowering the reactor angle to 15 degrees was suggested to investigate the effect on char falling backwards near the outlet. The possibility of compression effects from the new auger design was also mentioned, and it was suggested to run the reaction at high temperatures to exceed any compression effects. Finally, repositioning the primary blowers to a higher circumferential position, such as S8, S9, or S10, was proposed to test the potential impact of the primary blower position on flow constrictions.
-In summary, the experiment aimed to understand the combustion process and machine design for biomass to biochar formation. The hot test described the results and observations, and proposed next steps to address the wood chip jamming issue and further investigate the machine design.</t>
-  </si>
-  <si>
-    <t>Based on the detailed observations and analysis provided, it appears that the hypothesis that moving the primary blower circumferentially up would resolve the wood chip jamming issue was supported by the experiment. By moving the primary blower position from B4/B6 to S4, the accumulation problem below the chimney was controlled and the reaction became more stable.
-The experiment initially faced challenges with a reaction that ran too cold and produced excessive smoke. However, by reducing the auger speed to 50% duty cycle at 6 RPM, the reaction conditions improved. The smoke in the chimney cleared off, indicating a hotter secondary reaction zone below the chimney where the feedstock was well-charred. The hopper smoke also improved by ensuring that all voids were filled with biomass.
-The experiment yielded different results in terms of char output and biomass feed rates in the faster and slower sections. The char yield was 29.8% in the faster section and 41% in the slower section. The quality of the char showed slight inhomogeneity, possibly due to the positioning of the primary blower being too high circumferentially.
-To definitively validate the hypothesis, it is suggested to repeat a previous hot test that resulted in the accumulation problem and observe the slanted pipe leading from the primary blower to the reactor input. This will help visualize how ash and small particles accumulate over time. Additionally, testing with rice husks and exploring the effect of different primary blower positions can provide further insights into resolving the accumulation issue.
-Another potential experiment could involve testing the minimum flow rate at which the primary blowers can stably maintain the reaction despite the growing blockage of the NPT tube leading into the reactor chamber. However, this experiment carries a risk of exacerbated hopper smoke and fire.
-Overall, the experiment provides valuable insights into the combustion process and machine design, highlighting the importance of optimizing the primary blower position and auger speed to achieve a stable and efficient biomass to biochar conversion process.</t>
-  </si>
-  <si>
-    <t>Based on the information provided, the experiment conducted with rice husk biomass in the small-sized reactor resulted in several observations and issues. The main objective of the experiment was to test the hypothesis that raising the position of the primary air blower circumferentially would prevent biomass from falling into the air ducting elbow, reduce pressure loss of air entering the reactor, improve air mixing within the biomass bed, increase devolatilization, and reduce the height of biomass/char accumulating in the chimney.
-However, the experiment showed that char was still accumulating in the chimney, causing the auger to jam. Increasing the secondary air flow rate helped to alleviate the jamming issue, but char was still falling back near the hopper, indicating that the rate of fall back did not compensate for the rate of accumulation in the chimney. The output was also found to be highly undercharred, suggesting that the residence time in the hot zone was too short.
-The experiment also observed consistent smoke from the hopper, which was attributed to the char falling back. However, chimney emissions were clean, indicating that the combustion process was efficient. The experiment concluded that the accumulation in the chimney was due to gravity and the smaller pitch of the variable pitch auger, rather than char accumulating in the air ducting.
-To further investigate the issues, the experiment proposed reducing the angle of inclination to 15 degrees to address the chimney build-up, auger jamming, and hopper smoke. Increasing the primary air flow rate from 3000 to a higher value was also suggested to achieve more severe and even charring. Additionally, bringing the primary air back towards the hopper at the same circumferential height was proposed to increase the hot region residence time and enhance devolatilization before reaching the chimney.
-Other observations included the complete filling of char up to the chute height and the need to note the weight of the scale value for rice husks at which the drum becomes full for future reference. Some NPT couplings were also opened, except for one.
-In summary, the experiment with rice husk biomass in the small-sized reactor highlighted the challenges of char accumulation in the chimney, auger jamming, undercharred output, and hopper smoke. Further investigations and modifications to the experimental parameters were proposed to address these issues and improve the combustion process and machine design.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment conducted on 07/20/22 aimed to achieve uniform charring and prevent auger tripping during biomass combustion. The hypothesis tested was that a lower rpm (duty cycle) of the auger would increase residence times and result in more even charring. The experiment used rice husk as the biomass and maintained a 50% duty cycle of the auger at 6 rpm, despite smoke coming out of the hopper.
-The high-level summary of the experiment indicates that the char did not accumulate in the chimney as much as in previous tests, preventing the auger from tripping. The output achieved even charring, but there was consistent smoke from the hopper due to the char falling back because of the reactor's angle of inclination. The chimney emissions were mostly clean, but there was consistent ember emission, possibly due to a higher pile of char under the chimney.
-The takeaway from the experiment is that a lower duty cycle of the auger solves the issues of uneven charring and char accumulation in the chimney, as it reduces the rate at which biomass is drawn into the system.
-The suggested pathways of investigation for further experiments include reducing the angle of inclination to 15 degrees to address chimney build-up, auger jamming, and hopper smoke. Additionally, increasing the primary air from 3000 rpm to a higher value for a duty cycle greater than 50% could be explored to determine if it leads to more severe and even charring. Another potential investigation is bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and devolatilize the biomass more before it reaches the chimney.
-Lastly, it is mentioned that the NPT couplings (S9 and S8) were stuck and could not be opened, even with longer wrenches. This issue may need to be addressed before further experiments can be conducted.</t>
-  </si>
-  <si>
-    <t>The experiment conducted on July 21, 2022, aimed to achieve uniform charring and prevent auger tripping during the biomass to biochar combustion process. The hypothesis tested was that increasing the primary blower rpm from 3000 to 6000 while keeping the auger at 100% duty cycle at 6 rpm would lead to even charring.
-The initial parameters selected for the experiment were as follows: Auger speed - 6 rpm (100% duty cycle with a 12-inch pitch auger), primary air blower rpm - 6000, secondary air blower rpm - 4000, and angle of inclination - 30 degrees. The primary air blower was positioned at S10, and the secondary air blowers were positioned at T3 and T5.
-The high-level summary of the experiment's results is as follows:
-1. Char did not accumulate in the chimney to the same extent as in previous tests, and the auger did not trip at all. A strong flame was observed within the chimney throughout the test.
-2. The output achieved even charring, which appeared to be more homogeneous compared to a previous test conducted on July 20, 2022, where the auger speed was reduced to 50% duty cycle.
-3. Smoke from the hopper was reduced by piling the biomass higher.
-4. Chimney emissions were mostly clean, but there was consistent ember emission, possibly due to the higher pile of char under the chimney, which was blown off directly by the secondary air blowers. This emission did not significantly decrease even after reducing the secondary air blower rpm to 4000.
-5. Negative pressure was observed in the chimney as desired.
-The main takeaway from the experiment is that a higher primary air value solves the issues of uneven charring, char accumulation in the chimney, and auger motor tripping.
-The suggested pathways of investigation for further experiments are:
-1. Reducing the angle of inclination to 15 degrees to address the issues of chimney build-up, auger jamming, and hopper smoke.
-2. Bringing the primary air back towards the hopper (at the same circumferential height) to increase the hot region residence time and enhance devolatilization of the biomass before it reaches the chimney. This may help in volumetric reduction of the biomass prior to reaching the chimney. This investigation should be done once the stuck NPT couplings (S9 and S8) are detached.
-It is also mentioned that the stuck NPT couplings could not be opened even with longer wrenches, and the rice husks have been completely utilized in the experiment.</t>
-  </si>
-  <si>
-    <t>The experiment conducted on hot test #93 encountered several issues. The main objective was to test the hypothesis that a hopper with a larger lower opening would eliminate bridging. However, the experiment faced a major setback as the reactor jammed during the lighting phase and could not be unjammed. 
-Additionally, there was an unusual occurrence where the breaker would trip and stop the motor, but without flipping to the 'off' position. Restarting the motor by switching the breaker off and back on only resulted in the motor running for a brief moment before jamming again. A high pitched whine was observed before the motor stopped, indicating a possible overload, although the exact cause of the overload is unclear.
-On a positive note, the new hopper design successfully prevented bridging, although it was not filled to its full capacity due to the jamming issue.
-The next steps should focus on investigating why the breaker is not tripping fully and finding a solution to fix the interference between the auger and the reactor body. These issues need to be resolved to ensure the smooth operation of the combustion process and the functionality of the machine design.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, here is an example answer:
-The experiment conducted on 09/01/22 aimed to test two hypotheses related to the combustion process and machine design. The first hypothesis was that enlarging the hopper would address the issue of bridging. The second hypothesis was that moving the primary air blowers from S10 to S4 position would reduce the jamming issue.
-During the experiment, it was observed that bridging still persisted despite the enlargement of the hopper. The next step suggested was to lower the hopper angle to 15 degrees and observe if bridging improves.
-Regarding the jamming issue, it was initially observed when feeding chunky wood chips into the reactor. Severe jamming occurred after the reactor was lit for a while, possibly at the transition above the chimney where the reactor cross-section changed from rectangular to circular. Topping the hopper with more wood chips did not help, but waiting for some time resolved the jamming issue. The jamming was often accompanied by a grinding sound or sporadic jumps in the motion of the auger.
-Another observation was the occurrence of smoke/fire in the hopper region. It was suspected that the fire from the S4-S10 region propagated downwards towards the hopper, causing the biomass at the base to ignite or smoke. Attempts were made to mitigate the smoke by idling or lowering the primary/secondary air, but the issue returned when the blower RPM was increased. Fire and char were also observed being conveyed through the crack at the base of the chimney, indicating a high solid level that could have blocked the passage of primary air towards the chimney.
-The hot test was shut down prematurely due to low wood chip supply, and the output rate of biochar was not accurately determined. The input feed rate was approximately 41 kg/h, but the output rate needs to be double-checked. Additionally, the scale logging showed a wavy feature, suggesting a potential issue with its functionality.
-The obtained biochar during the experiment was partially undercharred, with some parts appearing brownish and around 60-80% charred.
-Further investigation and adjustments are required to address the issues of bridging, jamming, and hopper smoke/fire, as well as to accurately measure the output rate and ensure the proper functioning of the scale logging system.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the experiment was conducted to test the hypothesis that lowering the motor angle from 30 degrees to 15 degrees can stop the hopper smoke/fire during biomass combustion for biochar formation. The experiment involved using a newly designed small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples for temperature measurement.
-The experiment was conducted on 09/02/22 with participants Camila, Troy, Kevin, and Austin. The primary blower position was set at S10, with a primary air setpoint of 3000 initially and secondary air at 4000. The feedstock used was rice hulls.
-However, the experiment did not achieve the desired outcome as the hopper fire/smoke persisted. It was observed that the char level below the chimney remained high throughout the experiment. Attempts were made to address this issue by pausing the auger or inserting a rod into the reaction zone, but these measures did not improve the situation. Increasing the primary air only worsened the smoke from the hopper or cracks below the hopper. It was also noted that the reactor ran for approximately 20-30 minutes with the oil drum full, which was not initially realized.
-The input feed rate was around 33 kg/h, and the superficial appearance of the char indicated incomplete charring. However, upon digging deeper, it was observed that the char had a well-charred consistency of around 90-100%.
-Based on these observations, it was concluded that the variable pitch of the auger may need to be eliminated when using rice hulls as they are not very compressible and do not reduce in volume when charred. Further experimentation and modifications to the machine design may be required to address the persistent hopper fire/smoke issue.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, here is an example answer:
-For the next experiment, it is suggested to start moving the auger more quickly after lighting the fire. This can help ensure a smoother combustion process. Additionally, since the biomass used is very dry, it may be possible to reduce the primary air setpoint as the dry biomass may require less oxygen for combustion.
-To avoid chips being low and potential air holes causing the reaction to move back, it is important to fill the hopper completely. This will help maintain a steady flow of biomass into the reactor.
-Lowering the angle of the prototype setup may also be worth considering. This can potentially help the reaction move forward more efficiently.
-Furthermore, it would be beneficial to observe the impact of lowering the speed of the blower on the final result of biochar. This can provide insights into the influence of air flow rate on the combustion process and biochar formation.
-Overall, these suggestions aim to optimize the combustion process and machine design, and further experiments can help gain a better understanding of the underlying combustion process and improve the efficiency of biochar production.</t>
-  </si>
-  <si>
-    <t>Based on the observations and suggestions provided, here are some possible explanations and recommendations:
-Observations:
-1. Black smoke in the chimney and periodic appearance of smoke in the hopper.
-2. Flow of chips that end up not being charred (mixing problem).
-3. Incomplete char formation and no steady state achieved.
-4. Biochar recorded was partially charred/under charred.
-Possible Explanations:
-1. The reduced lighting time and primary blower speed may have caused incomplete combustion, leading to the formation of black smoke.
-2. The mixing problem could be due to inadequate mixing of the biomass in the reactor, resulting in some chips not being fully charred.
-3. The changes in settings may have disrupted the combustion process, preventing the attainment of steady state conditions.
-4. The partial char formation could be a result of incomplete combustion due to the changes in settings.
-Recommendations:
-1. Find a balance between temperature and air supply to avoid black smoke from the chimney and white smoke from the hopper. This can be achieved by adjusting the primary blower speed and lighting time.
-2. Analyze possible scenarios and work as a team to identify the root causes of the smoke issues and develop strategies to address them.
-3. Consider moving the blowers up to improve the distribution of air and volatiles within the reactor.
-4. Decrease the angle of the prototype to enhance the mixing of biomass and improve char formation.
-5. Increase the speed of the secondary blowers to promote secondary combustion and improve overall combustion efficiency.
-These recommendations aim to optimize the combustion process, improve mixing, and achieve complete char formation. It is important to carefully analyze the data from each experiment and make incremental adjustments to the experimental setup to gain a better understanding of the underlying combustion process and machine design.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, it seems that the experiment was conducted to address issues related to black smoke and white smoke during the biomass combustion process. The experiment involved adjusting the position of the secondary air blowers and the primary blower, as well as using a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
-The reactor ran very hot throughout the experiment, and white ash was observed, although it was not easily visible against a white wall. However, it was qualitatively worse than the previous test. Puffs of black smoke were occasionally seen from the chimney, particularly on the right side, leading to a gradual reduction in primary air. It was noted that the primary and secondary air blowers were switched on the right-hand side, which resulted in an inconclusive outcome. White smoke was still observed from cracks near the hopper and through the hopper. Frequent poking into the hopper was suspected to have helped with the smoke issue.
-Detailed observations indicated that some parts of the wood chip pile were more wet, especially inside.
-Flow rates were measured based on cumulative output and input mass, indicating a mass yield of about 28%. However, when considering the output mass flow rate and input mass rate, the mass yield was estimated to be about 12%. The output mass scale exhibited strange undulating behavior, raising concerns about the reliability of the readout for the output mass flow.
-Unfortunately, the provided information does not include an example answer. If you have any specific questions or require further analysis of the data, please let me know.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, here is an example answer:
-The motor angle for the hot test conducted on 09/27/22 was not mentioned in the experiment description. Therefore, the answer for the motor angle in this case would be N/A (not applicable).
-It is important to note that the motor angle may have an impact on the combustion process and machine design. Further experiments with different motor angles can be conducted to investigate their effects on the combustion efficiency, temperature distribution, and biochar formation.
-Additionally, the experimenters identified several issues during the hot test, including slow lighting, black smoke from the chimney, and white smoke from the hopper. They hypothesized that correcting the wiring for the blowers and agitating the hopper would help run the test smoothly without any smoke.
-To address the issues, the experimenters adjusted the positions and speeds of the primary blowers, implemented an interval system for running the auger and blowers, and poked the hopper to avoid bridging. These measures helped to minimize smoke generation and cool down the process.
-For tomorrow's demo, the experimenters plan to work as a team with specific roles, continue using the interval system, and aim for a steady-state temperature to achieve fully charred biochar. They aim to minimize both black and white smoke throughout the test.
-Overall, the experimenters are taking a systematic approach to understand the combustion process and machine design by testing different hypotheses and making adjustments based on their observations.</t>
-  </si>
-  <si>
-    <t>The average interval for running the auger without getting smoke and issues is 10.5 minutes, with a standard deviation of 2.12 minutes. The average interval for stopping the auger for an interval of 3 minutes is 2.82 minutes.
-To plot these intervals, you can create a bar chart or a histogram. The x-axis can represent the intervals, and the y-axis can represent the frequency or count of each interval. This will give you a visual representation of the distribution of start/stop intervals.
-For the next steps, the hypothesis could be tested by stopping hopper-poking and observing the difference in hopper white smoke. The statistics of auger on and auger off time intervals can be used to measure the difference. By comparing the intervals before and after stopping hopper-poking, you can determine if there is a significant change in the occurrence of white smoke.</t>
-  </si>
-  <si>
-    <t>Based on the observations and data from the hot test, it is suggested to run the demo with the following settings:
-- Primary blowers at 2,200 rpm
-- Secondary blowers at 3,000 rpm
-- Aluminum tape covering any possible airholes
-- Input feed rate of 110.2 kg
-These settings seemed to provide a smooth operation with minor smoke and resulted in reasonably consistent char. However, when the primary blower was reduced to 1,700 rpm, backflow occurred and greater smoke came out of the hopper. The resulting biochar was less consistent, comprising both black char and medium brownish/torefied char.
-For the demo day on October 10-11, 2022, it is recommended to use the suggested settings as they appear to be most appropriate for the Douglas Fir wood chips from William's Lake. The aim is to find a balance between minimizing smoke in the hopper and obtaining fully charred results.</t>
-  </si>
-  <si>
-    <t>Based on the provided information, the example answer would be:
-The motor angle for the hot test was not mentioned in the experiment description. Therefore, the answer is N/A.</t>
+    <t xml:space="preserve">Hot Test # 106 – 10/11/22  
+People: Camila, Austin, Kanages, Kevin, and Marian 
+Hypothesis: Replication of hot test #104 for Esket demo day 2 
+Settings: Primary blower at S5 on the right and S10 on the left. We moved the left side primary from S5 to S10 to see if we could undo some of the left-hand side hopper smoke we observed yesterday. Primary 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six-inch pitch auger. Prototype at 35 angle setups.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary: Performed well most of the time. About 1-2 hours into the test, we started seeing hopper smoke which we tried to mitigate with vigorous poking, or with idling the air/stopping the auger temporarily, or both. Neither seemed to have significant effect. Moving the left-shde primary from S5 to S10 didn’t seem to help a whole lot.  
+The char in the first drum looks relatively well done.  
+The photo below illustrates the char when spread on the ground. The first drum started from the bottom-right and proceeded to the top-left. Then we overlaid the second drum directly above the starting point of the first drum in one large pile.  
+</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22. The participants involved in the experiment are Camila, Austin, Kanages, Kevin, and Marian.
+The specific hypothesis for Hot Test #106 is the replication of Hot Test #104 for Esket demo day 2. The experimental settings include primary blowers at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could mitigate the observed hopper smoke. The primary blower operates at 2200 rpm, while the secondary blower operates at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The feedstock used in this experiment is Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Various attempts were made to mitigate the smoke, including vigorous poking, idling the air/stopping the auger temporarily, and moving the left-side primary blower from S5 to S10. However, these measures did not have a significant effect. The char in the first drum appeared relatively well done.
+The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
+The objective of the experiment is to gain a comprehensive understanding of the combustion process and machine design by testing various hypotheses. The example hot test mentioned is Hot Test #106, conducted on 10/11/22, with participants named Camila, Austin, Kanages, Kevin, and Marian.
+The hypothesis for this hot test is to replicate Hot Test #104 for Esket demo day 2. The settings for this test include the primary blower at S5 on the right and S10 on the left. The left-side primary blower was moved from S5 to S10 to investigate if it could reduce the observed hopper smoke. The primary blower operates at 2200 rpm, and the secondary blower at 3000 rpm. A mega chimney was used without any mesh at the top. The experiment utilized a newly refurbished six-inch pitch auger and a prototype at a 35-degree angle setup.
+The feedstock used for this test was Douglas Fir wood chips from Williams Lake, Canada. The experiment summary indicates that the test performed well initially, but after 1-2 hours, hopper smoke started to appear. Attempts were made to mitigate the smoke by poking the biomass vigorously or temporarily idling the air or stopping the auger. However, these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide substantial improvement. The char in the first drum appeared to be relatively well done.
+The provided information does not include an example answer. If you have any specific questions or require further assistance, please let me know.</t>
+  </si>
+  <si>
+    <t>Based on the provided information, it seems like you are conducting combustion experiments using a small-sized reactor for biomass to biochar formation. The experiments involve inputting biomass into the reactor using a hopper and burning it with the help of an auger. The volatiles are removed through a chimney, and the resulting biochar is collected at the other end of the auger. Thermocouples are used to measure temperature at different locations.
+The objective of these experiments is to gain a complete understanding of the combustion process and machine design by testing different hypotheses. The example hot test mentioned involves replicating a previous test (hot test #104) for Esket demo day 2. The settings for this test include primary blowers at different speeds (S5 on the right and S10 on the left), a primary auger speed of 2200 rpm, and a secondary blower speed of 3000 rpm. The feedstock used is Douglas Fir wood chips from Williams Lake, Canada.
+During the test, the system performed well initially, but after 1-2 hours, hopper smoke started to appear. Various measures were taken to mitigate the smoke, such as poking the biomass vigorously, idling the air or stopping the auger temporarily, but none of them had a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement. The char in the first drum appeared to be relatively well done.
+The provided information does not include an example answer, so if you have any specific questions or need assistance with analyzing the data or drawing conclusions from the experiment, please let me know.</t>
   </si>
   <si>
     <t>Based on the provided information, it seems that the experiment is focused on biomass combustion (pyrolysis) in the presence of oxygen to produce biochar. The experiment involves a small-sized reactor with a hopper for biomass input, an auger for biomass transportation, and thermocouples to measure temperature at different locations. Primary blowers supply air (oxygen) to the reactor zone, while secondary blowers remove volatiles through a chimney.
@@ -2784,10 +2704,76 @@
 Please note that this is just an example answer based on the information provided. Further analysis and interpretation of the experimental results would require more detailed data and observations.</t>
   </si>
   <si>
+    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The primary blowers were set at S5 on the right and S10 on the left, with a primary speed of 2200 rpm and a secondary speed of 3000 rpm. The experiment used a newly refurbished six-inch pitch auger and a prototype setup at a 35-degree angle.
+During the test, the system performed well initially, but after about 1-2 hours, hopper smoke started to appear. The team attempted to mitigate the smoke by vigorously poking the hopper, idling the air or stopping the auger temporarily, but these measures did not have a significant effect. Moving the left-side primary blower from S5 to S10 also did not provide much improvement.
+The char in the first drum appeared to be relatively well done. The photo provided shows the spread of the char on the ground, with the first drum starting from the bottom-right and proceeding to the top-left. The second drum was overlaid directly above the starting point of the first drum, creating one large pile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 107 10/13/22  
+People: Camila, Austin, Qiangqiang, Ghazaleh. 
+Hypothesis: By putting both primary blowers at S10, we are expecting there to be less back flow. 
+Settings: Primary blowers at S10. Primary and secondary air set at idle initially (1300 rpm). Then starting primary at 2200 rpm and secondary at 3000 rpm. Mega chimney was used, without any mesh at the top. Using newly refurbished six inch pitch auger. Prototype at 35 angle setup.  
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+Today’s hot test operated without major poking, there was a few jams with the motor but the lighting process ran smoothly. The temperatures rose to very high temperature in a “sort of quick” manner, which might have to do with minimum poking. Presence of smoke in the hopper was rarely seen maybe due to the position of the primary blowers. After a while we did see amber and presence of a bit of smoke. Predict over charred results due to such high temperatures 
+Detailed Observations: 
+Smoke coming out of the outflow collar 
+Temperature plot demonstrates temperature reached a “plateau”. Today’s test reached very high temperatures.  
+While looking at the temperature profile above, we predicted biochar will be over-charred. However, when we took at the biochar actually, we found them to be actually unevenly charred despite being very hot: 
+Suggestions: 
+Be attentive throughout the whole process on the hopper. 
+Adjust blowers in response to very high temperature. Maybe try 2000 rpm. </t>
+  </si>
+  <si>
+    <t>The auger speed for this hot test was not mentioned in the provided information.</t>
+  </si>
+  <si>
+    <t>Hot Test #107 10/13/22
+Yield: N/A
+Summary:
+The hot test operated smoothly with minimal issues. The temperatures rose quickly, possibly due to minimum poking. There was occasional smoke in the hopper, which may be related to the position of the primary blowers. The biochar produced was unevenly charred despite the high temperatures.
+Detailed Observations:
+- Smoke was observed coming out of the outflow collar.
+- The temperature reached a plateau during the test, indicating high temperatures.
+- The biochar was found to be unevenly charred despite the high temperatures.
+Suggestions:
+- Pay close attention to the hopper throughout the process.
+- Adjust the blowers in response to very high temperatures, possibly trying a lower RPM of 2000.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was set at S10.</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>The experiment conducted a hot test with the primary blowers set at S10. The primary and secondary air were initially set at idle (1300 rpm) and then increased to 2200 rpm and 3000 rpm, respectively. The feedstock used was Douglas Fir wood chips from Williams Lake, Canada.
 During the test, there were a few jams with the motor, but overall, the lighting process ran smoothly without major poking. The temperatures rose to very high levels relatively quickly, possibly due to minimum poking. Smoke in the hopper was rarely observed, which could be attributed to the position of the primary blowers. However, after some time, amber and a bit of smoke were observed. It is predicted that the high temperatures resulted in over-charred biochar.
 Upon examining the temperature profile, it was expected that the biochar would be over-charred. However, when the actual biochar was inspected, it was found to be unevenly charred despite the high temperatures.
 Suggestions for future experiments include being attentive throughout the entire process in the hopper and adjusting the blowers in response to very high temperatures, such as trying a lower speed of 2000 rpm.</t>
+  </si>
+  <si>
+    <t>The input material for this hot test was Douglas Fir wood chips from Williams Lake, Canada.
+Based on the observations, it seems that the high temperatures reached during the test may have resulted in over-charring of the biochar. However, upon inspection, it was found that the biochar was actually unevenly charred despite the high temperatures.
+To address this issue, it is suggested to be attentive throughout the entire process, especially during the hopper stage. Additionally, adjusting the blowers in response to the high temperatures may help. It is recommended to try reducing the primary blower speed to 2000 rpm and observe the effects on the combustion process and biochar formation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 108 11/12/22  
+People: Hope, Troy, Austin. 
+Hypothesis: Pretesting reactor for public demo on 11/14 
+Settings: Primary blowers at S10. Primary and secondary air set at 3000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+The purpose of the test was to see if the newly installed power supply was working, and to determine if the colder ambient temps would require changes to the operation. Overall the test went very smoothly, though we ended up shutting down before a steady state was reached to conserve our chips. 
+Detailed Observations: 
+The reactor was perhaps a tiny bit slower to light, but not enough to drastically change the lighting procedure. The procedure followed was to stop the auger, light with charcoal lighter fluid, wait 2-3 minutes, run the auger for 1 minute, then stopping the auger for another 5 minutes before starting at operating speed (6 rpm). Nine minutes after that the primaries were lowered to 2200, which was the only change versus previous tests, where the primaries were lowered when the auger was started. 
+Because the test was so short, there are not many conclusions to be drawn. </t>
+  </si>
+  <si>
+    <t>The auger speed for this hot test was 6 rpm.</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test was 10 (S10).</t>
   </si>
   <si>
     <t>The experiment was conducted to test the functionality of the newly installed power supply and to determine if any adjustments were needed due to colder ambient temperatures. The test went smoothly, although it was ended before reaching a steady state to conserve biomass chips.
@@ -2798,20 +2784,101 @@
 Due to the short duration of the test, there are limited conclusions that can be drawn. However, the test confirmed the functionality of the newly installed power supply and indicated that the lighting procedure and primary blower speed adjustments were effective. Further testing is required to reach a steady state and gather more comprehensive data.</t>
   </si>
   <si>
+    <t>The experiment was conducted using Douglas Fir wood chips from Williams Lake, Canada as the feedstock. The purpose of the test was to check the functionality of the newly installed power supply and to assess if any changes were required in the operation due to colder ambient temperatures. The test went smoothly, although it was stopped before reaching a steady state to conserve the wood chips.
+Observations:
+1. The reactor took slightly longer to light, but it did not significantly affect the lighting procedure. The procedure involved stopping the auger, lighting with charcoal lighter fluid, waiting for 2-3 minutes, running the auger for 1 minute, and then stopping it for another 5 minutes before starting at the operating speed of 6 rpm.
+2. Nine minutes after starting the auger at the operating speed, the primary blowers were lowered to 2200 rpm. This was the only change made compared to previous tests, where the primary blowers were lowered when the auger was started.
+Since the test was short, not many conclusions can be drawn from it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 109 11/14/22  
+People: Hope, Troy, Austin Kevin 
+Hypothesis: Demo day! 
+Settings: Primary blowers at S10. Primary and secondary air set at 3000, then 4000 rpm for lighting. Then primary was lowered to 2200 rpm and secondary was left at 3000 rpm. Auger was run at 6 rpm. Mega chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 35 angle setup. New 24V power supply. 
+Feedstock: Douglas Fir from Williams Lake, Canada wood chips   
+Summary:   
+The test went much less smoothly than the previous test. The two major issues were the reactor not seeming to light properly on the first attempt, and later the auger stopped in an apparent “ghost trip” situation where power stopped flowing to the motor, but the breaker never tripped. 
+Detailed Observations: 
+It was quite cold on the day of the test which seems to have slowed down the lighting phase. The reactor was lit following the same procedure as the previous test, but when the auger was run after 8 minutes there was not a sustained flame in the main reaction zone. After a couple minutes no flames were visible through the side port, so lighter fluid was added to restart the reaction. It turned out that was all that was required, as there was enough flame higher up in the reactor to ignite the newly introduced lighter fluid. We then let it sit for another 11 minutes, and upped the primaries to 4000, to give the reaction time to establish. From there it seemed things were progressing as planned, but about 15 minutes later the auger motor unexpectedly stopped. The breaker did not seem to be tripped, and cycling the breaker, as well as re-enabling the motor in Codesys did not fix the problem. None of the wires nor the motor controller were hot. Finally, after 10-15 minutes the breaker was cycled one more time, and the auger started moving. Overall a very confusing condition. We ran for another 40 minutes or so before shutting things down. 
+Suggestions: 
+My (Austin) suspicion is that the breaker might be worn out, and not tripping properly in an overcurrent situation. I suggest we replace the motor breaker and see if it solves the “ghost tripping” problem. </t>
+  </si>
+  <si>
+    <t>Based on the detailed observations provided, it seems that the auger motor experienced an unexpected stoppage during the test, referred to as a "ghost trip" situation. The breaker did not appear to be tripped, and cycling the breaker and re-enabling the motor did not resolve the issue immediately. However, after 10-15 minutes, cycling the breaker once more allowed the auger to start moving again.
+One suggestion to address this problem is to replace the motor breaker. It is possible that the breaker may be worn out and not tripping properly in an overcurrent situation, leading to the motor stopping without the breaker being triggered. By replacing the motor breaker, it can be determined if this solves the "ghost tripping" problem.
+It is important to note that this suggestion is based on the provided information, and a thorough examination of the equipment and further troubleshooting may be necessary to fully understand and resolve the issue.</t>
+  </si>
+  <si>
+    <t>The suggestion is to replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
+  </si>
+  <si>
+    <t>Replace the motor breaker to see if it solves the "ghost tripping" problem.</t>
+  </si>
+  <si>
     <t>Based on the detailed observations, it seems that the auger motor stopped working during the experiment, but the breaker did not trip. This is referred to as a "ghost trip" situation. One suggestion to address this issue is to replace the motor breaker, as it may be worn out and not functioning properly in overcurrent situations. By replacing the breaker, it can be determined if this solves the problem of the auger motor stopping unexpectedly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 110 02/01/23 
+People: Kevin, Camila, Dylan, Rod and Jeff 
+Hypothesis: UBC test with new team member. Not considered a set up baseline since Blower C and D are not being controlled and issues with thermocouple readings. 
+Settings: Primary blowers at S10. Blowers set at 3000 rpm throughout the hot test.   Auger was run at 6 rpm. Small chimney was used, without any mesh at the top. Using six inch pitch auger. Prototype at 30 angle setup, small barrel. 
+**Secondary Blowers C and D are not controlled. Currently going at around 8000 rpm and Blower D is not reading in Codesys. 
+Scale readings seem off. 
+Feedstock: Woodchips from Cloverdale 
+Summary:  Today’s hot tests purpose was to demonstrate the procedure on how to run the reactor. We lit the chips from S9 which might have influenced in the amount of smoke in the hopper. Likewise we had the ports open to visualize all the steps and this caused negative pressure. Testing around one can see that running primary blowers higher generates positive pressure through the open ports.  The short hot test ran pretty smoothly with around 24.654 kg/h being fed. 
+We observed that there is a tradeoff between mechanical conveyance difficulty and hopper fire. The experiment ended when the hopper was on fire (as well as the fact that we don’t have that much Cloverdale wood chips to go around with). But in general the pressure was negative throughout, including in the hopper.  
+Input feed rate 
+Output feed rate 
+The output weight was jumping back and forth between 1 and 2. After switching the barrel we identified the scale is indeed not working properly and require further troubleshooting. 
+Although small input, output seems to be well-charred. 
+Suggestions: Moving forward we have work to do troubleshooting the blowers, scale and thermocouples. By working on these areas we can move forward and run a hot test as a baseline for variable pitch auger. </t>
+  </si>
+  <si>
+    <t>Input flow rate: 24.654 kg/hour</t>
+  </si>
+  <si>
+    <t>The primary blower speed for this hot test is S10. The secondary blowers C and D are not controlled, with C running at around 8000 rpm and D not reading in Codesys. The auger was run at 6 rpm. The experiment used a small chimney without any mesh at the top. The prototype setup had a 30-degree angle and a small barrel. The feedstock used was woodchips from Cloverdale.
+During the hot test, there were some issues with the procedure. Lighting the chips from S9 may have influenced the amount of smoke in the hopper. The open ports caused negative pressure, and running the primary blowers at a higher speed generated positive pressure through the open ports. The experiment ended when the hopper caught fire. The input feed rate was around 24.654 kg/h, and the output feed rate fluctuated between 1 and 2. The scale used for measuring the output weight was not working properly and requires further troubleshooting. Despite the scale issue, the output appeared to be well-charred.
+Moving forward, it is suggested to troubleshoot the blowers, scale, and thermocouples. By addressing these areas, a hot test can be run as a baseline for a variable pitch auger.</t>
   </si>
   <si>
     <t>The experiment conducted in this hot test aimed to demonstrate the procedure for running the biomass-to-biochar reactor. However, there were several issues encountered during the test. Blowers C and D, which are responsible for removing volatiles through the chimney, were not controlled properly. Blower D was not reading in Codesys, and both blowers were running at around 8000 rpm. This uncontrolled operation of the blowers may have affected the combustion process.
 Additionally, there were problems with the thermocouple readings and the scale used to measure the input and output feed rates. The thermocouples require further troubleshooting, and the scale was found to be malfunctioning, causing inconsistent weight measurements.
 Despite these issues, the experiment ran smoothly for a short duration, with a feed rate of approximately 24.654 kg/h. The output feed rate fluctuated between 1 and 2, indicating the scale's malfunction. However, the output biomass appeared to be well-charred, suggesting successful biochar formation.
 Moving forward, it is recommended to focus on troubleshooting the blowers, scale, and thermocouples to ensure accurate measurements and controlled operation. Once these issues are resolved, a hot test can be conducted as a baseline for testing the variable pitch auger.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Test # 111 02/02/23 
+People: Kevin, Rod, Camila and Dylan 
+Hypothesis: Run reactor at lower angle (15°) to test whether the auger will jam less, more or the same as Hot Test #110 
+Settings: Primary blowers at S10. 6in pitch auger used, running at 6rpm. Small chimney mounted with no mesh. Prototype set up at 15° with small barrel being used.  
+Scale fixed since yesterday’s test 
+Blower C is controlled. 
+Feedstock: Cloverdale woodchips 
+Summary: The purpose of today's hot test was to run the reactor in similar conditions as #110 but with the reactor at 15°. The intent was to see if the auger would jam less and to see if it was less likely to have a fire in the hopper. Although it appeared that there was less fire in the hopper, we were pushing down the woodchips more regularly which could have been a factor as well. Less scraping between the auger and the base of the reactor was heard. However, lots of woodchips were getting stuck and the motor breaker tripped multiple times. This did not occur in yesterday's test. 
+Flames could be seen at the top of the chimney. Blower rpm was increased to counteract this. </t>
+  </si>
+  <si>
+    <t>[output char quality, 0.5] The output char quality is moderate (0.5) because although there were improvements in reducing fire in the hopper and less scraping between the auger and the base of the reactor, the motor breaker tripped multiple times and lots of woodchips were getting stuck.</t>
+  </si>
+  <si>
+    <t>Blower C was controlled.</t>
+  </si>
+  <si>
+    <t>The auger jammed more frequently when the reactor was run at a lower angle of 15° compared to Hot Test #110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2832,6 +2899,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2869,7 +2943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2878,6 +2952,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3192,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3207,10 +3283,11 @@
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.83203125"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3256,2375 +3333,2843 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>253</v>
+        <v>25</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" t="s">
-        <v>254</v>
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N4" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>255</v>
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>296</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>256</v>
+        <v>50</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>257</v>
+        <v>57</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O8" t="s">
-        <v>259</v>
+        <v>73</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>298</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>82</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0.2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>299</v>
+        <v>89</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="238" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="N11" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>261</v>
+        <v>96</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="N12" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>262</v>
+        <v>102</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0.8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="O14" t="s">
-        <v>263</v>
+        <v>113</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15">
+        <v>0.7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="404" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="404" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5</v>
+      </c>
+      <c r="R16" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="M17" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="N17" t="s">
-        <v>303</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>264</v>
+        <v>128</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17">
+        <v>0.2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="N18" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="O18" t="s">
-        <v>265</v>
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="N19" t="s">
-        <v>305</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>266</v>
+        <v>139</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0.9</v>
+      </c>
+      <c r="R19" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="N20" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s">
-        <v>267</v>
+        <v>145</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>351</v>
+      </c>
+      <c r="R20" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="M22" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="N22" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="O22" t="s">
-        <v>268</v>
+        <v>152</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M23" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="N23" t="s">
-        <v>308</v>
+        <v>157</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="M24" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="N24" t="s">
-        <v>309</v>
+        <v>163</v>
       </c>
       <c r="O24" t="s">
-        <v>269</v>
+        <v>164</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="N25" t="s">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="O25" t="s">
-        <v>270</v>
+        <v>170</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="N26" t="s">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
-        <v>271</v>
+        <v>179</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0.2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="N27" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="O27" t="s">
-        <v>272</v>
+        <v>185</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>87</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="O28" t="s">
-        <v>273</v>
+        <v>192</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28">
+        <v>0.2</v>
+      </c>
+      <c r="R28" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>88</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="N29" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="O29" t="s">
-        <v>274</v>
+        <v>200</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0.8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="M30" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="N30" t="s">
-        <v>315</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s">
-        <v>275</v>
+        <v>209</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="M31" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="N31" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="O31" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0.8</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="M32" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s">
-        <v>277</v>
+        <v>225</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0.9</v>
+      </c>
+      <c r="R32" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>278</v>
+        <v>230</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0.2</v>
+      </c>
+      <c r="R33" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>279</v>
+        <v>237</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0.8</v>
+      </c>
+      <c r="R34" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s">
-        <v>280</v>
+        <v>245</v>
+      </c>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s">
-        <v>281</v>
+        <v>250</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36">
+        <v>0.7</v>
+      </c>
+      <c r="R36" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L37" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N37" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>282</v>
+        <v>255</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0.8</v>
+      </c>
+      <c r="R37" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s">
-        <v>283</v>
+        <v>263</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>0.6</v>
+      </c>
+      <c r="R38" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="M39" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="O39" t="s">
-        <v>284</v>
+        <v>270</v>
+      </c>
+      <c r="P39" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="O40" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40">
+        <v>0.7</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>284</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0.8</v>
+      </c>
+      <c r="R41" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L42" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s">
-        <v>286</v>
+        <v>293</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0.4</v>
+      </c>
+      <c r="R42" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O43" t="s">
-        <v>287</v>
+        <v>298</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0.7</v>
+      </c>
+      <c r="R43" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="M44" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N44" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>288</v>
+        <v>302</v>
+      </c>
+      <c r="P44" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0.7</v>
+      </c>
+      <c r="R44" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s">
-        <v>289</v>
+        <v>312</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0.7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>227</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L46" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="N46" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O46" t="s">
-        <v>290</v>
+        <v>318</v>
+      </c>
+      <c r="P46" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0.8</v>
+      </c>
+      <c r="R46" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="340" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="340" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="M47" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O47" t="s">
-        <v>291</v>
+        <v>324</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0.7</v>
+      </c>
+      <c r="R47" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="N48" t="s">
         <v>330</v>
       </c>
       <c r="O48" t="s">
-        <v>292</v>
+        <v>331</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0.8</v>
+      </c>
+      <c r="R48" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>240</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L49" t="s">
-        <v>242</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N49" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O49" t="s">
-        <v>293</v>
+        <v>336</v>
+      </c>
+      <c r="P49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0.5</v>
+      </c>
+      <c r="R49" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>243</v>
+        <v>337</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0.5</v>
+      </c>
+      <c r="R50" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>333</v>
+        <v>345</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51">
+        <v>0.5</v>
+      </c>
+      <c r="R51" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>250</v>
+        <v>347</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0.5</v>
+      </c>
+      <c r="R52" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
